--- a/output/Total_time_range_data/辽宁省/盘锦市_学习考察.xlsx
+++ b/output/Total_time_range_data/辽宁省/盘锦市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,3902 +436,4270 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>44</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>辽河佳苑社区开展政协委员进企业学习考察活动</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.xlt.gov.cn/2024_06/13_17/content-475127.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['近日，辽河佳苑社区党委，联合社区“大党委”成员单位盘锦水务集团有限公司供水分公司新工开发党支部，开展政协委员进企业学习考察活动，共同探讨企业的未来发展，一起为企业建设出谋划策。', '活动中，政协委员在听取了盘锦水务集团有限公司供水分公司新工开发党支部书记杨静，针对自来水公司的发展情况做了简短的介绍后，他们对盘锦水务集团有限公司供水分公司在推动地方经济发展方面所做出的贡献给予了充分肯定，并就如何进一步优化企业发展环境等问题提出了建设性意见。', '通过此次活动的开展，在委员、代表的共同努力下，我们的社区将变得更加美好、和谐、繁荣，携手共进，为我们的家园建设贡献力量！（辽河佳苑社区 撰稿：张迎秋）']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>44</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>山西省机关事务管理局一行来基地培训赋能</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-05-15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2024_05/15_08/content-475426.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['1号食堂等处进行实地考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准之路 质量花开》宣传片。', '首创标准化基本概念、标准化思维理念方法等高度认可，真切感受到标准文化建设更是成为盘锦机关事务的名片。全国首创']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>44</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>瓦房店市机关事务服务中心一行来基地培训赋能</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-03-15</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2024_03/15_10/content-462413.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['号食堂等处进行实地考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准之路 质量花开》宣传片。', '标准化质量管理模式高度认可。真切感受到盘锦市从理论到实践，以标准化为基础，深入推进体系化、数字化、品牌化建设，通过成功申报中国质量奖，打通了标准到质量的最后一公里，实现了全面质量管理，提升了机关事务治理效能，“盘锦经验、盘锦模式”真正为全国机关事务系统高质量发展提供了实践样板。', '盘锦市机关事务中心将继续秉持创新、协调、绿色、开放、共享的理念，持续发挥三个体系、三个模式、四个国家级试点及五大基地的优势效能，为推进机关事务治理体系和治理能力现代化贡献力量。', '李强主持召开国务院第四次全体会议 深入学习贯彻习近平总书记在全国“两会”期间的重要讲话精神 ...']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>44</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>深化垦垦合作探索辽米营销推广模式</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-03-26</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://nyncj.panjin.gov.cn/2024_03/26_10/content-463709.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['3月21日，辽宁丹东五四农场集团总经理王仁增，副总经理丛卓林、付伟强，一行三人来到盘锦中尧农垦集团有限公司考察学习。双方围绕水稻种植技术、米质提升、线上线下销售等方面进行了交流座谈，在产品升级和品牌推广领域达成合作意向。', '双方表示，在这个充满机遇与挑战的时代，地处辽宁垦区东南区位优势的两家农垦企业， 有着共同的发展愿景和战略目标，“共同探索辽字号土特产辽米的营销推广模式”，是农垦国有企业助推辽宁垦区在建设现代农业的大基地、大企业、大产业上持续发力的责任担当，也是发挥好农垦国家队作用，展现、擦亮、提升辽宁区域公用品牌的重要着力点，我们将持续深化创新垦垦合作机制，坚持“积极对接、市场运作、优势互补、互利共赢”的原则，共同打造辽宁垦区强国强垦示范力量。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>44</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>四川旅投商汇物业服务集团一行来基地共享标准化质量管理模式</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2024_03/01_15/content-460576.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['四川旅投商汇物业服务集团一行来基地共享9123标准化质量管理模式_工作动态_盘锦市机关事务管理局', '号食堂等处进行实地考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准之路 质量花开》宣传片。', '标准化质量管理模式高度认可。真切感受到盘锦市从理论到实践，以标准化为基础，深入推进体系化、数字化、品牌化建设，通过成功申报中国质量奖，打通了标准到质量的最后一公里，实现了全面质量管理，提升了机关事务治理效能，“盘锦经验、盘锦模式”真正为全国机关事务系统高质量发展提供了实践样板。', '盘锦市机关事务中心将继续秉持创新、协调、绿色、开放、共享的理念，持续发挥三个体系、三个模式、四个国家级试点及五大基地的优势效能，为推进机关事务治理体系和治理能力现代化贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>44</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>吉林省辽宁省产业合作对接会召开共享振兴机遇携手共创未来谱写新时代吉辽合作新篇章</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-12-10</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://sfj.panjin.gov.cn/dongtaiyaowen/redianxinwen/2023_12/10_11/content-470170.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['吉林省—辽宁省产业合作对接会召开 共享振兴机遇 携手共创未来 谱写新时代吉辽合作新篇章_盘锦市司法局全面振兴新突破三年行动专栏_盘锦市司法局', '吉林省—辽宁省产业合作对接会召开 共享振兴机遇 携手共创未来 谱写新时代吉辽合作新篇章', '李乐成代表省委、省政府，对吉林省及广大企业家长期以来给予辽宁振兴发展的关心支持帮助表示感谢。他说，近年来，吉林深入贯彻落实习近平总书记视察吉林重要讲话重要指示精神，深入实施“一主六双”高质量发展战略，加快打造现代新型汽车和零部件、农产品生产及农产品和食品加工、冰雪和避暑休闲生态旅游三个万亿级大产业，构建具有吉林特色优势的现代化产业体系，经济社会发展成就令人鼓舞，经验值得我们学习。当前，辽宁正深入贯彻习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神，全面落实省委十三届六次全会部署，实施全面振兴新突破三年行动，凝心聚力打造新时代“六地”，加快发展22个重点产业集群，全力打造先进装备制造、石化和精细化工、冶金新材料、优质特色消费品工业四个万亿级产业基地，加快形成新质生产力，奋力谱写中国式现代化辽宁新篇章。加强重点产业合作是两省合作的重要内容。我们愿同吉林一道，引导、推动两省企业深化合作，共同做强产业链、畅通供应链、提升价值链，为携手谱写辽吉高质量发展可持续振兴崭新篇章作出更大贡献。我们将持续打造营商环境“升级版”，推动各类企业配套协同，实现高质量发展。', '胡玉亭代表吉林省委、省政府，向辽宁省长期以来对吉林振兴发展的关心支持表示感谢。他说，党的二十大以来，辽宁省开创性谋划实施全面振兴新突破三年行动，发出打赢新时代“辽沈战役”的时代强音，高质量发展、可持续振兴迈出新步伐，辽宁省的好经验、好做法、好作风值得认真学习借鉴。吉林和辽宁是山水相依、守望相助的“好邻居”“好伙伴”。当前，吉林全省上下正在深入贯彻习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，按照省委十二届四次全会部署，坚定不移扛起“五大安全”重要使命，实施“一主六双”高质量发展战略，以“四大集群”培育为重点，以“六新产业”发展为方向，以“四新设施”建设为保障，实现高质量发展、高品质生活，振兴发展“上升期”“快车道”趋势愈加显著。我们愿与辽宁一道，共享振兴机遇，谱写新时代吉辽合作新篇章。一是深化省际战略合作，携手打造“共促振兴”新样板。二是深化产业对接合作，携手构筑“强链补链”新优势。三是深化产学研合作，携手抢占“创新发展”新赛道。四是深化省际通道合作，携手建设“区域互联”新高地。我们将为企业在吉投资兴业创造一流营商环境，提供优质服务保障。', '会上，36户企业进行集中签约。中国第一汽车集团董事长、党委书记邱现东，吉林化纤集团董事长宋德武，长光卫星公司董事长、总经理宣明，长春皓月清真肉业公司董事长丛连彪；鞍钢集团党委常委、副总经理徐世帅，恒力石化（大连）化工公司总经理安锦香，辽宁港口集团总经理李国锋，东软集团联席总裁徐洪利8位吉辽知名企业家代表发言。', '盘政办发〔2023〕25号 盘锦市人民政府办公室关于印发《盘锦市落实〈辽宁省提升行政执法质量三年...', '郝鹏李乐成会见中国一汽集团董事长邱现东 深化央地合作区域协同产业协同 携手推动东北汽车工业高...']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>44</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>苏州工业园机关事务管理中心有限公司一行来盘共享标准化质量管理模式</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-12-06</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2023_12/06_16/content-447726.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['苏州工业园机关事务管理中心有限公司 一行来盘共享9123标准化质量管理模式_标准化信息化“两融合”试点_盘锦市机关事务管理局', '1号食堂等处进行实地考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准之路 质量花开》宣传片。', '9123标准化质量管理模式高度认可。真切感受到盘锦市从理论到实践，以标准化为基础，深入推进体系化、数字化、品牌化建设，通过成功申报中国质量奖，打通了标准到质量的最后一公里，实现了全面质量管理，提升了机关事务治理效能，“盘锦经验、盘锦模式”真正为全国机关事务系统高质量发展提供了实践样板。', '盘锦市机关事务中心将继续秉持创新、协调、绿色、开放、共享的理念，持续发挥三个体系、三个模式、四个国家级试点及五大基地的优势效能，为推进机关事务治理体系和治理能力现代化贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>44</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>丹东卫健中心来盘考察学习</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2021-08-09</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.panjin.gov.cn/html/1737/2021-08-09/content-101973.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['8月3日，丹东市卫生健康服务中心组织相关人员来到盘锦市卫生健康事业服务中心考察学习。 盘锦市卫生健康事业服务中心介绍了中心目前工作模式及发展方向，特别是承接卫生行政部门委派工作的具体实施情况及做法，介绍了医学会工作开展情况。医学会负责专科分会建设及医疗事故技术鉴定两项工作，目前全市有73个专科分会、2个青年委员会、11个专业学组，专科分会每年至少开展一次学术活动，为卫生技术人员搭建了一个学习交流的平台；医学会目前开展了医疗事故技术鉴定、预防接种异常反应鉴定及职业病鉴定，正在积极筹备医疗损害鉴定。在医疗事故技术鉴定工作中，程序公开规范，鉴定结论客观、科学、公正，得到了委托单位的充分认可，为妥善解决我市医疗纠纷，保障医患双方合法权益，维护社会和谐稳定做出了突出贡献。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>44</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>北京国二招宾馆和天津市机关事务管理局来盘学习考察</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2019-04-26</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.panjin.gov.cn/html/1737/2019-04-26/content-37492.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['北京国二招宾馆和天津市机关事务管理局来盘学习考察 - 盘锦要闻 - 盘锦市人民政府', '近日，北京国二招宾馆和天津市机关事务管理局后勤管理部先后来我市市直机关综合事务中心参观考察，重点学习了在机关事务管理、标准化建设和公务接待管理等方面的先进经验和做法。', '北京国二招宾馆一行和天津市机关事务管理局一行先后来到辽东湾会议中心、1号职工食堂、市直机关党群服务中心、机关事务智慧管理平台参观考察。在参观考察过程中，盘锦市市直机关综合事务中心详细介绍了在标准化建设过程中取得的成绩。', '北京和天津的客人对盘锦市市直机关综合事务中心在标准化建设方面超前的工作思路和取得的丰硕成果给予了高度评价，认为盘锦市市直机关综合事务中心在标准化建设方面取得的成绩值得全国机关事务管理系统学习借鉴，具有很好的推广意义。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>44</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>葫芦岛市卫健委来双台子区考察学习健康促进区创建工作</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2019-04-10</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.panjin.gov.cn/html/1737/2019-04-10/content-37579.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['葫芦岛市卫健委来双台子区考察学习健康促进区创建工作 - 盘锦要闻 - 盘锦市人民政府', '通过观看创建健康促进区相关宣传片，现场观摩双台子区社会福利院、双河社区、生态岛等健康场所，实地翻阅创建资料，并就相关问题进行互动交流，葫芦岛市卫健委考察组表示，双台子区创建健康促进区工作的谋篇布局、统筹引领、政策聚合、资源整合、社会融合等方面的举措以及健康促进医院、健康促进机关、健康促进企业、健康社区（村）、健康家庭评选和健康支持性环境等方面打造的先进经验和典型做法，为葫芦岛市提供了可复制、可借鉴的经验。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>44</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>盘锦市关于赴江苏省国家卫生城市考察学习报告</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2016-08-02</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.panjin.gov.cn/html/1823/2016-08-02/content-80714.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['盘锦市关于赴江苏省国家卫生城市考察学习报告 - 创建国家卫生城市 - 盘锦市人民政府', '为学习和借鉴先进地区创建国家卫生城市经验，5月9日至15日，省爱卫办组织沈阳、丹东、盘锦三市创卫办赴江苏省南京、徐州、扬州三市考察学习。通过情况介绍、深入到农贸市场、城中村、老旧小区、背街小巷等地进行实地考察、与当地群众交谈等方式，较全面地了解和学习了当地在创卫过程中的成功做法和先进经验，深受启发，现就考察学习的有关情况及下一步工作建议报告如下：', '三市市委、市政府以提升城市形象、提高城市品位、改善城市环境为目标，以提高市民的文明素质和健康素养为出发点，以环境综合整治为立足点，以坚持强化党委、政府领导，全体市民参与，各级各部门联合行动，超常动作，严管重罚为手段，高起点高标准规划了国家卫生城市的创建工作，并经过多年的努力，成功创建为国家卫生城市。南京市于1990年提出创建国家卫生城市目标，经过14年努力，2003年实现国家卫生城市工作目标；徐州市2004年将创建国家卫生城市列入重要日程，2015进入国家卫生城市行列；扬州市 2002年荣获“国家卫生城市”称号。', '三市在创建国家卫生城市工作中都专门成立了高规格的创建工作指挥部，由市长担任总指挥，分管副市长任副总指挥，各区（管委会）和市直各部门的一把手为指挥部成员，同时要求各区(管委会)、各职能部门参照市级创卫机构成立指挥部，形成了横向到边、纵向到底的创卫领导体系，逐步完善了一级抓一级、层层抓落实、保障有力的工作机制和领导体制。市、区两级指挥部均下设办公室（创卫办），从相关部门抽调执行力强、作风优良、业务精干的人员充实到市区两级创卫办，强化两级创卫办人员配备。三市都结合当地实际，对照《国家卫生城市标准》，高标准制定了《创建国家卫生城市实施方案》及创建任务分解表，明确了各部门工作的具体内容、责任领导、责任单位、责任人、工作完成时限和完不成任务所承担的责任等。', '一是领导层面推动。通过召开动员大会、工作部署会、协调会、调度会、现场办公会扩大了创建影响面。二是新闻媒体鼓动。在电视、报刊、网络等媒体上开辟健康教育专栏，集中新闻版面、频道资源和播报时段，全方位开展创卫宣传。城市重要节点设置大型公益广告宣传牌和LED电子显示屏。通过公交车、出租车、市区沿街电子屏滚动播放宣传标语，在主要街道、公汽站牌、单位、居民区都设置了健康教育宣传内容。三是单位群众联动。在学校开展创卫有奖征文、爱国卫生以及“小手拉大手、小家带大家”等活动。在机关群体开展知识竞赛、“每月清洁一小时”等活动。组织志愿者开展志愿服务、文明劝导、义务监督等主题活动。四是全面参与互动。通过发放宣传资料、签订“门前五包”责任书等形式，把健康教育活动开展到每一个机关、企业、社区、家庭，引导市民树立文明意识，养成良好卫生习惯。', '南京市在创建国家卫生城市过程中，围绕让“蓝天、碧水”永驻，打造“绿色、宁静、畅通”生活空间的目标，大力实施“蓝天”工程、“碧水”工程、“绿地”工程、“宁静”工程、“畅通”工程等“五大工程”，切实解决了创卫工作中存在的问题。徐州市结合实际，通过开展棚户区改造工程、采煤塌陷地治理工程、铁路沿线治理工程、食品安全保障工程、“百条小巷”整治工程、占道经营整治工程、交通秩序治理工程、“六小”行业治理工程等“八项工程”，确保创卫硬件过硬。徐州市在2013年9月至12月期间，有针对性地实施了创建卫生城市“十大工程”，即基础卫生设施建设工程、污水沟河整治工程、“六小”行业达标工程、卫生社区创建工程、城市管理提升工程、市容市貌美化工程、集贸市场规范工程、老旧小区治理工程、城中村改造工程、市民素质提升工程，大大改观了城市面貌，顺利通过了国家级暗访。', '一是各司其职，建立长效机制。三地的各职责部门都能够对照标准，结合实际，积极配合，分解任务，落实责任，并分别制定本行业的管理规定，建立长效管理机制。如：《关于加强城市卫生长效管理的意见》、《城市卫生长效管理考核办法》和《城市卫生长效管理考核评分标准》，以制度促进了各项创卫工作的开展。二是双城联创，形成合力。三地都将创建国家卫生城市与创建国家文明城市有机的结合起来，推进“双城联创”，同研究、同部署、同落实，密切配合，形成合力。三是各有侧重，特色鲜明。南京在落实“门前五包”责任制方面落实到位，公共场所、绿地、小街小巷等地处处都有卫生责任部门标识；徐州注重加强城乡混合街区环境综合整治,街道做到了统一牌匾,设立了城市管理便民服务亭、非机动车停放处、便民导示牌；扬州注重街路两侧美化绿化和健康城市建设，建成区内有8个大型生态体育休闲公园向老百姓开放。', '通过学习交流和实地考察，使我们进一步理清了创建国家卫生城市工作的思路，学到了不少创建工作方法，增强了创建成功的信心。梳理总结三地创建国家卫生城市工作经验，结合我市创卫工作实际，提出以下工作建议：', '客观地讲，盘锦市创卫攻坚阶段工作主要是依靠行政手段推动，靠突击迎检，缺乏制度层面保障，创卫工作还没有纳入制度化、规范化、法制化的轨道。建议：市政府从战略高度和长远角度考虑城市建设和管理工作，抓紧出台促进卫生城市长效管理实施意见，做好全市创卫工作的总体规划和顶层设计，明确各地各部门在创卫工作中的具体职能，将此项工作长期纳入政府目标考核体系。', '当前我市农贸市场、城中村、老旧小区、五小行业、病媒生物防制、城市公厕是创建国家卫生城市的“短板”。建议市政府加大基础设施建设的同时，下大力气补齐“短板”，为争创国家卫生城市夯实基础。一要强力推进城区农贸市场升级改造。依据《标准化菜市场建设标准》的要求，在场地环境、设施设备、商品管理、卫生管理、经营管理等5个方面对农贸市场进行全面升级和改造，通过制订农贸市场管理办法，确定管理主体，推动农贸市场环境卫生管理工作常态化。二是持续加强对城中村、城乡结合部、老旧小区的环境整治。结合当前我市正在实施的宜居乡村建设和老旧小区综合整治工作，做好卫生基础设施新建扩建改建工作，确保人行道、路灯、排水管网、垃圾收集、停车场等各类卫生基础设施完善，提升对环境卫生的承载功能。引入市场竟争机制落实后续管理工作，确保整治后城乡结合部和居民老旧小区的环境卫生持久改善。三是规范五小行业经营行为。将行业管理细则、从业人员健康证明和卫生知识培训合格证明全部上墙公示，做到“三防”设施、清洗消毒设施齐全，台账设立规范。按照“规范设置，减量提质，一店一招”的原则，规范城区店招店牌。四是严格按照病媒生物防制要求做好日常工作。通过春秋两季病媒生物消杀、病媒生物密度监测、四害孳生地治理等方式深入、持久地开展病媒生物防制工作，不断降低病媒生物密度，使其控制在国家规定的标准之内。五是加大旱厕改造和水冲式公厕建设力度。拆除、改造城区内旱厕，在主要干道和人流密集区域增加水冲式公厕数量，组织沿街单位内厕开放，科学设置指导牌，做好公厕的日常保洁和设备维护。', '加快完善“条块结合、以块为主，重心下移、属地管理”的“网格化管理” 长效管理新体系。对照2014年版国家卫生城市标准，着手制订和完善城市规划建设、城市市容管理、城市环境卫生管理、农贸市场管理、城市交通秩序管理、居民小区管理、城中村及城乡结合部管理、门前“四包”管理等一系列城市管理的长效制度，明确部门职责，通过定人、定区域、定职责、定内容、定时段、定岗位确保城市管理得到全面落实，构建涵盖广泛、内容详实、衔接紧密的城市管理制度体系，努力实现城市管理责任化、科学化、精细化、长效化，推动创卫从“行政推动”到“制度保障”转变、由“突击治理”向“日常监管”转变、由“非常态创卫”向“常态有效管理”转变。', '将创卫宣传纳入全市宣传工作要点，科学制订创卫宣传的整体规划和实施方案，重点做好宣传人员素质建设、基础建设（健康教育宣传栏等），有计划有步骤地开展创卫宣传，不断完善创卫宣传、健康教育、爱国卫生宣传网络和常态化机制，推动创卫宣传工作深入持久开展，真正形成全民参与、齐抓共管的新氛围，为创建国家卫生城市工作深入开展营造良好的舆论环境。', '创卫工作中很多目标任务与其它工作都是重叠的，如，创卫标准8个方面内容中，有5个与创建文明城市是一致的。所以，建议市政府建立创卫协同工作机制，将创建国家卫生城市与创建国家文明城市、供给侧改革、宜居乡村建设工作结合起来，同研究、同部署、同落实，确保创建国家卫生城市任务圆满完成。', '在将创卫纳入政府考核体系的基础上，按照市区分层、条块结合、城乡双轨的原则制订长效管理考核办法，细化考核内容，进一步强化目标管理，建议市政府设立创卫专项奖励基金，组织对成员单位进行半年一考核、一年一奖惩的全面考核，并根据评比的情况和测评分数，结合群众投诉问题的多少对各成员单位进行量化综合考评，通过目标责任驱动和考核奖惩驱动，促使各职能部门全面落实城市卫生长效管理工作。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>44</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>我市组织专业人员赴京学习考察创投圈</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2016-04-08</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.panjin.gov.cn/html/1737/2016-04-08/content-43718.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['日前，我市组织毕业生就业创业服务机构、各县区人才中心、辽河文化创客园、部分创业孵化器单位相关人员共同赴京参观考察，了解北京创业投资生态环境，学习提升技能，推动我市就业创业工作实现创新发展。 在京期间，聆听了北京青年政治学院李家华教授的关于创业基础教育的课程，参观了北京中关村创业大街、北京邮电大学创业孵化基地、北京普天德胜科技创业孵化基地和798艺术创业孵化街。还参加了北京创投圈的盛大活动——北京“链大会”。现场感受了来自新东方创始人之一的创投人王强及当今互联网创业成功人士的创业感受和创业经验指导。 学习期间，市人社部门与清华大学美术学院进行了就业实习基地建设、产学研合作的对接，参观了清华美院的非遗展览馆和纤维材料实验室，与北京邮电大学创业导师经管学院教授进行了深度对话，探讨了关于“智慧盘锦”建设方面人才引进与项目引进等问题。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>44</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>市统战部组织全市非公经济企业家学习考察</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2014-09-15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.panjin.gov.cn/html/1737/2014-09-15/content-47586.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['9月12日，市统战部组织全市优秀青年企业家培训班人员、统战部门、工商联负责同志、各民主党派、台侨联及县区企业家代表，就了解全市民营企业运行现状、服务非公经济发展等情况进行考察和座谈交流。 市人大常委会副主任王明佳，市政协副主席、统战部长蒋景晨，市政协副主席张权华出席活动。 此次活动是一次结合我市优秀青年企业家培训和民主党派调研的综合性活动，对促进我市统战工作和工商联工作的开展具有重要意义。要求全市各级统战部门、工商联要充分发挥组织、人才优势，为非公经济提供政策支持，搭建服务平台；广大非公人士要积极参与、主动作为，把企业做大做强，以实际行动催生盘锦非公经济新一轮发展热潮。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>44</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴上海市学习考察并举行上海市辽宁省交流合作座谈会</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.panjin.gov.cn/html/2693/2023-06-15/content-132028.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴上海市学习考察并举行上海市·辽宁省交流合作座谈会 - 热点新闻 - 盘锦市人民政府', '6月13日，辽宁省党政代表团赴上海市学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴上海先进经验做法，拓展沪辽多领域多层次务实合作，更好实现互利共赢、协同发展。学习考察期间，两省市举行上海市·辽宁省交流合作座谈会。上海市委书记陈吉宁主持座谈会并讲话。省委书记、省人大常委会主任郝鹏出席座谈会并讲话。省委副书记、省长李乐成，上海市委副书记、市长龚正分别介绍两省市经济社会发展以及上海市、大连市对口合作工作有关情况。省政协主席周波出席座谈会。', '陈吉宁代表市委、市人大常委会、市政府、市政协，感谢辽宁省长期以来给予上海发展的支持帮助。他说，辽宁省深入贯彻落实习近平总书记关于东北振兴重要论述，加快实施辽宁全面振兴新突破三年行动，全力以赴育先机、开新局，改革开放向纵深推进，创新驱动发展取得新成效，辽宁干部群众奋发有为、奋勇争先的精气神和形成的好做法、好经验，值得上海认真学习借鉴。', '陈吉宁说，新起点上，上海将坚决贯彻党中央、国务院部署要求，与辽宁省、大连市一道，加快探索建立南北经济高效互动合作、跨区域高水平协同发展的新模式，推动两地合作交流不断取得新成绩、打造新标杆、体现新水平，实现高质量发展，更好服务和融入新发展格局。发挥两地红色资源丰富优势，共同弘扬红色文化、讲好红色故事。在服务高水平科技自立自强上深化合作，加强项目对接、平台对接、人才对接，实现优势互补。在建设现代化产业体系上紧密互动，共同提升产业链供应链的稳定性和竞争力。在深化高水平对外开放上相互借鉴，对接国际高标准经贸规则，共享共用进博会等国际交流大平台，共同拓展对外开放新空间。在扩内需促消费、服务构建全国统一大市场上加强协同，深化特色产品、文化旅游等合作，更好服务全国发展大局。', '郝鹏代表省委、省政府对上海长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，上海市坚持按照习近平总书记“继续当好全国改革开放排头兵、创新发展先行者”的重要要求，加快建设具有世界影响力的社会主义现代化国际大都市，经济社会发展取得的巨大成就令人由衷钦佩、深受鼓舞，上海开放的格局视野、敢为人先的胆识魄力、推动高质量发展的先进做法值得我们认真学习借鉴。上海与大连开展全方位对口合作，是深入贯彻落实习近平总书记重要指示精神的具体举措。沪连对口合作促进了大连产业发展、科技创新和人才引育，同时也为辽宁振兴发展注入了新活力。在推进中国式现代化新征程上，我们愿同上海一道，牢记习近平总书记嘱托，完整、准确、全面贯彻新发展理念，以沪连对口合作为纽带，推动上海、辽宁交流合作进一步走深走实，在产业发展上互补互促，努力建设现代化产业体系，共同维护国家产业安全；在科技创新上协同发展，共同助力实现高水平科技自立自强；在重大平台建设上携手共进，共同提高对外开放能级水平。希望双方在互利共赢中推动沪连对口合作再上新台阶，沪辽务实合作再结新硕果，共同在国家区域协调发展和中国式现代化建设中作出更大贡献。', '在上海期间，辽宁省党政代表团瞻仰了中共一大纪念馆，认真聆听讲解，仔细观看图片实物，深刻感悟中国共产党人的初心使命，从伟大建党精神中汲取奋进力量；考察了上海中心大厦、张江科学城、上海亿通国际股份有限公司、浦东新区城市运行综合管理中心，学习上海在促进金融业高质量发展、推动社会治理体系和治理能力现代化、深入推进科技创新体制机制改革、深化航运贸易一体化智慧服务等方面的先进经验和成功做法。', '省及沈阳市、大连市领导王新伟、王健、熊茂平、张成中、陈向群、陈绍旺，上海市领导赵嘉鸣、朱芝松、张为、郭芳、周慧琳、刘多、李政、肖贵玉参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>44</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>我市党政代表团赴营口市考察学习</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2024-06-14</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.panjin.gov.cn/html/2888/2024-06-14/content-140048.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['我市党政代表团赴营口市考察学习 - 韩尚富市委常委、副市长政务活动 - 盘锦市人民政府', '6月14日，我市党政代表团赴营口考察学习。当日下午，两市举行交流合作座谈会，深入贯彻落实习近平总书记关于东北、辽宁全面振兴重要讲话和指示批示精神，全面落实省委、省政府工作部署，续写盘营友谊，深化交流合作，推动实现更深层次区域协同，携手走出一条高质量发展、可持续振兴的新路子。市委书记王炳森出席会议并讲话。营口市委书记姚华明主持会议并讲话。市委副书记、市长邢鹏，营口市委副书记、代市长李军分别介绍两市经济社会发展情况。', '王炳森代表盘锦市委、市政府，对营口高质量发展的显著成效和强劲势头表示诚挚的祝贺，对营口长期以来给予盘锦的大力支持和无私帮助表示衷心感谢。他说，营口是一座历史悠久、文化底蕴深厚的百年港城，是辽宁新的重要增长极和全国最具发展活力的城市之一，也是盘锦睦邻友好、守望相助、肝胆相照的兄弟城市和“走出去”考察学习的第一站。营口坚决贯彻落实党中央决策部署及省委工作要求，锚定“三地四市”目标定位，深入实施港产城融合发展、辽河文化产业带建设战略，狠抓八个方面新突破、50项重点任务，发展思路清晰明确，产业振兴势头强劲，改革开放成效显著，民营经济蓬勃发展，让我们学到了经验、开阔了视野、拓展了思路。希望两市进一步加强交流合作，齐心协力推动协同发展结出更多丰硕成果。拓展“维”度携手攻坚，围绕中央及省重大战略、工作部署，建立多维度对接合作机制，携手提升维护国家“五大安全”能力。扩大“广”度协同合作，在协同扩大对内对外开放上深化合作，携手挺起辽宁沿海经济带“龙脊”。挖掘“深”度互利共赢，加强产业、项目和工作统筹，做强产业链、畅通供应链、提升价值链。提升“靓”度共守家园，在生态环境联保联治上深化合作，让绿色发展的底色更亮、成色更足。保持“热”度双向奔赴，协同推动文体旅融合发展，持续做好教育、医疗、养老等高频政务服务事项跨区域通办，让合作成果更多惠及百姓。', '姚华明代表营口市委、市政府对盘锦市党政代表团来营考察表示欢迎，对盘锦长期以来给予营口的支持和帮助表示感谢。他说，盘锦市坚持以三年行动为牵引，大手笔谋划了盘锦全面振兴的宏伟蓝图，推动一批重大项目加快建设，“3442”现代化产业体系正在形成。我们为盘锦日新月异、强势崛起的发展变化感到振奋和高兴。盘锦推动石化产业快速发展的战略定力、推动文体旅融合发展的创新举措、推动乡村振兴的发展模式、文明城市创建的经验做法和干部拼搏向上的精气神，值得我们深入学习借鉴。盘锦、营口两市同根同源、原属一家，一直是共谋发展、相互支持的兄弟城市。面向未来，希望两市深化全方位合作，携手奋进、共同实现全面振兴新突破。在产业发展上深度融合，发挥各自比较优势，加强创新协同、产业联动，共同培育和发展新质生产力。在推进文体旅发展上加强联动，更好统筹两地文体旅产业一体化发展，共同打造中国最美北方滨海休闲旅游带。在深化改革开放上深度耦合，不断提升两市参与国内外经济合作的核心竞争力，共同实现合作共赢。在保障和改善民生上相融互促，加强教育、医疗、生态、基础设施建设等领域协作，共同增进民生福祉；在完善对接机制上深化拓展，共同促进两地协作纵深发展，一起携手唱好“盘营双城记”、建好辽河三角洲，在推动辽宁全面振兴新突破中展现两市更大的担当和作为。', '在营期间，我市党政代表团一行来到营口港、中国（辽宁）自由贸易试验区营口片区企业服务中心、桔子数科有限公司、营口金辰机械股份有限公司等地考察，深度学习借鉴港口建设、对外开放、营商环境、科技赋能等方面成功经验。', '营口市领导何庆伟、李秀斌、田伟、王正刚，营口港务集团有限公司总经理陈立庆，市领导刘占明、郭克敏、徐同连、胡振乾、杨凯参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>44</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴江苏省学习考察并举行江苏省辽宁省对口合作工作交流座谈会</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.panjin.gov.cn/html/2693/2023-06-15/content-132027.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴江苏省学习考察并举行&lt;br&gt;江苏省·辽宁省对口合作工作交流座谈会 - 热点新闻 - 盘锦市人民政府', '6月12日，辽宁省党政代表团赴江苏省学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴江苏先进经验，落实深化对口合作各项任务，在推动高质量发展中实现互利共赢，携手为服务国家战略、推进中国式现代化贡献力量。学习考察期间，两省在南京举行江苏省·辽宁省对口合作工作交流座谈会。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，江苏省委书记、省人大常委会主任信长星主持座谈会并讲话。省委副书记、省长李乐成，江苏省委副书记、省长许昆林分别介绍两省经济社会发展和对口合作情况。省政协主席周波，江苏省政协主席张义珍出席座谈会。', '6月12日，辽宁省党政代表团赴江苏省学习考察并举行江苏省·辽宁省对口合作工作交流座谈会。', '郝鹏代表省委、省政府对江苏长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，江苏深入贯彻落实习近平总书记重要讲话和对江苏工作重要指示精神，牢牢把握“四个必须”重要要求，不断书写“强富美高”这篇大文章，在高质量发展上持续走在前列，为全国大局作出了新的贡献。江苏经济社会发展取得的巨大成就令人由衷钦佩，聚力高质量发展的成功经验和干部群众敢闯敢干的工作作风值得我们学习。辽宁与江苏开展全方位、多层次的合作对接，是贯彻落实习近平总书记重要指示精神的具体行动。开展对口合作使双方结下了深厚情谊，有力推动了辽宁思想观念不断解放、体制机制不断创新，为辽宁振兴发展注入了强劲动力。辽宁与江苏共同承担着推动高质量发展、服务国家重大战略的使命，希望双方进一步健全完善对口合作机制，在产业合作上精准对接，共同推动产业链供应链互联互通；在科技创新上合力攻坚，共同为国家高水平科技自立自强作出新贡献；在平台建设上加深合作，共同建设高水平示范园区；在干部人才上加强交流互动，共同打造高水平人才队伍，携手在推进中国式现代化新征程上谱写对口合作崭新篇章，共同为强国建设、民族复兴作出更大贡献。', '信长星代表江苏省委、省政府对辽宁省党政代表团的到来表示欢迎，对辽宁长期以来给予江苏发展的大力支持表示感谢。他说，辽宁是“共和国长子”，近年来深入贯彻习近平总书记关于东北振兴的重要论述，把握新机遇，找准发力点，坚决打好新时代东北振兴、辽宁振兴的“辽沈战役”，以“扛起国家重担、焕发青春”的新气象新担当新作为实现全面振兴的新突破。辽宁发展的美好前景令人振奋、充满期待。江苏和辽宁一样，承载习近平总书记的殷殷嘱托，深受党中央的深切关怀，担负着“在高质量发展上继续走在前列”的重大使命。当前，江苏正深入学习贯彻习近平总书记重要讲话精神，深入开展主题教育，以勇挑大梁、走在前列的责任担当，全面推进中国式现代化江苏新实践。苏辽两省情谊深厚，自建立对口合作关系以来，双方携手同行，各项工作取得扎实成效。奋进新征程，我们将认真落实党中央决策部署，与辽宁深化重大战略对接，在共担时代重任中同铸“大国重器”，在共建“一带一路”中同促内外开放，在共促协作发展中同聚强劲动能，高质量打造苏辽对口合作“升级版”，为强国建设、民族复兴添砖加瓦、增光添彩。', '会上，李乐成、许昆林代表两省签署了《辽宁省人民政府 江苏省人民政府对口合作框架协议》。', '在江苏期间，辽宁省党政代表团考察了菲尼克斯（中国）有限公司、网络通信与安全紫金山实验室、南瑞继保电气有限公司、亿嘉和科技股份有限公司，学习江苏在大力发展实体经济、推进智能制造、促进科技成果转化、高标准打造营商环境等方面的先进经验和成功做法。', '省领导王新伟、王健、熊茂平、张成中、陈向群，江苏省领导韩立明、储永宏、马欣、魏国强、陈之常参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>44</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴江苏省学习考察并举行</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.stq.gov.cn/2023_06/15_17/content-440867.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['6月12日，辽宁省党政代表团赴江苏省学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴江苏先进经验，落实深化对口合作各项任务，在推动高质量发展中实现互利共赢，携手为服务国家战略、推进中国式现代化贡献力量。学习考察期间，两省在南京举行江苏省·辽宁省对口合作工作交流座谈会。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，江苏省委书记、省人大常委会主任信长星主持座谈会并讲话。省委副书记、省长李乐成，江苏省委副书记、省长许昆林分别介绍两省经济社会发展和对口合作情况。省政协主席周波，江苏省政协主席张义珍出席座谈会。', '6月12日，辽宁省党政代表团赴江苏省学习考察并举行江苏省·辽宁省对口合作工作交流座谈会。', '郝鹏代表省委、省政府对江苏长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，江苏深入贯彻落实习近平总书记重要讲话和对江苏工作重要指示精神，牢牢把握“四个必须”重要要求，不断书写“强富美高”这篇大文章，在高质量发展上持续走在前列，为全国大局作出了新的贡献。江苏经济社会发展取得的巨大成就令人由衷钦佩，聚力高质量发展的成功经验和干部群众敢闯敢干的工作作风值得我们学习。辽宁与江苏开展全方位、多层次的合作对接，是贯彻落实习近平总书记重要指示精神的具体行动。开展对口合作使双方结下了深厚情谊，有力推动了辽宁思想观念不断解放、体制机制不断创新，为辽宁振兴发展注入了强劲动力。辽宁与江苏共同承担着推动高质量发展、服务国家重大战略的使命，希望双方进一步健全完善对口合作机制，在产业合作上精准对接，共同推动产业链供应链互联互通；在科技创新上合力攻坚，共同为国家高水平科技自立自强作出新贡献；在平台建设上加深合作，共同建设高水平示范园区；在干部人才上加强交流互动，共同打造高水平人才队伍，携手在推进中国式现代化新征程上谱写对口合作崭新篇章，共同为强国建设、民族复兴作出更大贡献。', '信长星代表江苏省委、省政府对辽宁省党政代表团的到来表示欢迎，对辽宁长期以来给予江苏发展的大力支持表示感谢。他说，辽宁是“共和国长子”，近年来深入贯彻习近平总书记关于东北振兴的重要论述，把握新机遇，找准发力点，坚决打好新时代东北振兴、辽宁振兴的“辽沈战役”，以“扛起国家重担、焕发青春”的新气象新担当新作为实现全面振兴的新突破。辽宁发展的美好前景令人振奋、充满期待。江苏和辽宁一样，承载习近平总书记的殷殷嘱托，深受党中央的深切关怀，担负着“在高质量发展上继续走在前列”的重大使命。当前，江苏正深入学习贯彻习近平总书记重要讲话精神，深入开展主题教育，以勇挑大梁、走在前列的责任担当，全面推进中国式现代化江苏新实践。苏辽两省情谊深厚，自建立对口合作关系以来，双方携手同行，各项工作取得扎实成效。奋进新征程，我们将认真落实党中央决策部署，与辽宁深化重大战略对接，在共担时代重任中同铸“大国重器”，在共建“一带一路”中同促内外开放，在共促协作发展中同聚强劲动能，高质量打造苏辽对口合作“升级版”，为强国建设、民族复兴添砖加瓦、增光添彩。', '会上，李乐成、许昆林代表两省签署了《辽宁省人民政府 江苏省人民政府对口合作框架协议》。', '在江苏期间，辽宁省党政代表团考察了菲尼克斯（中国）有限公司、网络通信与安全紫金山实验室、南瑞继保电气有限公司、亿嘉和科技股份有限公司，学习江苏在大力发展实体经济、推进智能制造、促进科技成果转化、高标准打造营商环境等方面的先进经验和成功做法。', '省领导王新伟、王健、熊茂平、张成中、陈向群，江苏省领导韩立明、储永宏、马欣、魏国强、陈之常参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。', '李强在辽宁调研时强调 大力优化营商环境 增强发展动力活力 推动东北全面振兴取得新突破...']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>44</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>中国候鸟迁飞通道保护研讨会在盘锦举行</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-06-28</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://czj.panjin.gov.cn/2023_06/28_12/content-416407.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['6月20日，中国候鸟迁飞通道保护网络专家研讨会在盘锦市举办。大会邀请了政府机构代表、专家学者、行业协会和媒体等嘉宾，通过主旨演讲、主题讨论、野外考察学习等方式，探讨如何推动我国候鸟迁飞通道的协同保护工作，为更好地构建中国候鸟迁飞通道保护网络提供科学支撑。', '据介绍，目前全球共有9条候鸟迁飞通道，途经我国的有4条，从东到西分别是西太平洋候鸟迁飞通道、东亚—澳大利西亚候鸟迁飞通道、中亚候鸟迁飞通道和西亚—东非候鸟迁飞通道。其中，东亚—澳大利西亚候鸟迁飞通道是全世界范围最大的候鸟迁飞通道，涉及22个国家，每年约有210种近5000万只水鸟在该迁飞通道迁徙。', '在途经我国的候鸟迁飞通道中，盘锦占据重要地位。这里拥有世界上最大的滨海芦苇沼泽湿地，处于东亚—澳大利西亚候鸟迁徙路线上，每年迁徙停歇或繁殖的水鸟超过100万只，是全球黑嘴鸥最大种群的繁殖地，丹顶鹤南北迁徙的重要停歇地、自然越冬的最北限。', '财政部税政司 税务总局货物和劳务税司有关负责人 就延续和优化新能源汽车车辆购置税减免政策有...', '车购税优惠政策延长 预计减免总额达5200亿元 ——精准施策助新能源汽车扩量提质...']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>44</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>三省一区科技创新赋能东北全面振兴会商会议在沈阳召开</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-06-25</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://kjj.panjin.gov.cn/2023_06/25_09/content-415897.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['三省一区“科技创新赋能东北全面振兴会商会议”在沈阳召开 _动态要闻_盘锦市科学技术局', '为迅速贯彻落实辽宁党政代表团赴内蒙古、吉林、黑龙江学习考察的有关工作部署，进一步加快推进三省一区的区域科技创新合作，共同塑造振兴发展新优势，共同为实现高水平科技自立自强贡献东北力量，辽宁省科技厅于6月20日在沈阳组织召开“科技创新赋能东北全面振兴会商会议”，邀请科技部相关司局负责同志和“三省一区”的省科技厅负责同志出席，就深化科技创新交流合作、共同争取国家支持等开展了广泛深入的研讨。', '辽宁省科技厅党组书记冯文胜主持会议，辽宁省科技厅厅长蔡睿介绍了辽宁科技创新情况，以及对加强“三省一区” 科技创新合作的有关考虑。内蒙古自治区科技厅党组书记冯家举，吉林省科技厅党组书记、厅长李岩，黑龙江省科技厅党组书记郭大春介绍了本地区科技创新工作情况，并就促进“三省一区”科技创新合作事项进行交流。科技部成果转化与区域创新司副司长吴家喜出席会议并讲话。', '辽宁省科技厅厅长蔡睿表示，东北“三省一区”地域相连、人文相亲，科创资源互补，合作潜力巨大。希望在科技部指导下，“三省一区”共同发挥平台、项目、人才、改革、合作协同效应，共同争取国家提升东北地区创新能级，携手打造东北地区科技创新共同体，切实将东北地区科技资源优势转化为创新发展优势。', '科技部成果转化与区域创新司副司长吴家喜指出，“三省一区”要深入学习贯彻习近平总书记系列重要讲话精神，扎实推进科技部与三省一区共同制定的《科技创新赋能东北全面振兴取得新突破行动计划（2023-2025年）》，共同提高政治站位，共同加强战略谋划，共同谋划重大任务，共同推进体制改革，共同打造战略科技力量，共同搭建交流平台，强化东北全面振兴的科技支撑，为实现高水平科技自立自强贡献东北智慧和力量。', '辽宁省科技厅党组书记冯文胜强调，建议“三省一区”科技管理部门以此次会议为契机，进一步深入贯彻党的二十大精神和习近平总书记关于东北振兴的重要讲话和指示批示精神，切实把辽宁省党政代表团赴吉林黑龙江内蒙古考察学习成果转化为推动东北振兴发展的具体思路和务实举措，在科技部支持指导下，健全对接机制、加强沟通交流，积极形成合力、承担国家使命，整合优势力量、开展协同攻关，加强信息共享、促进成果转化，加强开放合作、资源互惠共用，推动区域科技创新合作再创佳绩、再谱新篇，用自身实际行动，努力把习近平总书记的殷殷嘱托真正转化东北科技创新的生动实践。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>44</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>全市卫健系统中青年党员干部能力提升培训班来基地共享标准化质量管理模式</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2023_09/28_16/content-447717.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['全市卫健系统中青年党员干部能力提升培训班 来基地共享9123标准化质量管理模式_盘锦市首批党员干部教学实训基地_盘锦市机关事务管理局', '1号食堂等处进行实地考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准之路 质量花开》宣传片。', '以标准化为基础，深入推进体系化、数字化、品牌化建设，通过成功申报中国质量奖，打通了标准到质量的最后一公里，实现了全面质量管理，提升了机关事务治理效能，', '盘锦市机关事务中心将继续秉持创新、协调、绿色、开放、共享的理念，持续发挥三个体系、三个模式、四个国家级试点及五大基地的优势效能，为推进机关事务治理体系和治理能力现代化贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>44</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>市委党校援疆培训和布赛尔县党员领导干部综合素质提升班来基地培训赋能</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2023_09/15_17/content-447784.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['市委党校援疆培训“和布赛尔县党员领导干部综合素质提升班”来基地培训赋能_接待科_盘锦市机关事务管理局', '日，市委党校援疆培训“和布赛尔县党员领导干部综合素质提升班”一行来到全国首个机关事务标准化实训基地、全国首个省级标准化质量管理实训基地，共享', '人员先后对辽东湾会议中心、1号食堂等处进行实地考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准之路 质量花开》宣传片。', '号食堂等处进行实地考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准之路 质量花开》宣传片。', '9123标准化质量管理模式高度认可。真切感受到盘锦市以标准化为基础，深入推进体系化、数字化、品牌化建设，通过成功申报中国质量奖，打通了标准到质量的最后一公里，实现了全面质量管理，提升了机关事务治理效能，“盘锦经验、盘锦模式”真正为全国机关事务系统高质量发展提供了实践样板。', '盘锦市机关事务中心将继续秉持创新、协调、绿色、开放、共享的理念，持续发挥三个体系、三个模式、四个国家级试点及五大基地的优势效能，为推进机关事务治理体系和治理能力现代化贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>44</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>丹东加快开放型城市建设助推高质量发展</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-06-19</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://cgzfj.panjin.gov.cn/2023_06/19_16/content-415476.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['盛夏时节，丹东市对外开放领域动作频频。丹东市与吉林省通化市签署深化两市全方位合作框架协议，以高质量区域合作助推高质量振兴发展；丹东港口岸南1#、南2#泊位通过验收，正式开放启用；丹东市党政代表团赴江苏省扬州市学习考察并举行对口合作联席会议，共同以务实合作推动高质量发展……', '大力提升口岸开放和建设水平，全面加强与东北东部城市以及扬州等地区的合作，是丹东市加快建设“在东北亚地区有影响的国际化水平的开放型城市”的一个缩影。锚定以开放型城市、创新型城市、幸福宜居城市建设推动全面振兴取得新突破的目标，今年以来，丹东市充分发挥区位优势，统筹投资贸易、通道、平台，紧盯丹东港扩大开放、互市贸易创新发展、港产城融合发展等重点，对外开放脚步一再提速。', '丹东市扎实推进开放设施、开放平台建设，加快丹东港口岸扩大开放项目进程，启动大东港疏港铁路项目可研编制，持续推进新鸭绿江公路大桥口岸建设，完成大东港区8个泊位改扩建工程前期手续审批工作，保税物流中心（B型）项目正在进行土地摘牌和专项债申报材料准备工作。同时，丹东市加快开放型产业发展，加强与央企合作，以技术创新大力推动汽车及零部件、仪器仪表等主导产业升级。', '以边境贸易创新发展引领对外开放，丹东市全面落实外贸扶持政策，推进互市贸易创新发展区和综合保税区建设，加快打造辽宁和东北东部对外开放新前沿。目前，丹东港互贸区开始配套设施、场地等工程建设，金山互贸区明确项目运营、功能定位和发展方向，项目土地已摘牌。河口互贸区确定运营主体，国门湾科技五金城、东北亚国际商贸城等二级市场建设有序推进。', '东北“三省一区”持续做好融合发展大文章，提升区域合作层次 共建海陆大通道 打造对外开放新前沿...']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>44</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴上海市学习考察并举行上海市辽宁省交流合作座谈会</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-06-19</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://czj.panjin.gov.cn/2023_06/19_11/content-415440.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴上海市学习考察并举行上海市·辽宁省交流合作座谈会_动态要闻_盘锦市财政局', '6月13日，辽宁省党政代表团赴上海市学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴上海先进经验做法，拓展沪辽多领域多层次务实合作，更好实现互利共赢、协同发展。学习考察期间，两省市举行上海市·辽宁省交流合作座谈会。上海市委书记陈吉宁主持座谈会并讲话。省委书记、省人大常委会主任郝鹏出席座谈会并讲话。省委副书记、省长李乐成，上海市委副书记、市长龚正分别介绍两省市经济社会发展以及上海市、大连市对口合作工作有关情况。省政协主席周波出席座谈会。', '陈吉宁代表市委、市人大常委会、市政府、市政协，感谢辽宁省长期以来给予上海发展的支持帮助。他说，辽宁省深入贯彻落实习近平总书记关于东北振兴重要论述，加快实施辽宁全面振兴新突破三年行动，全力以赴育先机、开新局，改革开放向纵深推进，创新驱动发展取得新成效，辽宁干部群众奋发有为、奋勇争先的精气神和形成的好做法、好经验，值得上海认真学习借鉴。', '陈吉宁说，新起点上，上海将坚决贯彻党中央、国务院部署要求，与辽宁省、大连市一道，加快探索建立南北经济高效互动合作、跨区域高水平协同发展的新模式，推动两地合作交流不断取得新成绩、打造新标杆、体现新水平，实现高质量发展，更好服务和融入新发展格局。发挥两地红色资源丰富优势，共同弘扬红色文化、讲好红色故事。在服务高水平科技自立自强上深化合作，加强项目对接、平台对接、人才对接，实现优势互补。在建设现代化产业体系上紧密互动，共同提升产业链供应链的稳定性和竞争力。在深化高水平对外开放上相互借鉴，对接国际高标准经贸规则，共享共用进博会等国际交流大平台，共同拓展对外开放新空间。在扩内需促消费、服务构建全国统一大市场上加强协同，深化特色产品、文化旅游等合作，更好服务全国发展大局。', '郝鹏代表省委、省政府对上海长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，上海市坚持按照习近平总书记“继续当好全国改革开放排头兵、创新发展先行者”的重要要求，加快建设具有世界影响力的社会主义现代化国际大都市，经济社会发展取得的巨大成就令人由衷钦佩、深受鼓舞，上海开放的格局视野、敢为人先的胆识魄力、推动高质量发展的先进做法值得我们认真学习借鉴。上海与大连开展全方位对口合作，是深入贯彻落实习近平总书记重要指示精神的具体举措。沪连对口合作促进了大连产业发展、科技创新和人才引育，同时也为辽宁振兴发展注入了新活力。在推进中国式现代化新征程上，我们愿同上海一道，牢记习近平总书记嘱托，完整、准确、全面贯彻新发展理念，以沪连对口合作为纽带，推动上海、辽宁交流合作进一步走深走实，在产业发展上互补互促，努力建设现代化产业体系，共同维护国家产业安全；在科技创新上协同发展，共同助力实现高水平科技自立自强；在重大平台建设上携手共进，共同提高对外开放能级水平。希望双方在互利共赢中推动沪连对口合作再上新台阶，沪辽务实合作再结新硕果，共同在国家区域协调发展和中国式现代化建设中作出更大贡献。', '在上海期间，辽宁省党政代表团瞻仰了中共一大纪念馆，认真聆听讲解，仔细观看图片实物，深刻感悟中国共产党人的初心使命，从伟大建党精神中汲取奋进力量；考察了上海中心大厦、张江科学城、上海亿通国际股份有限公司、浦东新区城市运行综合管理中心，学习上海在促进金融业高质量发展、推动社会治理体系和治理能力现代化、深入推进科技创新体制机制改革、深化航运贸易一体化智慧服务等方面的先进经验和成功做法。', '省及沈阳市、大连市领导王新伟、王健、熊茂平、张成中、陈向群、陈绍旺，上海市领导赵嘉鸣、朱芝松、张为、郭芳、周慧琳、刘多、李政、肖贵玉参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>44</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴安徽省学习考察学习追赶超越成功经验携手实现更高水平共赢发展郝鹏韩俊李乐成王清宪参加考察</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-06-19</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://kjj.panjin.gov.cn/2023_06/19_09/content-415322.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴安徽省学习考察 学习追赶超越成功经验 携手实现更高水平共赢发展 郝鹏韩俊李乐成王清宪参加考察 _动态要闻_盘锦市科学技术局', '辽宁省党政代表团赴安徽省学习考察 学习追赶超越成功经验 携手实现更高水平共赢发展 郝鹏韩俊李乐成王清宪参加考察', '6月15日，辽宁省党政代表团赴安徽省学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴安徽推动高质量发展的先进经验做法，拓展两省多领域多层次务实合作，更好实现互利共赢。省委书记、省人大常委会主任郝鹏，安徽省委书记韩俊，省委副书记、省长李乐成，安徽省委副书记、省长王清宪参加考察。', '近年来，安徽深入贯彻落实习近平总书记重要指示精神，主动服务和融入新发展格局，加快打造具有重要影响力的“三地一区”，区域创新能力、地区生产总值大幅跃升，实现了从“总量居中、人均靠后”向“总量靠前、人均居中”的跨越。辽宁省党政代表团在安徽走访制造业企业、科研院所、产业园区，对安徽坚定不移沿着习近平总书记指引的方向前进，始终保持追赶超越强劲态势，推动经济社会发展不断取得新进展新进步表示由衷钦佩。代表团认真学习安徽推进创新型省份建设、建设现代化产业体系、打造改革开放新高地等方面的好做法好经验，努力将学习成果转化为扎实推进辽宁高质量发展的强大动力。', '辽宁汽车产业有着良好发展基础，目前正在新能源汽车领域持续发力。来到安徽后，代表团首先走进江淮蔚来先进制造基地，了解企业新车型生产销售情况，考察企业智能生产车间，欢迎企业加强与辽宁交流合作，共同推动我国汽车产业做强做优做大。中科院合肥物质科学研究院目前已经建成并运行了全超导托卡马克核聚变实验装置、稳态强磁场实验装置两个国家大科学装置，代表团对安徽积极服务国家战略科技力量，不断推动科技成果转化运用的务实举措高度赞赏，就进一步加强双方科研院所间的协同创新进行深入交流。在科大讯飞股份有限公司，代表团走进产品体验馆，深入了解AI+办公、AI+医疗、AI+教育等人工智能技术最新发展情况，与企业负责人探讨进一步在辽宁拓展应用场景等相关事宜。中安创谷科技园“基地+基金+科创服务”的业务模式给代表团留下深刻印象，大家认真听取了合肥市负责同志关于招商引资经验介绍，当地通过科技、产业、资本协同发力打造大科创生态的先进做法令代表团深受启发。', '在学习考察中，代表团成员表示，安徽是长三角和中部地区联动发展的“桥头堡”，辽宁要在新时代东北振兴上展现更大担当和作为，随着国家区域协调发展战略的纵深推进，两省合作领域更多、潜力巨大。安徽实现跨越式发展的成功实践对辽宁实现全面振兴新突破具有十分重要的借鉴意义。我们将充分运用好此次学习考察成果，牢牢把握高质量发展这个首要任务，把有效市场和有为政府结合起来，以更高的格局视野谋划新产业开辟新赛道，扎实推动干部作风转变和能力素质提升，大力弘扬企业家精神，着力拉长长板、补齐短板，为推动高质量发展积蓄强劲动能。我们愿与安徽同志一道，在互学互鉴、南北互动中携手共进，不断完善沟通合作机制，推进两省实现更深层次、更高水平共赢发展，更好服务国家发展战略。', '省领导王新伟、王健、熊茂平、张成中、陈向群，安徽省领导程丽华、虞爱华、费高云、魏晓明参加学习考察。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。', '李强主持召开国务院常务会议研究推动经济持续回升向好的一批政策措施 审议通过《加大力度支持科...', '辽宁省党政代表团赴浙江省学习考察 感悟真理力量实践伟力 推动协同发展互利共赢 郝鹏易炼红李乐...']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>44</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴江苏省学习考察并举行江苏省辽宁省对口合作工作交流座谈会</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-07-11</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2023_07/11_15/content-419002.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴江苏省学习考察并举行 江苏省·辽宁省对口合作工作交流座谈会_工作动态_盘锦市机关事务管理局', '6月12日，辽宁省党政代表团赴江苏省学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴江苏先进经验，落实深化对口合作各项任务，在推动高质量发展中实现互利共赢，携手为服务国家战略、推进中国式现代化贡献力量。学习考察期间，两省在南京举行江苏省·辽宁省对口合作工作交流座谈会。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，江苏省委书记、省人大常委会主任信长星主持座谈会并讲话。省委副书记、省长李乐成，江苏省委副书记、省长许昆林分别介绍两省经济社会发展和对口合作情况。省政协主席周波，江苏省政协主席张义珍出席座谈会。', '6月12日，辽宁省党政代表团赴江苏省学习考察并举行江苏省·辽宁省对口合作工作交流座谈会。', '郝鹏代表省委、省政府对江苏长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，江苏深入贯彻落实习近平总书记重要讲话和对江苏工作重要指示精神，牢牢把握“四个必须”重要要求，不断书写“强富美高”这篇大文章，在高质量发展上持续走在前列，为全国大局作出了新的贡献。江苏经济社会发展取得的巨大成就令人由衷钦佩，聚力高质量发展的成功经验和干部群众敢闯敢干的工作作风值得我们学习。辽宁与江苏开展全方位、多层次的合作对接，是贯彻落实习近平总书记重要指示精神的具体行动。开展对口合作使双方结下了深厚情谊，有力推动了辽宁思想观念不断解放、体制机制不断创新，为辽宁振兴发展注入了强劲动力。辽宁与江苏共同承担着推动高质量发展、服务国家重大战略的使命，希望双方进一步健全完善对口合作机制，在产业合作上精准对接，共同推动产业链供应链互联互通；在科技创新上合力攻坚，共同为国家高水平科技自立自强作出新贡献；在平台建设上加深合作，共同建设高水平示范园区；在干部人才上加强交流互动，共同打造高水平人才队伍，携手在推进中国式现代化新征程上谱写对口合作崭新篇章，共同为强国建设、民族复兴作出更大贡献。', '信长星代表江苏省委、省政府对辽宁省党政代表团的到来表示欢迎，对辽宁长期以来给予江苏发展的大力支持表示感谢。他说，辽宁是“共和国长子”，近年来深入贯彻习近平总书记关于东北振兴的重要论述，把握新机遇，找准发力点，坚决打好新时代东北振兴、辽宁振兴的“辽沈战役”，以“扛起国家重担、焕发青春”的新气象新担当新作为实现全面振兴的新突破。辽宁发展的美好前景令人振奋、充满期待。江苏和辽宁一样，承载习近平总书记的殷殷嘱托，深受党中央的深切关怀，担负着“在高质量发展上继续走在前列”的重大使命。当前，江苏正深入学习贯彻习近平总书记重要讲话精神，深入开展主题教育，以勇挑大梁、走在前列的责任担当，全面推进中国式现代化江苏新实践。苏辽两省情谊深厚，自建立对口合作关系以来，双方携手同行，各项工作取得扎实成效。奋进新征程，我们将认真落实党中央决策部署，与辽宁深化重大战略对接，在共担时代重任中同铸“大国重器”，在共建“一带一路”中同促内外开放，在共促协作发展中同聚强劲动能，高质量打造苏辽对口合作“升级版”，为强国建设、民族复兴添砖加瓦、增光添彩。', '会上，李乐成、许昆林代表两省签署了《辽宁省人民政府 江苏省人民政府对口合作框架协议》。', '在江苏期间，辽宁省党政代表团考察了菲尼克斯（中国）有限公司、网络通信与安全紫金山实验室、南瑞继保电气有限公司、亿嘉和科技股份有限公司，学习江苏在大力发展实体经济、推进智能制造、促进科技成果转化、高标准打造营商环境等方面的先进经验和成功做法。', '省领导王新伟、王健、熊茂平、张成中、陈向群，江苏省领导韩立明、储永宏、马欣、魏国强、陈之常参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。', '习近平在江苏考察时强调 在推进中国式现代化中走在前做示范 谱写 “强富美高”新江苏现代化建设...']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>44</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴上海市学习考察并举行上海市辽宁省交流合作座谈会</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://tjj.panjin.gov.cn/2023_06/16_16/content-441918.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴上海市学习考察并举行上海市·辽宁省交流合作座谈会_热点新闻_盘锦市统计局', '6月13日，辽宁省党政代表团赴上海市学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴上海先进经验做法，拓展沪辽多领域多层次务实合作，更好实现互利共赢、协同发展。学习考察期间，两省市举行上海市·辽宁省交流合作座谈会。上海市委书记陈吉宁主持座谈会并讲话。省委书记、省人大常委会主任郝鹏出席座谈会并讲话。省委副书记、省长李乐成，上海市委副书记、市长龚正分别介绍两省市经济社会发展以及上海市、大连市对口合作工作有关情况。省政协主席周波出席座谈会。', '陈吉宁代表市委、市人大常委会、市政府、市政协，感谢辽宁省长期以来给予上海发展的支持帮助。他说，辽宁省深入贯彻落实习近平总书记关于东北振兴重要论述，加快实施辽宁全面振兴新突破三年行动，全力以赴育先机、开新局，改革开放向纵深推进，创新驱动发展取得新成效，辽宁干部群众奋发有为、奋勇争先的精气神和形成的好做法、好经验，值得上海认真学习借鉴。', '陈吉宁说，新起点上，上海将坚决贯彻党中央、国务院部署要求，与辽宁省、大连市一道，加快探索建立南北经济高效互动合作、跨区域高水平协同发展的新模式，推动两地合作交流不断取得新成绩、打造新标杆、体现新水平，实现高质量发展，更好服务和融入新发展格局。发挥两地红色资源丰富优势，共同弘扬红色文化、讲好红色故事。在服务高水平科技自立自强上深化合作，加强项目对接、平台对接、人才对接，实现优势互补。在建设现代化产业体系上紧密互动，共同提升产业链供应链的稳定性和竞争力。在深化高水平对外开放上相互借鉴，对接国际高标准经贸规则，共享共用进博会等国际交流大平台，共同拓展对外开放新空间。在扩内需促消费、服务构建全国统一大市场上加强协同，深化特色产品、文化旅游等合作，更好服务全国发展大局。', '郝鹏代表省委、省政府对上海长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，上海市坚持按照习近平总书记“继续当好全国改革开放排头兵、创新发展先行者”的重要要求，加快建设具有世界影响力的社会主义现代化国际大都市，经济社会发展取得的巨大成就令人由衷钦佩、深受鼓舞，上海开放的格局视野、敢为人先的胆识魄力、推动高质量发展的先进做法值得我们认真学习借鉴。上海与大连开展全方位对口合作，是深入贯彻落实习近平总书记重要指示精神的具体举措。沪连对口合作促进了大连产业发展、科技创新和人才引育，同时也为辽宁振兴发展注入了新活力。在推进中国式现代化新征程上，我们愿同上海一道，牢记习近平总书记嘱托，完整、准确、全面贯彻新发展理念，以沪连对口合作为纽带，推动上海、辽宁交流合作进一步走深走实，在产业发展上互补互促，努力建设现代化产业体系，共同维护国家产业安全；在科技创新上协同发展，共同助力实现高水平科技自立自强；在重大平台建设上携手共进，共同提高对外开放能级水平。希望双方在互利共赢中推动沪连对口合作再上新台阶，沪辽务实合作再结新硕果，共同在国家区域协调发展和中国式现代化建设中作出更大贡献。', '在上海期间，辽宁省党政代表团瞻仰了中共一大纪念馆，认真聆听讲解，仔细观看图片实物，深刻感悟中国共产党人的初心使命，从伟大建党精神中汲取奋进力量；考察了上海中心大厦、张江科学城、上海亿通国际股份有限公司、浦东新区城市运行综合管理中心，学习上海在促进金融业高质量发展、推动社会治理体系和治理能力现代化、深入推进科技创新体制机制改革、深化航运贸易一体化智慧服务等方面的先进经验和成功做法。', '省及沈阳市、大连市领导王新伟、王健、熊茂平、张成中、陈向群、陈绍旺，上海市领导赵嘉鸣、朱芝松、张为、郭芳、周慧琳、刘多、李政、肖贵玉参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。', '辽宁省党政代表团赴江苏省学习考察并举行 江苏省·辽宁省对口合作工作交流座谈会...']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>44</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>盘锦市职业技术学院一行来基地培训赋能</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-10-17</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2023_10/17_15/content-431995.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['1号食堂等处进行实地考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准之路 质量花开》宣传片', '特别是标准化在会议服务、餐饮接待和食堂管理领域的应用，确实提升了工作效率和工作质量。', '真切感受到盘锦市以标准化为基础，深入推进体系化、数字化、品牌化建设，通过成功申报中国质量奖，打通了标准到质量的最后一公里，实现了全面质量管理，提升了机关事务治理效能。', '盘锦市机关事务中心将继续秉持创新、协调、绿色、开放、共享的理念，持续发挥三个体系、三个模式、四个国家级试点及五大基地的优势效能，为推进机关事务治理体系和治理能力现代化贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>44</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>四川省眉山市机关事务管理局一行来盘学习四个体系建设经验</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-11-15</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2023_11/15_19/content-436029.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['四川省眉山市机关事务管理局一行来盘学习 “四个体系”建设经验_工作动态_盘锦市机关事务管理局', '11月12日-14日，四川省眉山市机关事务管理局党组书记、局长周殿志一行来到全国首个机关事务标准化实训基地、全国首个省级标准化质量管理实训基地，学习考察盘锦“四个体系”建设成效。', '1号食堂等处进行实地考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准之路 质量花开》宣传片，并围绕机关事务标准化建设工作进行了深入的对接交流。', '9123标准化质量管理模式高度认可。切实感受到盘锦首创的机关事务标准化思维体系方法的应用效果。即在实践工作中，依据“九个必须坚持”，就能现场制定若干标准，使标准无限放大，让书本上的标准上升为大脑中的标准体系，解决了没有标准不会干和标准不可复制、不可推广、不可共享的难题，“', '盘锦市机关事务中心将持之以恒发挥四个体系、五个基地效能，深入推进体系化、数字化、品牌化建设，以对外开放的高度和文化的维度，持续守正创新，不断开拓视野，更好的发挥事务支撑政务的职能作用，为盘锦全面振兴新突破三年行动首战告捷保驾护航。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>44</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>追寻东北抗联精神坚定信念矢志不渝市就业和人才服务中心党总支赴辽宁科技学院开展主题党日活动</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://rsj.panjin.gov.cn/2023_11/01_14/content-434062.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['追寻东北抗联精神 坚定信念矢志不渝 ——市就业和人才服务中心党总支赴辽宁科技学院 开展主题党日活动_动态要闻_盘锦市人力资源和社会保障局', '追寻东北抗联精神 坚定信念矢志不渝 ——市就业和人才服务中心党总支赴辽宁科技学院 开展主题党日活动', '人赴辽宁科技学院开展主题党日活动，参观东北抗联精神教育基地，接受爱国主义教育和革命精神洗礼。', '学习考察组成员与辽宁科技学院党委组织部相关同志首先召开了党建工作交流会。学院党委组织部部长葛会奇同志向学习考察组介绍了学校的发展历程、办学特色和毕业生就业情况，重点介绍了党建工作的典型经验和亮点工作。双方进行了充分沟通交流，均表示今后将继续在党建和促进毕业生就业等方面展开深度校地合作。', '随后学习考察组走进学院图书馆党史资料室、地质博物馆、东北抗联博物馆、抗联主题教育基地等进行参观学习。', '走进东北抗联博物馆和抗联主题教育基地，仿佛又回到战火纷飞的年代。一幅幅珍贵的图片，一段段详实的文字，一件件历史的实物，一幕幕感人的革命场景，真实再现了老一辈革命先烈和英雄群体对党的无限忠诚和顽强的战斗精神，讲述了那一段惊心动魄、感人至深的革命历史和峥嵘岁月，让考察组更加深入学习了革命先辈的坚定信仰和革命精神，感受了中国共产党艰苦卓绝、波澜壮阔的奋斗历程，内心受到极大震撼和升华。', '学习考察组党员在“忠诚于党的坚定信念、勇赴国难的民族大义、血战到底的英雄气概”的东北抗联精神鼓舞下重温了入党誓词。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>44</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴上海市学习考察并举行上海市辽宁省交流合作座谈会对标先进促进发展深化沪辽务实合作共同为服务国家重大战略作出新贡献陈吉宁郝鹏讲话李乐成龚正介绍情况周波出席</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://kjj.panjin.gov.cn/2023_06/14_09/content-415346.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴上海市学习考察并举行上海市·辽宁省交流合作座谈会 对标先进促进发展 深化沪辽务实合作 共同为服务国家重大战略作出新贡献 陈吉宁郝鹏讲话 李乐成龚正介绍情况 周波出席 _动态要闻_盘锦市科学技术局', '辽宁省党政代表团赴上海市学习考察并举行上海市·辽宁省交流合作座谈会 对标先进促进发展 深化沪辽务实合作 共同为服务国家重大战略作出新贡献 陈吉宁郝鹏讲话 李乐成龚正介绍情况 周波出席', '6月13日，辽宁省党政代表团赴上海市学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴上海先进经验做法，拓展沪辽多领域多层次务实合作，更好实现互利共赢、协同发展。学习考察期间，两省市举行上海市·辽宁省交流合作座谈会。上海市委书记陈吉宁主持座谈会并讲话。省委书记、省人大常委会主任郝鹏出席座谈会并讲话。省委副书记、省长李乐成，上海市委副书记、市长龚正分别介绍两省市经济社会发展以及上海市、大连市对口合作工作有关情况。省政协主席周波出席座谈会。', '陈吉宁代表市委、市人大常委会、市政府、市政协，感谢辽宁省长期以来给予上海发展的支持帮助。他说，辽宁省深入贯彻落实习近平总书记关于东北振兴重要论述，加快实施辽宁全面振兴新突破三年行动，全力以赴育先机、开新局，改革开放向纵深推进，创新驱动发展取得新成效，辽宁干部群众奋发有为、奋勇争先的精气神和形成的好做法、好经验，值得上海认真学习借鉴。', '陈吉宁说，新起点上，上海将坚决贯彻党中央、国务院部署要求，与辽宁省、大连市一道，加快探索建立南北经济高效互动合作、跨区域高水平协同发展的新模式，推动两地合作交流不断取得新成绩、打造新标杆、体现新水平，实现高质量发展，更好服务和融入新发展格局。发挥两地红色资源丰富优势，共同弘扬红色文化、讲好红色故事。在服务高水平科技自立自强上深化合作，加强项目对接、平台对接、人才对接，实现优势互补。在建设现代化产业体系上紧密互动，共同提升产业链供应链的稳定性和竞争力。在深化高水平对外开放上相互借鉴，对接国际高标准经贸规则，共享共用进博会等国际交流大平台，共同拓展对外开放新空间。在扩内需促消费、服务构建全国统一大市场上加强协同，深化特色产品、文化旅游等合作，更好服务全国发展大局。', '郝鹏代表省委、省政府对上海长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，上海市坚持按照习近平总书记“继续当好全国改革开放排头兵、创新发展先行者”的重要要求，加快建设具有世界影响力的社会主义现代化国际大都市，经济社会发展取得的巨大成就令人由衷钦佩、深受鼓舞，上海开放的格局视野、敢为人先的胆识魄力、推动高质量发展的先进做法值得我们认真学习借鉴。上海与大连开展全方位对口合作，是深入贯彻落实习近平总书记重要指示精神的具体举措。沪连对口合作促进了大连产业发展、科技创新和人才引育，同时也为辽宁振兴发展注入了新活力。在推进中国式现代化新征程上，我们愿同上海一道，牢记习近平总书记嘱托，完整、准确、全面贯彻新发展理念，以沪连对口合作为纽带，推动上海、辽宁交流合作进一步走深走实，在产业发展上互补互促，努力建设现代化产业体系，共同维护国家产业安全；在科技创新上协同发展，共同助力实现高水平科技自立自强；在重大平台建设上携手共进，共同提高对外开放能级水平。希望双方在互利共赢中推动沪连对口合作再上新台阶，沪辽务实合作再结新硕果，共同在国家区域协调发展和中国式现代化建设中作出更大贡献。', '在上海期间，辽宁省党政代表团瞻仰了中共一大纪念馆，认真聆听讲解，仔细观看图片实物，深刻感悟中国共产党人的初心使命，从伟大建党精神中汲取奋进力量；考察了上海中心大厦、张江科学城、上海亿通国际股份有限公司、浦东新区城市运行综合管理中心，学习上海在促进金融业高质量发展、推动社会治理体系和治理能力现代化、深入推进科技创新体制机制改革、深化航运贸易一体化智慧服务等方面的先进经验和成功做法。', '省及沈阳市、大连市领导王新伟、王健、熊茂平、张成中、陈向群、陈绍旺，上海市领导赵嘉鸣、朱芝松、张为、郭芳、周慧琳、刘多、李政、肖贵玉参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。', '辽宁省党政代表团赴浙江省学习考察 感悟真理力量实践伟力 推动协同发展互利共赢 郝鹏易炼红李乐...']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>44</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴上海市学习考察并举行上海市辽宁省交流合作座谈会陈吉宁郝鹏讲话李乐成龚正介绍情况周波出席</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://wlgdj.panjin.gov.cn/2023_06/14_10/content-414902.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴上海市学习考察并举行上海市·辽宁省交流合作座谈会 陈吉宁郝鹏讲话 李乐成龚正介绍情况 周波出席_热点新闻_盘锦市文化旅游和广播电视局', '辽宁省党政代表团赴上海市学习考察并举行上海市·辽宁省交流合作座谈会 陈吉宁郝鹏讲话 李乐成龚正介绍情况 周波出席', '6月13日，辽宁省党政代表团赴上海市学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴上海先进经验做法，拓展沪辽多领域多层次务实合作，更好实现互利共赢、协同发展。学习考察期间，两省市举行上海市·辽宁省交流合作座谈会。上海市委书记陈吉宁主持座谈会并讲话。省委书记、省人大常委会主任郝鹏出席座谈会并讲话。省委副书记、省长李乐成，上海市委副书记、市长龚正分别介绍两省市经济社会发展以及上海市、大连市对口合作工作有关情况。省政协主席周波出席座谈会。', '陈吉宁代表市委、市人大常委会、市政府、市政协，感谢辽宁省长期以来给予上海发展的支持帮助。他说，辽宁省深入贯彻落实习近平总书记关于东北振兴重要论述，加快实施辽宁全面振兴新突破三年行动，全力以赴育先机、开新局，改革开放向纵深推进，创新驱动发展取得新成效，辽宁干部群众奋发有为、奋勇争先的精气神和形成的好做法、好经验，值得上海认真学习借鉴。', '陈吉宁说，新起点上，上海将坚决贯彻党中央、国务院部署要求，与辽宁省、大连市一道，加快探索建立南北经济高效互动合作、跨区域高水平协同发展的新模式，推动两地合作交流不断取得新成绩、打造新标杆、体现新水平，实现高质量发展，更好服务和融入新发展格局。发挥两地红色资源丰富优势，共同弘扬红色文化、讲好红色故事。在服务高水平科技自立自强上深化合作，加强项目对接、平台对接、人才对接，实现优势互补。在建设现代化产业体系上紧密互动，共同提升产业链供应链的稳定性和竞争力。在深化高水平对外开放上相互借鉴，对接国际高标准经贸规则，共享共用进博会等国际交流大平台，共同拓展对外开放新空间。在扩内需促消费、服务构建全国统一大市场上加强协同，深化特色产品、文化旅游等合作，更好服务全国发展大局。', '郝鹏代表省委、省政府对上海长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，上海市坚持按照习近平总书记“继续当好全国改革开放排头兵、创新发展先行者”的重要要求，加快建设具有世界影响力的社会主义现代化国际大都市，经济社会发展取得的巨大成就令人由衷钦佩、深受鼓舞，上海开放的格局视野、敢为人先的胆识魄力、推动高质量发展的先进做法值得我们认真学习借鉴。上海与大连开展全方位对口合作，是深入贯彻落实习近平总书记重要指示精神的具体举措。沪连对口合作促进了大连产业发展、科技创新和人才引育，同时也为辽宁振兴发展注入了新活力。在推进中国式现代化新征程上，我们愿同上海一道，牢记习近平总书记嘱托，完整、准确、全面贯彻新发展理念，以沪连对口合作为纽带，推动上海、辽宁交流合作进一步走深走实，在产业发展上互补互促，努力建设现代化产业体系，共同维护国家产业安全；在科技创新上协同发展，共同助力实现高水平科技自立自强；在重大平台建设上携手共进，共同提高对外开放能级水平。希望双方在互利共赢中推动沪连对口合作再上新台阶，沪辽务实合作再结新硕果，共同在国家区域协调发展和中国式现代化建设中作出更大贡献。', '在上海期间，辽宁省党政代表团瞻仰了中共一大纪念馆，认真聆听讲解，仔细观看图片实物，深刻感悟中国共产党人的初心使命，从伟大建党精神中汲取奋进力量；考察了上海中心大厦、张江科学城、上海亿通国际股份有限公司、浦东新区城市运行综合管理中心，学习上海在促进金融业高质量发展、推动社会治理体系和治理能力现代化、深入推进科技创新体制机制改革、深化航运贸易一体化智慧服务等方面的先进经验和成功做法。', '省及沈阳市、大连市领导王新伟、王健、熊茂平、张成中、陈向群、陈绍旺，上海市领导赵嘉鸣、朱芝松、张为、郭芳、周慧琳、刘多、李政、肖贵玉参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。', '辽宁省党政代表团赴江苏省学习考察并举行 江苏省·辽宁省对口合作工作交流座谈会...', '李强在辽宁调研时强调 大力优化营商环境 增强发展动力活力 推动东北全面振兴取得新突破...']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>44</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴江苏省学习考察并举行江苏省辽宁省对口合作工作交流座谈会郝鹏信长星讲话李乐成许昆林介绍情况周波张义珍出席</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://slj.panjin.gov.cn/2023_06/13_16/content-414823.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴江苏省学习考察并举行江苏省·辽宁省对口合作工作交流座谈会 郝鹏信长星讲话 李乐成许昆林介绍情况 周波张义珍出席_动态要闻_盘锦市水利局', '辽宁省党政代表团赴江苏省学习考察并举行江苏省·辽宁省对口合作工作交流座谈会 郝鹏信长星讲话 李乐成许昆林介绍情况 周波张义珍出席', '6月12日，辽宁省党政代表团赴江苏省学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴江苏先进经验，落实深化对口合作各项任务，在推动高质量发展中实现互利共赢，携手为服务国家战略、推进中国式现代化贡献力量。学习考察期间，两省在南京举行江苏省·辽宁省对口合作工作交流座谈会。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，江苏省委书记、省人大常委会主任信长星主持座谈会并讲话。省委副书记、省长李乐成，江苏省委副书记、省长许昆林分别介绍两省经济社会发展和对口合作情况。省政协主席周波，江苏省政协主席张义珍出席座谈会。', '郝鹏代表省委、省政府对江苏长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，江苏深入贯彻落实习近平总书记重要讲话和对江苏工作重要指示精神，牢牢把握“四个必须”重要要求，不断书写“强富美高”这篇大文章，在高质量发展上持续走在前列，为全国大局作出了新的贡献。江苏经济社会发展取得的巨大成就令人由衷钦佩，聚力高质量发展的成功经验和干部群众敢闯敢干的工作作风值得我们学习。辽宁与江苏开展全方位、多层次的合作对接，是贯彻落实习近平总书记重要指示精神的具体行动。开展对口合作使双方结下了深厚情谊，有力推动了辽宁思想观念不断解放、体制机制不断创新，为辽宁振兴发展注入了强劲动力。辽宁与江苏共同承担着推动高质量发展、服务国家重大战略的使命，希望双方进一步健全完善对口合作机制，在产业合作上精准对接，共同推动产业链供应链互联互通；在科技创新上合力攻坚，共同为国家高水平科技自立自强作出新贡献；在平台建设上加深合作，共同建设高水平示范园区；在干部人才上加强交流互动，共同打造高水平人才队伍，携手在推进中国式现代化新征程上谱写对口合作崭新篇章，共同为强国建设、民族复兴作出更大贡献。', '信长星代表江苏省委、省政府对辽宁省党政代表团的到来表示欢迎，对辽宁长期以来给予江苏发展的大力支持表示感谢。他说，辽宁是“共和国长子”，近年来深入贯彻习近平总书记关于东北振兴的重要论述，把握新机遇，找准发力点，坚决打好新时代东北振兴、辽宁振兴的“辽沈战役”，以“扛起国家重担、焕发青春”的新气象新担当新作为实现全面振兴的新突破。辽宁发展的美好前景令人振奋、充满期待。江苏和辽宁一样，承载习近平总书记的殷殷嘱托，深受党中央的深切关怀，担负着“在高质量发展上继续走在前列”的重大使命。当前，江苏正深入学习贯彻习近平总书记重要讲话精神，深入开展主题教育，以勇挑大梁、走在前列的责任担当，全面推进中国式现代化江苏新实践。苏辽两省情谊深厚，自建立对口合作关系以来，双方携手同行，各项工作取得扎实成效。奋进新征程，我们将认真落实党中央决策部署，与辽宁深化重大战略对接，在共担时代重任中同铸“大国重器”，在共建“一带一路”中同促内外开放，在共促协作发展中同聚强劲动能，高质量打造苏辽对口合作“升级版”，为强国建设、民族复兴添砖加瓦、增光添彩。', '会上，李乐成、许昆林代表两省签署了《辽宁省人民政府 江苏省人民政府对口合作框架协议》。', '在江苏期间，辽宁省党政代表团考察了菲尼克斯（中国）有限公司、网络通信与安全紫金山实验室、南瑞继保电气有限公司、亿嘉和科技股份有限公司，学习江苏在大力发展实体经济、推进智能制造、促进科技成果转化、高标准打造营商环境等方面的先进经验和成功做法。', '省领导王新伟、王健、熊茂平、张成中、陈向群，江苏省领导韩立明、储永宏、马欣、魏国强、陈之常参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。', '李强在辽宁调研时强调 大力优化营商环境 增强发展动力活力 推动东北全面振兴取得新突破...']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>44</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴江苏省学习考察并举行江苏省辽宁省对口合作工作交流座谈会共担重大使命推动协同发展在新征程上谱写深化对口合作崭新篇章郝鹏信长星讲话李乐成许昆林介绍情况周波张义珍出席</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://ldwxq.panjin.gov.cn/2023_06/13_09/content-414689.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴江苏省学习考察并举行江苏省·辽宁省对口合作工作交流座谈会 共担重大使命 推动协同发展 在新征程上谱写深化对口合作崭新篇章 郝鹏信长星讲话 李乐成许昆林介绍情况 周波张义珍出席_热点新闻_盘锦辽滨沿海经济技术开发区', '辽宁省党政代表团赴江苏省学习考察并举行江苏省·辽宁省对口合作工作交流座谈会 共担重大使命 推动协同发展 在新征程上谱写深化对口合作崭新篇章 郝鹏信长星讲话 李乐成许昆林介绍情况 周波张义珍出席', '6月12日，辽宁省党政代表团赴江苏省学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴江苏先进经验，落实深化对口合作各项任务，在推动高质量发展中实现互利共赢，携手为服务国家战略、推进中国式现代化贡献力量。学习考察期间，两省在南京举行江苏省·辽宁省对口合作工作交流座谈会。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，江苏省委书记、省人大常委会主任信长星主持座谈会并讲话。省委副书记、省长李乐成，江苏省委副书记、省长许昆林分别介绍两省经济社会发展和对口合作情况。省政协主席周波，江苏省政协主席张义珍出席座谈会。', '6月12日，辽宁省党政代表团赴江苏省学习考察并举行江苏省·辽宁省对口合作工作交流座谈会。', '郝鹏代表省委、省政府对江苏长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，江苏深入贯彻落实习近平总书记重要讲话和对江苏工作重要指示精神，牢牢把握“四个必须”重要要求，不断书写“强富美高”这篇大文章，在高质量发展上持续走在前列，为全国大局作出了新的贡献。江苏经济社会发展取得的巨大成就令人由衷钦佩，聚力高质量发展的成功经验和干部群众敢闯敢干的工作作风值得我们学习。辽宁与江苏开展全方位、多层次的合作对接，是贯彻落实习近平总书记重要指示精神的具体行动。开展对口合作使双方结下了深厚情谊，有力推动了辽宁思想观念不断解放、体制机制不断创新，为辽宁振兴发展注入了强劲动力。辽宁与江苏共同承担着推动高质量发展、服务国家重大战略的使命，希望双方进一步健全完善对口合作机制，在产业合作上精准对接，共同推动产业链供应链互联互通；在科技创新上合力攻坚，共同为国家高水平科技自立自强作出新贡献；在平台建设上加深合作，共同建设高水平示范园区；在干部人才上加强交流互动，共同打造高水平人才队伍，携手在推进中国式现代化新征程上谱写对口合作崭新篇章，共同为强国建设、民族复兴作出更大贡献。', '信长星代表江苏省委、省政府对辽宁省党政代表团的到来表示欢迎，对辽宁长期以来给予江苏发展的大力支持表示感谢。他说，辽宁是“共和国长子”，近年来深入贯彻习近平总书记关于东北振兴的重要论述，把握新机遇，找准发力点，坚决打好新时代东北振兴、辽宁振兴的“辽沈战役”，以“扛起国家重担、焕发青春”的新气象新担当新作为实现全面振兴的新突破。辽宁发展的美好前景令人振奋、充满期待。江苏和辽宁一样，承载习近平总书记的殷殷嘱托，深受党中央的深切关怀，担负着“在高质量发展上继续走在前列”的重大使命。当前，江苏正深入学习贯彻习近平总书记重要讲话精神，深入开展主题教育，以勇挑大梁、走在前列的责任担当，全面推进中国式现代化江苏新实践。苏辽两省情谊深厚，自建立对口合作关系以来，双方携手同行，各项工作取得扎实成效。奋进新征程，我们将认真落实党中央决策部署，与辽宁深化重大战略对接，在共担时代重任中同铸“大国重器”，在共建“一带一路”中同促内外开放，在共促协作发展中同聚强劲动能，高质量打造苏辽对口合作“升级版”，为强国建设、民族复兴添砖加瓦、增光添彩。', '会上，李乐成、许昆林代表两省签署了《辽宁省人民政府 江苏省人民政府对口合作框架协议》。', '在江苏期间，辽宁省党政代表团考察了菲尼克斯（中国）有限公司、网络通信与安全紫金山实验室、南瑞继保电气有限公司、亿嘉和科技股份有限公司，学习江苏在大力发展实体经济、推进智能制造、促进科技成果转化、高标准打造营商环境等方面的先进经验和成功做法。', '省领导王新伟、王健、熊茂平、张成中、陈向群，江苏省领导韩立明、储永宏、马欣、魏国强、陈之常参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。', '李强在辽宁调研时强调：大力优化营商环境 增强发展动力活力 推动东北全面振兴取得新突破...']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>44</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2023-05-25</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://kjj.panjin.gov.cn/2023_05/25_10/content-412805.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['5月23日，市委常委会召开会议，传达学习4月28日召开的中共中央政治局会议精神，传达辽宁省党政代表团赴吉林、黑龙江和内蒙古学习考察及总结交流会精神，省委书记郝鹏在省委学习贯彻习近平新时代中国特色社会主义思想主题教育读书班暨省委理论学习中心组学习研讨会上的讲话精神，全省统一战线纪念中共中央发布“五一口号”75周年座谈会精神，《中共辽宁省委关于坚定不移推进全面从严治党 着力构建风清气正政治生态的意见》文件精神，全省“清风辽宁政务窗口”评选活动动员部署会议精神，研究我市贯彻落实工作。市委书记王炳森主持会议。', '日召开的中共中央政治局会议精神，传达辽宁省党政代表团赴吉林、黑龙江和内蒙古学习考察及总结交流会精神，省委书记郝鹏在省委学习贯彻习近平新时代中国特色社会主义思想主题教育读书班暨省委理论学习中心组学习研讨会上的讲话精神，全省统一战线纪念中共中央发布', '周年座谈会精神，《中共辽宁省委关于坚定不移推进全面从严治党 着力构建风清气正政治生态的意见》文件精神，全省', '会议指出，这次中共中央政治局会议，深入分析研究当前经济形势，对做好下一步经济工作作出全面部署，提出明确要求。全市上下要切实把思想和行动统一到以习近平同志为核心的党中央对经济形势和经济工作的分析判断和决策部署上来，认真落实党中央决策部署及省委工作要求，坚定发展信心和决心，以超常规举措和力度推动经济实现质的有效提升和量的合理增长。要紧盯经济指标，加强分析监测研判，从指标变化中发现问题，把握趋势、结合实际，谋划具体抓手和举措。要紧盯重点产业、重点企业、重大项目，全方位跟踪服务，做好保障，持续优化营商环境。要努力提升经济活跃度，落实好国家及省各项稳经济政策，持续提振经营主体信心，着力恢复和扩大消费，全面深化改革、扩大高水平对外开放，做好民生各项保障。要更好统筹发展和安全，有效应对各类风险，压紧压实安全生产工作各方责任，严格落实', '会议强调，辽宁省党政代表团赴吉林、黑龙江和内蒙古学习考察，是我省全面贯彻落实党的二十大精神，深入贯彻落实习近平总书记关于东北、辽宁振兴发展的重要讲话和指示批示精神的务实举措，是推动主题教育走深走实的具体行动，也是一次学习互鉴、合作共赢、彰显担当之旅。全市各级党员干部要认真学习借鉴兄弟城市的好经验、好做法，正视差距、查找不足，提振精神，感恩奋进，细致周全地贯彻落实好', '三年行动系列方案，清单化、项目化、工程化推进二季度各项重点工作，扎扎实实把盘锦的事情办好。 要在加快产业结构调整步伐、大力发展民营经济、坚定不移推进开放发展、锲而不舍抓好城市管理、扎实推进干部作风建设等方面拿出务实管用的具体举措，驰而不息加以推进，切实做到经济发展抓上去、安全生产隐患降下来、政治生态好起来，为全省三年行动首战告捷贡献盘锦力量。', '会议指出，省委书记郝鹏在省委学习贯彻习近平新时代中国特色社会主义思想主题教育读书班暨省委理论学习中心组学习研讨会上的讲话对全省上下坚持学思践悟、学以致用，扎实推进中国式现代化辽宁实践提出了明确要求，要深入学习领会，抓好贯彻落实。要自觉做习近平新时代中国特色社会主义思想的坚定信仰者和忠实实践者，把', '作为坚定不移的政治信仰，植入脑海里、融入血脉中、落到行动上，以实际成效诠释对党绝对忠诚。要不等不靠抓好理论学习，认真研读主题教育要求的必读书目，及时跟进学习习近平总书记最新重要讲话精神，全面系统学、深入思考学、联系实际学，从党的科学理论中悟规律、明方向、学方法、增智慧。要学会用习近平新时代中国特色社会主义思想认识和分析全市改革发展稳定面临的形势，研究和解决经济社会发展中的各类矛盾问题，以新气象新担当新作为在新时代辽宁全面振兴中走在前列。', '会议指出，各级党委（党组）要切实履行统一战线工作主体责任，继承和发扬各民主党派、无党派人士与中国共产党风雨同舟、患难与共的优良传统，巩固和发展最广泛的爱国统一战线，携手开创新时代统战工作新局面。统战部门要抓住纪念中共中央发布', '周年的契机，引导各民主党派深化政治交接，不断增进对中国共产党领导和中国特色社会主义的政治认同、思想认同、理论认同、情感认同。各民主党派要履行好参政职能，发挥好资源丰富、联系广泛的优势作用，全力服务中心大局，聚焦全面振兴新突破三年行动，深入开展重点课题调查研究和民主监督，多聚发展之力、多建睿智之言、多谋务实之策。要以省委统战部举办的各项重大活动为契机，积极向外界展现盘锦形象、盘锦魅力，举全市之力把我们的企业', '会议强调，全市上下要提高政治站位，充分认识全面从严治党的必要性、紧迫性，吸取教训、举一反三，坚持一手抓高质量发展、一手抓全面从严治党，', '。要把净化政治生态作为党的政治建设的基础性、经常性工作，严格落实省委要求，细化实化措施，加强党的全面领导，持续强化理论武装，打造过硬干部队伍，大力开展', '评选活动，着力构建风清气正的政治生态。要坚定不移抓作风建设，深刻认识违反作风问题的严重危害，坚决杜绝作风漂浮、心中无数，遇到问题少从客观找理由、多从主观找原因，真正做到心中有数、眼里有活、手上有招。要压紧压实责任，确保各项要求落实落地，全市各级党委（党组）要严格落实全面从严治党主体责任，党委（党组）书记要严格履行全面从严治党第一责任人职责，领导班子其他成员要按照', '要求抓好分管工作落实，各级党的建设工作领导小组要充分发挥统筹协调作用，各级纪检监察机关、党的工作机关要充分发挥职能作用。要发挥好主流媒体宣传主渠道作用，积极宣传盘锦坚定不移推进全面从严治党的有效做法和着力构建风清气正政治生态的工作成果，进一步弘扬主旋律、激发正能量，营造良好舆论环境。', '推动科学技术更好造福各国人民 ——习近平主席致2023中关村论坛的贺信激励各界携手促进科技创新...']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>44</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>辽宁创新丨深化交流合作实现互利互赢以高质量区域协作助推高质量振兴发展</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://kjj.panjin.gov.cn/2023_05/15_08/content-411631.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['辽宁创新丨深化交流合作 实现互利互赢 以高质量区域协作助推高质量振兴发展_动态要闻_盘锦市科学技术局', '记者方亮报道 5月10日至11日，辽宁省党政代表团赴内蒙古自治区学习考察并举行内蒙古自治区·辽宁省交流合作座谈会，畅叙友邻情谊、深化务实合作，扎实推动东北全面振兴取得新突破。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，内蒙古自治区党委书记、自治区人大常委会主任孙绍骋主持座谈会并讲话。省委副书记、省长李乐成，内蒙古自治区党委副书记、自治区主席王莉霞分别介绍两省区经济社会发展情况。省政协主席周波，内蒙古自治区政协主席张延昆出席座谈会。', '郝鹏代表省委、省政府对内蒙古长期以来给予辽宁振兴发展的大力支持帮助表示感谢，对内蒙古高质量发展取得的成绩表示祝贺。他说，内蒙古资源丰富、风光壮美、区位独特，近年来，内蒙古加快推动产业转型升级，积极推进创新驱动发展，经济发展势头十分迅猛，我们备受鼓舞、深感钦佩。辽蒙两省区地域相连，产业互补，感情十分深厚。此次来内蒙古考察，旨在深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于东北振兴发展的重要讲话和指示批示精神，与内蒙古一道在深化务实合作中完整、准确、全面贯彻新发展理念，服务和融入新发展格局，以高质量发展提升维护国家“五大安全”能力。希望双方进一步加强重点领域合作，协同推动东北海陆大通道上升为国家战略，合力构筑向北开放新格局，更好融入共建“一带一路”。深化产业深度融合，共同塑造产业发展新优势。进一步深化两地能源领域合作，更好维护国家能源安全。加强在生态保护、文旅融合等方面合作，让绿水青山变成双方的金山银山。进一步强化协调对接机制，不断拓宽合作领域，共同把习近平总书记为东北擘画的全面振兴蓝图变为现实。', '孙绍骋代表内蒙古自治区党委和政府对辽宁省党政代表团的到来表示欢迎，对辽宁长期以来给予内蒙古的支持和帮助表示感谢。他说，辽宁省是“共和国长子”，党的十八大以来，辽宁省委和省政府深入学习贯彻习近平总书记关于东北、辽宁振兴发展的重要指示精神，推动辽宁全面振兴全方位振兴迈出坚实步伐。内蒙古与辽宁山水相邻、人文相近、往来密切，同属国家东北振兴战略实施地区，都肩负着维护国家国防安全、粮食安全、生态安全、能源安全、产业安全的重要使命，长期以来保持着良好的合作关系，取得了丰硕合作成果。当前，辽宁正在加快推进全面振兴新突破三年行动，着力打好打赢新时代“辽沈战役”，内蒙古正在聚焦聚力办好习近平总书记交给的五大任务和全方位建设“模范自治区”两件大事，努力把祖国北部边疆这道风景线打造得更加亮丽，放眼未来两省区可以取长补短的领域很多，区域合作的文章可以越做越大。远亲不如近邻，希望两省区多沟通、多走动，从一件件具体事谋起抓起，不断密切合作关系、拓展合作领域、提升合作层次，推动实现更高水平的互利共赢，为东北全面振兴作出更多贡献。', '在内蒙古期间，辽宁省党政代表团来到全国最大的沿边陆路口岸满洲里，考察了铁路口岸、国际公路口岸，详细了解中欧班列运行和公路口岸通关等情况，并到满洲里国门和红色展览馆参观考察，与内蒙古有关方面就加强两省区交通基础设施互联互通进行了深入交流。在呼和浩特市，代表团先后考察了伊利现代智慧健康谷、蒙草生态环境（集团）有限公司、内蒙古中环产业园等地，认真学习内蒙古在产城融合、生态修复治理、创新驱动发展等方面的先进经验。大家纷纷表示，通过学习考察，我们打开了思路、拓宽了视野、增添了动力，受益匪浅。', '省及沈阳市、大连市领导王新伟、张成中、陈向群、靳国卫、陈绍旺，内蒙古自治区领导包钢、于立新、林少春、杨进、杨劼参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>44</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>区委常委会召开会议</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.dawa.gov.cn/2023_05/30_15/content-413208.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['5月29日，中共盘锦市大洼区第二届委员会召开第92次常委会会议。会议传达学习4月28日中共中央政治局会议精神，传达学习郝鹏同志在全省民营企业家座谈会上的讲话精神，传达学习辽宁省党政代表团赴吉林省、黑龙江省和内蒙古自治区学习考察并举行交流合作座谈会及总结交流会精神，传达学习全省“清风辽宁政务窗口”评选活动动员部署会议精神，研究我区贯彻落实意见。会议听取大洼区落实省委巡视工作情况汇报。', '区委书记杨栋主持会议并讲话。区委副书记、区长林学玮出席会议。区人大常委会党组书记、主任王彦龙，区政协党组书记、主席姜文列席会议。区委副书记王晨出席会议。', '会议强调，全区上下要切实把思想和行动统一到以习近平同志为核心的党中央对经济工作的分析判断和决策部署上来，坚持稳中求进工作总基调，完整、准确、全面贯彻新发展理念，聚焦贯彻落实好全面振兴新突破三年行动，推动经济实现质的有效提升和量的合理增长。要坚决扛起“促一方发展、保一方平安”的政治责任，增强时不我待的紧迫感、时时放心不下的责任感，统筹抓好安全生产、信访稳定、社会治安、舆情导控、基层“三保”等重点工作，以高水平安全护航高质量发展。', '会议要求，要提高政治站位，进一步增强促进民营经济发展壮大的政治自觉、思想自觉和行动自觉。区领导和各单位“一把手”要做好表率，严格落实包保制度，持续在政策供给、促进公平、搭建平台、助企纾困上下功夫，倾心竭力支持民营经济高质量发展，切实营造重商兴商、亲商爱商、富商安商、利商护商的浓厚氛围。', '会议强调，要深入学习领会辽宁省党政代表团赴吉林、黑龙江、内蒙古学习考察的重大意义。要多“走出去”，查不足、找差距、明方向，不断拉高标杆、提高标准。要时刻保持谦虚谨慎的工作态度，以先进地区为榜样，加强学习交流、沟通协作，把更多更好的经验做法融入到大洼振兴发展的生动实践中。', '会议指出，开展“清风辽宁政务窗口”评选活动是全面优化营商环境、推动构建社会清廉体系的实践载体。要充分认清评选活动的现实意义，通过开展评选活动带动政务服务水平不断跃升，让全社会感知到大洼的“营商之变”。区纪委监委机关、区营商局要充分发挥《办事不找关系指南》指引作用，丰富宣传载体、压实工作责任、强化推广应用，营造全社会共同参与、广泛认同的浓厚氛围，让“办事不找关系、用权不图好处”成为常态。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>44</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴吉林省学习考察并举行吉林省辽宁省交流合作座谈会</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2023-05-10</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://jtysj.panjin.gov.cn/2023_05/10_08/content-411252.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴吉林省学习考察并举行吉林省·辽宁省交流合作座谈会_动态要闻_盘锦市交通运输局', '为深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于东北振兴发展的重要讲话和指示批示精神，5月8日，辽宁省党政代表团赴吉林省学习考察并举行吉林省·辽宁省交流合作座谈会，进一步深化两省务实合作，共同为推动东北全面振兴取得新突破贡献力量。辽宁省委书记、省人大常委会主任郝鹏出席座谈会并讲话，吉林省委书记、省人大常委会主任景俊海主持座谈会并讲话。省委副书记、省长李乐成，吉林省委副书记、省长胡玉亭分别介绍两省经济社会发展情况。省政协主席周波，吉林省政协主席朱国贤出席座谈会。', '郝鹏代表省委、省政府对吉林长期以来给予辽宁振兴发展的大力支持帮助表示衷心感谢，对吉林高质量发展取得的成绩表示祝贺。他说，近年来，吉林深入贯彻习近平总书记考察吉林重要讲话重要指示精神，抢抓机遇、乘势而上，经济社会发展亮点纷呈、成果丰硕，今年一季度，地区生产总值实现高速增长，吉林的好经验好做法以及浓厚的干事创业氛围值得我们学习借鉴。辽宁吉林两省山水相连、人文相亲，是好邻居好伙伴，共同承担着推动东北全面振兴、维护国家“五大安全”的重任，我们愿同吉林一道，进一步扩大合作范围，不断提升合作层次，加快区域经济一体化发展，把习近平总书记为东北擘画的全面振兴蓝图变为现实。希望双方在产业发展上深度融合，共同为维护国家产业链供应链安全贡献力量。在通道建设上通力合作，共同推动东北海陆大通道上升为国家战略，更好融入共建“一带一路”，共同打造对外开放新前沿。在科技创新上合力攻坚，整合两省科研力量，共同为国家高水平科技自立自强作出贡献。在粮食保供增收上协同合作，共同维护好国家粮食安全。在生态环境上共保联治，共同筑牢生态安全屏障。在工作机制上加强协调对接，推动双方务实合作走深走实，我们共同携手为扎实推进中国式现代化东北实践作出更大贡献。', '景俊海代表吉林省委、省政府，向辽宁省党政代表团到访表示热烈欢迎，向辽宁长期以来对吉林的大力支持帮助表示衷心感谢。他说，近年来，辽宁深入贯彻习近平新时代中国特色社会主义思想，迈上了高质量发展新征程。特别是党的二十大以来，辽宁开创性谋划实施全面振兴新突破三年行动，发出了打赢新时代“辽沈战役”的时代强音，辽宁的好经验、好做法、好作风非常值得我们学习借鉴。新时代新征程，我们愿同辽宁一道，深入贯彻落实习近平总书记重要讲话重要指示精神，同担重任、同向发力、同频共振，推动吉辽合作再创佳绩、再谱新篇，共同为维护国家“五大安全”作贡献、为党和国家工作大局服好务。一是打造交流互动新样板，进一步优化提升合作机制，推动区域合作取得更多成果。二是打造产业互补新格局，深化重点领域合作，加强科技创新协作，促进产业迈向中高端。三是打造区域互联新高地，共同推进省际通道建设，让交通畅起来、人流多起来、经济火起来。四是打造游客互换新市场，共同规划旅游线路、开展营销推介活动。五是打造开放互促新平台，协同构建东北东部绿色经济带和长白通丹大通道。六是打造生态互保新屏障，加强生态保护协同治理，构筑联防联控共同防线。', '在吉林期间，辽宁省党政代表团考察了四平战役纪念馆、中国黑土地保护农机产业创新示范基地、中国一汽NBD总部、中国一汽红旗制造中心繁荣基地、长春新区规划展览馆、长光卫星技术股份有限公司，认真学习吉林在科技创新、智能制造、现代农业等方面的先进经验和成功做法。大家表示，吉林高质量发展的良好态势、干部群众昂扬奋进的精神状态、推动振兴发展的好经验好做法让大家深感触动、深受启发。', '辽宁省及沈阳市、大连市领导王新伟、张成中、陈向群、靳国卫、陈绍旺，吉林省领导蔡东、张恩惠、李伟、高广滨参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>44</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>铁岭市机关事务服务中心一行来盘考察</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2023_05/11_11/content-411539.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['，来到全国首个机关事务标准化实训基地、全国首个省级标准化质量管理实训基地，考察学习机关事务标准化体系及标准化质量管理体系建设的先进经验，对简单可共享', '1号食堂、行政中心A楼等处进行实地考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准之路 质量花开》宣传片。', '“盘锦经验、盘锦模式”有了更深入的了解，真切感受到盘锦市以标准化为基础，深入推进体系化、数字化、品牌化建设，通过成功申报中国质量奖提名奖，实现了全面质量管理，提升了机关事务治理效能，真正为全国机关事务系统高质量发展提供了实践样板。', '盘锦市机关事务中心将继续秉持创新、协调、绿色、开放、共享的理念，持续发挥三个体系、三个模式、四个国家级试点及五大基地的优势效能，为推进机关事务治理体系和治理能力现代化贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>44</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴浙江省学习考察感悟真理力量实践伟力推动协同发展互利共赢郝鹏易炼红李乐成王浩周波黄莉新参加考察</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://kjj.panjin.gov.cn/2023_06/15_09/content-415339.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴浙江省学习考察 感悟真理力量实践伟力 推动协同发展互利共赢 郝鹏易炼红李乐成王浩周波黄莉新参加考察_动态要闻_盘锦市科学技术局', '辽宁省党政代表团赴浙江省学习考察 感悟真理力量实践伟力 推动协同发展互利共赢 郝鹏易炼红李乐成王浩周波黄莉新参加考察', '辽宁省党政代表团赴浙江省学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴浙江推动高质量发展的先进经验做法，拓展两省多领域多层次务实合作，更好实现互利共赢。省委书记、省人大常委会主任郝鹏，浙江省委书记、省人大常委会主任易炼红，省委副书记、省长李乐成，浙江省委副书记、省长王浩，省政协主席周波，浙江省政协主席黄莉新参加考察。', '浙江是习近平新时代中国特色社会主义思想重要萌发地。近年来，浙江牢记习近平总书记殷殷嘱托，坚持一张蓝图绘到底，深入实施“八八战略”，以“两个先行”打造“重要窗口”，大胆改革创新、先行先试，发展活力十足，高质量发展取得显著成就。辽宁代表团进企业进园区进乡村，从浙江的发展变化中深刻感悟习近平新时代中国特色社会主义思想的真理力量和实践伟力，学习吸收借鉴浙江在推动科技创新、以数字赋能实体经济发展、持续优化营商环境、大力推动共同富裕、加快高质量发展的好经验好做法，将学习成果转化为扎实推进中国式现代化辽宁实践的强大动力。', '生物医药产业是辽宁重点发展的特色产业，代表团来到杭州医药港，学习借鉴浙江推进生物医药全产业链布局，加快建设生命健康科创高地的成功经验，希望进一步加深杭州医药港与本溪药都、沈阳药科大学等的交流合作。从一口缸、一辆自行车起家，到跻身中国民营企业500强，传化集团的创业故事让代表团深受触动，大家对浙江不断优化环境推动民营经济发展的做法高度赞赏。在阿里巴巴集团总部，代表团听取了企业加快消费、云计算、全球化三大核心战略布局的情况介绍，与企业负责同志深入交流，希望借助阿里巴巴在数字经济上的资源优势，加强技术人才等方面交流合作，加快推动“数字辽宁、智造强省”建设步伐。代表团来到杭州市余杭区径山镇小古城村，走访农户、察看村貌、感受变化，了解当地深化“千万工程”，大力推进“村里的事情大家商量着办”基层民主法治建设，推进农文旅融合发展有关情况，当地扎实建设美丽乡村，推动共同富裕的做法让代表团深受启发。代表团还来到杭州城市大脑运营指挥中心，听取数字赋能城市治理，推进治理体系和治理能力现代化情况介绍。', '在学习考察中，代表团成员表示，辽宁与浙江人员往来密切、情谊深厚，都承担着推动高质量发展、服务国家重大战略的使命，双方产业资源优势互补，未来合作潜力巨大。我们愿与浙江同志一道，牢记习近平总书记嘱托，在新征程上共同聚焦高质量发展这个首要任务，以此次学习考察为契机，不断完善交流合作机制，拓展更高层次、更高质量的务实合作，进一步提升产业链创新链人才链合作水平，加强科技协同创新，促进文旅产业互推互促，携手服务和融入新发展格局，一步一个脚印地将习近平总书记为两省擘画的宏伟蓝图变成现实，为服务国家发展大局作出新的更大贡献。', '省领导王新伟、王健、张成中、陈向群，浙江省领导刘捷、邱启文、刘忻、卢山、姚高员参加学习考察。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。', '辽宁省党政代表团赴安徽省学习考察 学习追赶超越成功经验 携手实现更高水平共赢发展 郝鹏韩俊李...', '辽宁省党政代表团赴上海市学习考察并举行上海市·辽宁省交流合作座谈会 对标先进促进发展 深化沪...']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>44</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>江苏省常州市市级机关服务中心来盘考察学习</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2023-04-17</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2023_04/17_18/content-409443.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['江苏省常州市市级机关服务中心来盘考察学习_全国首个省级政府系统卓越质量管理推广基地_盘锦市机关事务管理局', '4月17日，江苏省常州市市级机关服务中心副主任徐步青一行6人，来到全国首个机关事务标准化实训基地、全国首个省级标准化质量管理实训基地，考察学习全国首部机关事务标准化体系和全国首部机关事务标准化质量管理体系建设的先进经验，对简单可共享9123标准化质量管理模式给予高度肯定。', '徐步青副主任一行先后来到辽东湾会议中心、机关1号食堂、2号食堂、行政中心A楼、智慧平台等处进行现场考察，参观了盘锦市机关事务发展历程展馆，观看了《标准之路 质量花开》宣传片，全面系统了解了我市机关事务标准化体系和标准化质量管理体系建设历程和建设成效，对食堂餐饮高标准高质量建设的制度、模式、方法进行了深入学习。', '1号食堂、2号食堂、行政中心A楼、智慧平台等处进行现场考察，参观了盘锦市机关事务发展历程展馆，观看了《标准之路 质量花开》宣传片，全面系统了解了我市机关事务标准化体系和标准化质量管理体系建设历程和建设成效，对食堂餐饮高标准高质量建设的制度、模式、方法进行了深入学习。', '惊叹。在实地参观过程中，调研人员对于豆制品制作的标准化、节能灶应用、厨余垃圾处理等各个细节进行了深入细致的学习记录，为该中心推进食堂餐饮一体化保障的高标准高质量发展提供了示范样板。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>44</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>重庆市四川省机关事务管理部门来盘考察学习</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2023_04/21_10/content-409661.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['4月20，重庆市机关事务管理局二级巡视员覃艳一行，四川省机关事务管理局一级调研员、政策法规处处长陈国忠带领绵阳、遂宁、达州、阿坝4个市、州的机关事务管理部门同志，来到全国首个机关事务标准化实训基地、全国首个省级标准化质量管理实训基地，考察学习机关事务标准化体系及标准化质量管理体系建设的先进经验，对简单可共享9123标准化质量管理模式给予高度评价。', '1号食堂、行政中心A楼、政通集团、机关事务智慧管理平台等处进行实地考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准之路 质量花开》宣传片。', '“盘锦经验、盘锦模式”有了更深入的了解，真切感受到盘锦市以标准化为基础，深入推进体系化、数字化、品牌化建设，通过成功申报中国质量奖提名奖，实现了全面质量管理，提升了机关事务治理效能，真正为全国机关事务系统高质量发展提供了实践样板。', '盘锦市机关事务中心将继续秉持创新、协调、绿色、开放、共享的理念，持续发挥两个体系、三个模式、四个国家级试点及五大基地的优势效能，为推进机关事务治理体系和治理能力现代化贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>44</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>四川省绵阳市机关事务管理局一行来盘考察学习</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2023_04/19_17/content-409438.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['四川省绵阳市机关事务管理局一行来盘考察学习_盘锦市首批党员干部教学实训基地_盘锦市机关事务管理局', '实现了全面质量管理，提升了机关事务治理效能，真正为全国机关事务系统树立了新的里程碑。', '中心将以此次考察为新的契机，不断探索机关事务改革发展新路径，永无止境追求卓越，为推进机关事务治理体系和治理能力现代化贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>44</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>青海省机关事务管理局市场监管局省委党校一行来盘考察</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2023_05/09_16/content-411202.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['青海省机关事务管理局、市场监管局、省委党校一行来盘考察_全国首个省级政府系统卓越质量管理推广基地_盘锦市机关事务管理局', '青海省省直机关事务管理局节能管理处副处长多杰卓玛，青海省委党校改革发展研究所博士、硕士研究生导师王孔容，青海省市场监督管理局办公室副主任陈建峰一行，', '来到全国首个机关事务标准化实训基地、全国首个省级标准化质量管理实训基地，考察学习机关事务标准化体系及标准化质量管理体系建设的先进经验，对简单可共享', '1号食堂、行政中心A楼、政通集团、机关事务智慧管理平台等处进行实地考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准之路 质量花开》宣传片。', '“盘锦经验、盘锦模式”有了更深入的了解，真切感受到盘锦市以标准化为基础，深入推进体系化、数字化、品牌化建设，通过成功申报中国质量奖提名奖，实现了全面质量管理，提升了机关事务治理效能，真正为全国机关事务系统高质量发展提供了实践样板。', '盘锦市机关事务中心将继续秉持创新、协调、绿色、开放、共享的理念，持续发挥两个体系、三个模式、四个国家级试点及五大基地的优势效能，为推进机关事务治理体系和治理能力现代化贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>浙江省温州市机关事务管理局一行再次来盘考察学习</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2023_04/12_15/content-409555.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['人，来到全国首个机关事务标准化实训基地、全国首个省级标准化质量管理实训基地，考察学习全国首部机关事务标准化体系和全国首部机关事务标准化质量管理体系建设的先进经验，对简单可共享', '1号食堂、行政中心A楼、政通物业集团、智慧平台等处进行现场考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准之路 质量花开》宣传片。', '中国质量奖提名奖，实现了全面质量管理，提升了机关事务治理效能，真正为全国机关事务系统树立了', '中心将以此次考察为新的契机，不断探索机关事务改革发展新路径，永无止境追求卓越，为推进机关事务治理体系和治理能力现代化贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>沈阳市沈北新区机关事务保障中心来盘考察学习</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2023-04-06</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2023_04/06_16/content-408057.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['1号食堂、行政中心A楼、政通物业管理集团、智慧平台等处进行现场考察，参观了盘锦市机关事务发展历程展馆，观看了《标准文化》宣传片，全面系统了解了我市机关事务标准化体系和标准化质量管理体系建设历程和建设成效。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>44</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>温州市机关事务管理局一行来盘考察</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2023-03-09</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2023_03/09_17/content-404854.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['，参观了盘锦市机关事务发展历程展馆，观看了《标准文化》宣传片，全面系统了解了我市机关事务标准化体系和标准化质量管理体系建设历程和建设成效。', '“两个体系”，承接了中国社科院“两个课题”，形成了“三个模式”，建成了全国首个机关事务标准化培训实践基地等“四个基地”，', '1.0标准化体系到4.0标准化质量管理体系的新跨越。首创赋能型标准化人才体系，内部培养、聘任首席质量官、首席标准官20人，培养标准化讲师200人，课程体系完备、培训经验丰富。', '成熟的试点、基地建设经验，在标准化质量管理方面优势显著，始终处于行业引领地位。同时探索出了标准化质量管理向企业、高职院校、政府系统赋能的新模式。', '一行对“盘锦模式”有了更加深入的了解，充分肯定了我中心首创的“9123”标准化质量管理模式，在标准化建设和标准化质量管理方面确实走在了全国同行业的前列，为机关事务领域开创了新的里程碑。', '为全国提供可复制、可推广、可共享的标准化质量管理新模式，为推动机关事务治理体系和治理能力现代化贡献盘锦力量。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>44</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>庄河市机关事务服务中心来我中心考察学习</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2022-11-22</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2022_11/22_15/content-392643.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['一行先后来到辽东湾会议中心、机关1号食堂、行政中心A座、智慧平台、政通集团等处进行实地考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准文化》宣传片，全面系统了解了我市机关事务标准化体系和标准化质量管理体系建设历程和建设成效。', '参观考察期间，市委副秘书长、中心党组书记、主任魏旭阳向参观人员详尽介绍了八年多来，我中心是如何运用标准化的思维、理念、方法指导机关事务各项工作，构建了全国首部机关事务标准化体系和标准化质量管理体系，并在持续改进创新的路上永无止境', '一行对我中心在标准化和标准化质量管理建设方面超前的工作思路和取得的丰硕成果给予了高度']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>44</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>黑龙江省佳木斯市机关事务中心一行来盘考察学习</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2023-03-13</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2023_03/13_16/content-405102.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['一行先后到辽东湾会议中心、机关1号食堂、行政中心A楼、政通物业管理集团等处进行现场考察，参观了盘锦市机关事务发展历程展馆，观看了《标准文化》宣传片，全面系统了解了我市机关事务标准化体系和标准化质量管理体系建设历程和建设成效。', '“盘锦模式”有了更加深入的了解，充分肯定了我中心首创的“9123”标准化质量管理模式，在标准化建设和标准化质量管理方面确实走在了全国同行业的前列，为机关事务领域开创了新的里程碑。', '“只有高标准 才有高质量”的质量文化价值观，筑牢“标准必须有效，质量必须稳定”的质量管理理念，为全国提供可复制、可推广、可共享的标准化质量管理新模式，为推动机关事务治理体系和治理能力现代化贡献盘锦力量。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>44</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>辽河石油职业技术学院来我中心就深度合作进行洽谈</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2022-06-22</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2022_06/22_16/content-376589.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['6月22日，辽河石油职业技术学院副院长王辉等一行三人来我中心进行学习考察，并就与我中心及政通集团深度合作事宜进行进一步洽谈。', '王辉副院长一行先后到来到辽东湾会议中心、盘锦机关事务发展历程展馆、机关1号食堂、政通集团等处进行参观学习。通过参观对我中心在标准化体系建设和标准化质量管理体系建设工作的思路和取得的丰硕成果表示赞叹。', '随后，王辉副院长一行与我中心及政通集团代表就未来合作事宜进行了洽谈。通过洽谈，三方就合作战略框架协议达成初步共识。未来我中心将与辽油职院共同建设“飞地共享”教育模式，以建设标准化质量管理产业学院为远景目标，共同研发标准化质量管理方向专业课程，面向各类企事业单位、学员进行标准化质量管理培训赋能，实现在中心、企业、院校三方深度合作方面走出一条既符合实际又可以产出实效的好路径。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>44</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>省标准化研究院朝阳县营商环境建设局盘锦光合蟹业有限公司来我中心考察学习</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2022-07-20</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2022_07/20_10/content-379649.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['省标准化研究院、朝阳县营商环境建设局、盘锦光合蟹业有限公司来我中心考察学习_工作动态_盘锦市机关事务管理局', '7月20日，省标准化研究院研究中心主任曲波带领2021年省级标准化试点立项单位——朝阳县营商环境建设局、盘锦光合蟹业有限公司人员来我中心，对标准化试点建设经验进行考察学习。', '朝阳县营商环境建设局副局长孙红阁、盘锦光合蟹业有限公司副总经理柴永庆分别带领考察人员先后来到辽东湾会议中心、机关1号食堂等处进行实地考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准文化》宣传片，全面系统了解了我市机关事务标准化体系和标准化质量管理体系建设历程和建设成效。', '参观过程中，市委副秘书长、中心党组书记、主任魏旭阳以《构建标准体系 提升治理效能》为题，为考察人员进行授课赋能。围绕机关事务八年多来的实践经验，深入浅出地讲解了从1G标准化到7G标准化质量管理体系的探索之路，结合实践工作中的经典案例，教授了如何运用标准化的思维、理念、方法指导工作，打造高标准、赢得高质量，实现所在行业领域的治理体系和治理能力现代化。', '考察团人员表示，通过此次参观，感受到了国家级标准化试点的实力与魅力，学习和理解了标准化在实际工作中的运用与作用，为进一步在各自领域构建标准体系，提升治理效能，争创省级标准化试点提供了经验范本。', '中心也将继续发挥好“三个基地”的培育赋能优势和“四个国家级试点”的示范引领作用，全面推广荣获中国质量奖提名奖的机关事务标准化质量管理模式，放大机关事务标准化品牌效应，为全省标准化建设助力高质量发展贡献盘锦力量。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>44</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>安徽中科美络信息技术有限公司一行来我中心学习考察</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2022-03-03</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2022_03/03_16/content-364224.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['3月3日，安徽中科美络信息技术有限公司总经理罗建飞一行四人来我中心，就机关事务标准化信息化建设盘锦经验、盘锦模式进行学习考察。', '罗建飞总经理一行先后来到辽东湾会议中心、机关1号食堂、机关事务智慧管理平台等处进行考察，参观了盘锦市机关事务发展历程展馆，全面系统了解了我市机关事务标准化体系和标准化质量管理体系建设历程和建设成效，对盘锦经验和盘锦模式展开了深度调研。', '罗建飞总经理一行对市直机关综合事务中心标准化作为全国标准化信息化“两化融合”试点所开展的工作和起到的引领作用给予高度认可，对我中心首创的“两个体系”即机关事务标准化体系和机关事务标准化质量管理体系予以充分的赞扬。中心通过不断的夯实标准，执行标准，切实提升了工作质量，取得的成效是显而易见的。创造总结的标准化信息化“两化融合”盘锦经验、盘锦模式值得在全国推广。', '中心将以此次参观考察为契机，继续以践行“盘锦模式”、守护“盘锦模式”、传播“盘锦模式”为己任，不断追求卓越，突破创新，为推动机关事务高质量发展再上新台阶贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>44</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>辽勤集团来我中心学习盘锦模式</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2022-01-18</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2022_01/18_16/content-359086.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['1月17日，辽宁省辽勤集团八方实业有限公司总经理胡哲一行4人来到盘锦市市直机关综合事务中心，考察学习机关事务标准化质量管理盘锦经验、盘锦模式。', '辽勤集团一行人先后来到辽东湾会议中心、机关1号食堂等处进行参观考察，全面系统了解了我市机关事务标准化质量管理体系建设历程和建设成效，学习了通过集约化、体系化、数字化、品牌化融合发展，使得机关事务标准化多角度运行机制和效益不断强化的全过程。参观考察期间，政通集团董事长莫大国详尽介绍了疫情常态化严防严控的标准化措施；讲解了如何运用标准化减少人力、财力、时间投入，延长物品使用寿命，实现降低成本、提高质量的目的。辽勤集团一行人表示通过此次参观考察，对“盘锦模式”有了更深的理解和认识，对标准化2.0的思维、理念、方法给予充分赞誉。', '中心也将以此次外来学习考察为契机，继续深入贯彻新发展理念，注重标准化实践，充分发挥事务支撑政务的职能作用，以“构建标准体系，提升机关事务治理效能”质量管理“盘锦模式”助力机关事务工作高质量发展，为全国机关事务标准化工作作出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>44</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>辽勤集团来我中心学习标准化质量管理模式</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2022-07-20</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2022_07/20_16/content-379719.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['7月20日，辽勤集团八方实业党委书记王海风一行6人来我中心，就食堂标准化质量管理模式进行考察学习。', '王海风书记一行先后来到辽东湾会议中心、机关1号食堂等处进行实地考察学习，参观了盘锦市机关事务发展历程展馆，观看了《标准文化》宣传片，全面系统了解了我市机关事务标准化体系和标准化质量管理体系建设历程和建设成效。', '参观考察期间，政通集团董事长莫大国向参观人员详尽介绍了近年来，政通集团在中心的正确领导下，运用标准化质量管理的思维、理念、方法，参与构建了全国首部机关事务标准化体系和标准化质量管理体系，打造了包括食堂品牌、辽河口渔家菜品牌在内的一系列政通品牌，编制了中国烹饪协会团体标准，制定的机关物业、会议、食堂以及辽河口渔家菜四项标准被列为省级地方标准，填补了辽宁空白。', '通过参观考察，王海风书记一行对“盘锦经验”“盘锦模式”，特别是标准化质量管理模式在食堂项目管理、餐饮接待服务等方面的运用所取得的成果深感赞叹。', '中心也将继续发挥好“三个基地”的培育赋能优势和“四个国家级试点”的示范引领作用，全面推广荣获中国质量奖提名奖的机关事务标准化质量管理模式，放大机关事务标准化品牌效应，为全省标准化建设助力高质量发展贡献盘锦力量。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>44</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>营口市机关事务管理服务中心来我中心学习盘锦模式</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2021-12-28</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2021_12/28_16/content-356618.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['12月28日，营口市机关事务管理服务中心党组书记、主任朱明强一行11人来到盘锦市市直机关综合事务中心，考察学习机关事务标准化质量管理盘锦经验、盘锦模式。', '朱明强主任一行先后来到辽东湾会议中心、盘锦机关事务发展历程展馆、机关1号食堂等处进行参观考察，全面系统了解了我市机关事务标准化质量管理体系建设历程和建设成效，学习了通过集约化、体系化、数字化、品牌化融合发展，使得机关事务标准化多角度运行机制和效益不断强化的全过程。', '朱明强主任一行对我中心在标准化方面超前的工作思路和取得的丰硕成果给予了高度评价，认为盘锦市直机关综合事务中心标准化质量管理体系建设经验和取得的成绩值得全国各机关事务管理系统学习借鉴，具有很好的推广意义。', '中心也将以此次外来学习考察为契机，继续深入贯彻新发展理念，注重标准化实践，充分发挥事务支撑政务的职能作用，以“机关事务集中统一管理”和“构建标准体系，提升机关事务治理效能质量管理”两个“盘锦模式”助力机关事务工作高质量发展，为全国机关事务标准化工作改革创新发展作出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>44</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>江苏省常州市机关事务管理局一行来我中心学习盘锦模式</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2021_10/28_16/content-347290.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['江苏省常州市机关事务管理局一行来我中心学习盘锦模式_工作动态_盘锦市机关事务管理局', '10月28日，江苏省常州市机关事务管理局副局长邵玲一行6人来到盘锦市市直机关综合事务中心，考察学习机关事务标准化质量管理盘锦经验、盘锦模式。', '邵玲副局长一行人先后来到辽东湾会议中心、机关1号食堂、市直机关党群服务中心、机关事务智慧管理平台等处进行参观考察，全面系统了解了我市机关事务标准化质量管理体系建设历程和建设成效，学习了通过集约化、体系化、数字化、品牌化融合发展，使得机关事务标准化多角度运行机制和效益不断强化的全过程。', '通过考察学习，江苏省常州市机关事务管理局副局长邵玲一行人对我中心在标准化方面超前的工作思路和取得的丰硕成果给予了高度评价，认为盘锦市直机关综合事务中心标准化质量管理体系建设经验和取得的成绩值得全国各行业特别是机关事务管理系统学习借鉴，具有很好的推广意义。', '中心也将以此次外来学习考察为契机，继续深入贯彻新发展理念，注重标准化实践，充分发挥事务支撑政务的职能作用，以“构建标准体系，提升机关事务治理效能”质量管理“盘锦模式”助力机关事务工作高质量发展，为全国机关事务标准化工作作出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>44</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>阜新市委常委秘书长李进辉一行来我中心考察</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2021-11-23</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2021_11/23_14/content-350329.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['11月23日，阜新市委常委、市委秘书长、市委办公室主任李进辉一行5人来我中心，就机关事务标准化建设盘锦模式进行学习考察。', '阜新市委常委、市委秘书长、市委办公室主任李进辉一行先后来到辽东湾会议中心、机关1号食堂等处进行考察，参观了盘锦市机关事务发展历程展馆，观看了《标准文化》宣传片，全面系统了解了我市机关事务标准化体系和标准化质量管理体系建设历程和建设成效，对盘锦经验和盘锦模式展开了深度调研。', '参观考察过程中，市委副秘书长、中心主任魏旭阳全程为李进辉秘书长一行详尽的介绍了几年来中心运用标准化的思维理念方法开展工作所取得的丰硕成果，通过构建“两个体系”，承接“两个课题”，建成“三个基地”，获批成为“四个国家级试点”，基本实现了机关事务治理体系和治理能力现代化。特别是质量管理体系在首个全国机关事务标准化培训实践基地、首个辽宁省标准化培训实践基地、首批盘锦市党员干部教育培训现场教学基地建设中发挥着重要的指导支撑作用，为标准化质量管理战略的实施与提升提供了坚强保障。', '阜新市委常委、市委秘书长、市委办公室主任李进辉一行对我中心首创的“两个体系”即机关事务标准化体系和机关事务标准化质量管理体系予以了充分的肯定与赞扬，中心通过不断的夯实标准，执行标准，切实提升了工作质量，取得的成效是显而易见的。创造总结的盘锦经验、盘锦模式值得在机关事务领域推广学习。', '中心将以此次参观考察为契机，继续以践行“盘锦模式”、守护“盘锦模式”、传播“盘锦模式”为己任，不断追求卓越，突破创新，为推动机关事务高质量发展再上新台阶贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>44</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>辽阳市机关事务管理服务中心来我中心学习盘锦模式</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2021-10-21</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2021_10/21_16/content-345770.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['10月20日，辽阳市机关事务管理服务中心党组成员、副主任王向前一行6人来到盘锦市市直机关综合事务中心，考察学习机关事务标准化质量管理盘锦经验、盘锦模式。', '辽阳市机关事务管理服务中心党组成员、副主任王向前一行人先后来到辽东湾会议中心、机关1号食堂、市直机关党群服务中心、机关事务智慧管理平台等处进行参观考察，全面系统了解了我市机关事务标准化质量管理体系建设历程和建设成效，学习了通过集约化、体系化、数字化、品牌化融合发展，使得机关事务标准化多角度运行机制和效益不断强化的全过程。', '通过考察学习，辽阳市机关事务管理服务中心党组成员、副主任王向前一行人对我中心在标准化方面超前的工作思路和取得的丰硕成果给予了高度评价，认为盘锦市直机关综合事务中心标准化质量管理体系建设经验和取得的成绩值得全国各行业特别是机关事务管理系统学习借鉴，具有很好的推广意义。', '中心也将以此次外来学习考察为契机，继续深入贯彻新发展理念，注重标准化实践，充分发挥事务支撑政务的职能作用，以“构建标准体系，提升机关事务治理效能”质量管理“盘锦模式”助力机关事务工作高质量发展，为全国机关事务标准化工作作出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>44</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>阜新蒙古族自治县考察组莅临我区考察学习党建引领智慧治理工作</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2021-09-22</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.stq.gov.cn/2021_09/22_09/content-339385.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['9月17日，阜新蒙古族自治县县委组织部、县委政法委、县民政局等一行23人莅临我区考察学习“党建引领 智慧治理”工作。区委组织部、区网格管理服务中心等部门主要负责同志陪同考察。', '在区网格管理服务中心，考察组认真听取了我区“网格化+智慧化”社会治理模式工作汇报，详细询问了我区网格管理指挥调度平台、“党建引领 智慧治理”综合指挥平台、基层减负数据信息共享平台具体操作运行情况。座谈会上，双方围绕“党建引领 智慧治理”、信息化系统平台建设、网格队伍建设、网格事项管理、隐患处置机制、奖励机制、基层减负等方面进行了深入的交流研讨。', '在建设街道办事处，考察组参观了街道便民服务大厅、网格中心指挥大厅及各个功能室，听取了街道“党建引领 智慧治理”工作阵地、人员、成效及网格特色等情况介绍。', '考察组对我区“党建引领 社会治理”工作及“网格化＋智慧化”社会治理模式给予充分肯定和高度赞扬。表示通过学习交流，进一步拓宽了视野，开阔了思路，许多经验值得借鉴。同时，希望今后能加强两地交流，相互借鉴学习，推动两地网格化管理、智慧化治理工作实现更快更好的发展。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>44</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>山东省滨州市机关政务保障中心来我中心学习盘锦模式</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2021-10-27</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2021_10/27_11/content-347084.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['10月27日，山东省滨州市机关政务保障中心党组成员、副主任李志强一行6人来到盘锦市市直机关综合事务中心，考察学习机关事务标准化质量管理盘锦经验、盘锦模式。', '滨州市机关政务保障中心党组成员、副主任李志强一行人先后来到辽东湾会议中心、盘锦机关事务发展历程展馆、机关1号食堂、市直机关党群服务中心、机关事务智慧管理平台等处进行参观考察，全面系统了解了我市机关事务标准化质量管理体系建设历程和建设成效，学习了通过集约化、体系化、数字化、品牌化融合发展，使得机关事务标准化多角度运行机制和效益不断强化的全过程。', '滨州市机关政务保障中心党组成员、副主任李志强一行人对我中心在标准化方面超前的工作思路和取得的丰硕成果给予了高度评价，认为盘锦市直机关综合事务中心标准化质量管理体系建设经验和取得的成绩值得全国各行业特别是机关事务管理系统学习借鉴，具有很好的推广意义。', '中心也将以此次外来学习考察为契机，继续深入贯彻新发展理念，注重标准化实践，充分发挥事务支撑政务的职能作用，以“机关事务集中统一管理”和“构建标准体系，提升机关事务治理效能质量管理”两个“盘锦模式”助力机关事务工作高质量发展，为全国机关事务标准化工作改革创新发展作出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>44</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>我区行政审批部门赴阜新学习考察政务服务改革</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2021-03-03</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.xlt.gov.cn/2021_03/03_17/content-311350.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['3月2日，区行政审批局及政务服务中心有关负责同志一行10人赴阜新市考察学习。阜新市营商环境建设局局长段艳喆、副局长张跃海、常群陪同考察。 去年以来，阜新市营商环境建设围绕“一流设施、一流机制、一流服务、一流效率”目标，“一网通办”工作取得突破进展，政务服务事项网上可办率达到100%，实办率达到50.3%，工程建设项目审批在全省率先完成省市县三级联办，一般企业设立登记压缩至2小时，阜蒙县政务服务“综合受理”改革工作成为全省标杆，在全力打造办事方便的营商环境上迈出了一大步。 在阜蒙县政务服务中心，考察组实地考察了无差别受理综合窗口、“全市通办”“跨域通办”综合窗口、“一件事一次办”综合窗口、统一发证综合窗口、惠企政策咨询综合窗口和政务信息公开综合窗口的设置和运行情况，并就“受办分离”后前后台工作衔接等问题进行了现场学习。 在座谈交流中，阜蒙县营商环境建设局局长吴学民详细介绍了“一网通办”工作开展情况、政务服务改革及一件事一次办工作开展情况，并无私分享了如何实施推进“前台综合受理、后台集成服务、统一窗口出件”“综合受理”改革工作经验。 阜新市营商环境建设局副局长张跃海详细介绍了全市政务服务改革“四个一流”目标，便利化、精细化、智能化整体工作思路和工作推进情况，并就如何开展“综合受理”改革和一件事一次办工作提出了很好的指导性意见。 我区就开展的“一网统管、一网通办”、“党建引领、审批升级”“规范三级政务服务体系运行、受理端口向基层服务站点前移，实现就近办”“新生儿出生一件事”“一枚印章管审批”“升级审批服务为审批任务”“一般性工程建设项目审批不按暂停键49个工作日办结”“企业设立业务集成”“一件事一次办、探索‘一业一证’发放行业综合许可、实现准入即准营”“综合受理、全业务办理”等工作与阜新市同行交换了意见。 在海州区党群服务中心，考察组实地考察了“一网五平台”中的便民服务平台运行情况。 在海州区西华园社区，考察组实地考察了政务服务驿站建设情况。详细了解了政务服务事项进驻，以及便民服务举措，并就政务服务通过“一网通办”向社区延伸、实现就近办理，打通便民服务最后一米和通过网格员精准提供帮代办服务等工作交流分享了经验。 通过考察学习，考察组开阔了视野，丰富了经验。围绕2021年重点工作任务，区行政审批局将进一步理清工作思路，学习借鉴阜新市政务服务改革工作经验，取长补短，细化工作措施，结合我区政务服务中心改造升级，创新思维，敢为人先，勇于担当，把“马上就办、真抓实干”落到实处，以更高标准、更严要求，推动我区行政审批制度改革、政务服务改革和“一网通办”工作实现新突破，领军打造“高效、高质、高速”的政务服务样板与品牌。（行政审批局）']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>44</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>丹东市卫生健康服务中心来盘考察学习</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2021-08-04</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://wjw.panjin.gov.cn/2021_08/04_18/content-333686.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['8月3日，丹东市卫健中心副主任李宁一行3人到我市卫健中心考察学习。市卫健中心主任梁辉介绍了中心目前工作模式及发展方向，特别是承接卫生行政部门委派工作的具体实施情况及做法。', '考察组重点了解了医学会工作开展情况，医学会负责专科分会建设及医疗事故技术鉴定两项工作，目前全市有73个专科分会、2个青年委员会、11个专业学组，专科分会每年至少开展一次学术活动，为卫生技术人员搭建了一个学习交流的平台；医学会目前开展了医疗事故技术鉴定、预防接种异常反应鉴定及职业病鉴定，正在积极筹备医疗损害鉴定。在医疗事故技术鉴定工作中，程序公开规范，鉴定结论客观、科学、公正，得到委托单位充分认可，为妥善解决我市医疗纠纷，保障医患双方合法权益，维护社会和谐稳定作出突出贡献。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>44</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>天津市滨海新区机关事务管理局湖北省十堰市机关事务服务中心来我中心学习盘锦模式</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2021-09-17</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2021_09/17_15/content-338874.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['天津市滨海新区机关事务管理局、湖北省十堰市机关事务服务中心来我中心学习盘锦模式_工作动态_盘锦市机关事务管理局', '9月16日，天津市滨海新区政府办副主任、机关事务管理局局长董军一行8人，湖北省十堰市机关事务服务中心副主任陈卓卓一行5人来到盘锦市市直机关综合事务中心，考察学习机关事务标准化质量管理盘锦经验、盘锦模式。', '董军局长、陈卓卓副主任两行人先后来到辽东湾会议中心、机关1号食堂、市直机关党群服务中心、机关事务智慧管理平台等处进行参观考察，全面系统了解了我市机关事务标准化质量管理体系建设历程和建设成效，学习了通过集约化、体系化、数字化、品牌化融合发展，使得机关事务标准化多角度运行机制和效益不断强化的全过程。', '通过考察学习，天津市滨海新区机关事务管理局、湖北省十堰市机关事务服务中心两行人对我中心在标准化方面超前的工作思路和取得的丰硕成果给予了高度评价，认为盘锦市直机关综合事务中心标准化质量管理体系建设经验和取得的成绩值得全国各行业特别是机关事务管理系统学习借鉴，具有很好的推广意义。', '中心也将以此次外来学习考察为契机，继续深入贯彻新发展理念，注重标准化实践，充分发挥事务支撑政务的职能作用，以“构建标准体系，提升机关事务治理效能”质量管理“盘锦模式”助力机关事务工作高质量发展，为全国机关事务标准化工作作出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>44</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>黑河市住房公积金管理中心同志来盘学习考察</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2021-08-09</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.pjgjj.com/2021_08/09_10/content-333960.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['7月26日，为学习借鉴盘锦市住房公积金管理中心信息系统建设及业务办理经验，黑龙江省黑河', '通过此次考察学习，加深了两地公积金业务交流，促进两地公积金信息系统建设互相借鉴，迈上新的台阶。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>44</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>赴铁岭昌图和阜新彰武两地学习考察高标准农田建设</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://nyncj.panjin.gov.cn/2021_06/04_10/content-326019.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['按照市政府领导要求，5月26日由盘锦市现代农业发展中心主任武强同志带队一行五人到铁岭昌图县学习考察高标准农田项目建设相关工作的先进经验。', '盘锦学习考察组一行在铁岭市农业农村局副局长李学武和相关工作人员的陪同下参观了昌图县太平镇和此路树镇高标准农田建设项目区，随后双方到昌图县农业农村局会议室进行了座谈', '（一）2020年下半年，省农业农村厅批复昌图县2020年新增高标准农田建设项目不少于30万亩，昌图县以此为契机，大规模推进高标准农田建设，创新方式实行EPC工程总承包模式，重点打造昌图县百万亩高标准农田示范区。', '实行EPC模式，只能提供项目建议书，作为专家评审项目的依据，无法提供更详细的资料用以专家评审。专家评审局限于项目宏观上的可行性、科学性方面，在具体的可操作性上评审没有依据。现行的项目评审，是在编制项目可研的基础上进行的，评审的项目即有可行性、科学性，亦有很强的可操作性，对项目存在的问题，亦可拿出具体的解决方案。', '实行EPC模式，需进行项目总价承包，拦标价设置没有意义，可无需设置拦标价。现行高标准农田项目管理制度，需在投标前编制拦标价，并经审核机构审核，再行进入招标程序。', '实行EPC模式，需要投标企业具有设计、施工乃至建后运营等多方面的能力，资质要求较高，一般应在国家规定的总承包二级以上资质。与现行的三级以上资质投标要求，提高了投标门坎。', '将工程税款，留在地方，是地方政府的诉求。如外地企业中标，若将税款留在当地，需要在所在地注册分支机构，才能实现工程税款留在当地的目标。', '二、盘锦市现代农业发展中心吴强主任介绍了盘锦市高标准农田项目目前实施EPC模式的初步想法。', '目前，盘锦地区2021年，高标准农田建设项目，已经完成了项目扩初设计，专家评审等前期工作。2021年高标准农田建设项目若实行EPC模式，结合实际，建议采取以下措施。', '（2）项目设计维持原有设计不变，以后设计调整或计划调整可根据项目实施具体情况，再行设计变更或计划调整。计划变更或设计调整工作由原设计单位承担。', '（3）资金结算，项目施工合同鉴定，工程质量保质金预留比例等由县（区）政府与施工企业协商确定。资金拨付以最终项目决算审核为依据。', '5月27日上午，盘锦市现代农业发展中心主任武强同志带队一行五人到阜新彰武县学习考察旱改水项目建设相关工作的先进经验']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>44</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>本溪市机关事务管理局来我市考察学习</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2020-06-17</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2020_06/17_16/content-267206.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['6月17日，本溪市机关事务管理局党组书记、局长徐国星，国资委党委书记、主任白松，财政局副局长（二级调研员）耿伟，城投公司董事长张跃光一行来我市进行考察学习。通过采取座谈、调研的方式，重点围绕行政事业性资产管理经营、利用行政事业性资产融资工作、政府平台融资偿债工作、市级领导周转住房管理使用、市直行政事业单位物业管理、公共机构节能工作等方面的经验做法进行了考察学习。', '座谈会上，我市国资委、市财政局及我中心的领导，市建设投资公司、政通集团领导分别从本单位、本行业工作实际出发，就考察学习的各项重点内容交流了经验做法。我中心党组书记、主任魏旭阳介绍了我市充分运用标准化2.0的思维理念方法，在周转房管理、物业管理、公共机构节能等机关事务工作中取得的突出成绩。始终围绕事务支撑政务的职能作用，坚定不移地走在推广机关事务标准化2.0建设的道路上，以“建立标准化体系，推动机关事务高质量发展”为奋斗目标，用制定标准的工作方法开展工作，制定完善了《机关事务管理局标准化汇编》（2015——2020版），涵盖了机关事务管理工作的全领域。有效降低了管理成本，提高了工作质量。树立了机关事务管理品牌，打造了机关事务全国标杆。', '通过考察学习，本溪市机关事务管理局党组书记、局长徐国星一行对我中心在标准化方面超前的工作思路和取得的丰硕成果给予了高度评价，认为盘锦市直机关综合事务中心标准化2.0工作经验和取得的成绩值得全国机关事务管理系统学习借鉴，具有很好的推广意义。', '我们将以本溪市考察学习组来盘学习为契机，进一步贯彻落实党的十九大精神，坚持以习近平新时代中国特色社会主义思想为引领，坚持道路自信、理论自信、制度自信和文化自信，深入践行高标准严要求促服务的理念，牢牢把握实践标准、创新实干的精髓，矢志不渝地推动机关事务高质量发展。继续完善升级、推广标准化2.0，深入推进全域标准化，弘扬标准文化精神，不断推进机关事务治理体系和治理能力现代化。为我市经济社会全面发展提供强有力的事务支撑，积极开创机关事务管理工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>44</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>锦州市住房公积金管理中心王德宝主任一行人莅临盘锦公积金学习考察</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2020-10-29</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.pjgjj.com/2020_10/29_09/content-292985.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['锦州市住房公积金管理中心王德宝主任一行12人莅临盘锦公积金学习考察_部门会议_盘锦市住房公积金管理中心', '为学习盘锦公积金核心系统改造升级及“一网通办”经验，进一步提高锦州公积金中心信息化建设水平，10月20日锦州中心王德宝主任一行12人，莅临我中心学习考察。', '双方围绕开户缴存、提取、贷款、财务以及信息化进程等方面进行了交流。锦州中心同志听取了我中心关于信息化建设方面的介绍并参观了最新的系统操作演示，双方为协力开发完善利企、便民的公积金业务系统进行了一系列讨论，互相借鉴好的经验和做法。我中心党组书记、主任霍树学对锦州住房公积金管理中心一行的到来表示热烈欢迎，希望双方今后能继续开展多层次、更加深入的交流，取长补短，促进公积金事业迈上新的台阶。盘锦中心党组成员、副主任潘生武以及中心各部门负责同志出席了座谈交流会议。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>44</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>新疆维吾尔自治区食安办来盘考察创建国家食品安全城市工作</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2020-10-28</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://scjgj.panjin.gov.cn/2020_10/28_17/content-292913.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['新疆维吾尔自治区食安办来盘考察 创建国家食品安全城市工作_动态要闻_盘锦市市场监督管理局', '10月27日，新疆维吾尔自治区食品安全委员会办公室副主任（市场监管局副局长）翟少勇一行6人，来我市考察学习创建国家食品安全示范城市工作经验和做法。', '交流座谈会上，市市场监管局副局长齐绍斌向考察组介绍了我市创建国家食品安全城市工作开展情况、保障机制建设情况、创建中的亮点工作、创建遇到的难点问题和解决措施以及在食品安全监管过程中的实用、先进的经验和做法，并希望加强两地交流学习，互相学习借鉴食品安全监管先进的经验和做法，共同促进食品安全监管事业的发展。', '考察组实地观摩了鼎信大厨房和鼎信食品安全培训基地、盘锦新跃批发市场、辽东湾渔家小镇，深入了解了我市在食品生产企业监管、农产品源头管控、食品安全培训、旅游景区食品安全保障等方面的成功经验和做法。考察组对我市在夯实基层、创新监管方式、落实企业主体责任、加强食品保障能力等方面和监管中服务百姓，切实保障人民群众“舌尖上的安全”的做法给予了高度评价。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>44</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>盘锦与锦州两市交通运输领域协同发展迈出实质性步伐</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2020-05-29</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>https://jtysj.panjin.gov.cn/2020_05/29_15/content-243359.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['5月27日，盘锦市交通运输局党组书记、局长王宁带队赴锦州市学习考察，取长补短、共同协商、互动合作，携手推进盘锦与锦州两市在交通运输领域深度协同合作，加快形成优势互补高质量发展的交通运输布局。', '考察组一行先后来到大凌河张家漫水桥、锦州湾国际机场城市候机厅、锦州港等地，就公路建设、交通运输、港口协同合作方面现场进行了深入沟通协商。在大凌河张家漫水桥，就项目可行性等问题充分沟通了意见；在锦州港详细了解了港口布局规划和发展现状等情况，实地考察了锦州港粮食码头和锦州港与盘锦浩业集团合作输油管线项目、大型原油码头及罐区，并围绕两市港口错位发展进行了充分交流。', '考察结束后，两市交通运输局主要领导和相关部门负责同志进行了座谈交流，就两市交通运输领域互联互通、深度协作达成一致。公路建设方面，两市将共同争取将胡红线、仙甜线拓宽改造公路建设工程纳入“十四五”交通运输发展规划，积极向省交通运输厅争取大凌河张家漫水桥列入省“十四五”规划项目库，加快推进丹东线盘锦境内3.7公里低标准路段拓宽改造工程，积极推动京哈高速“光辉站”更名为“辽河口站”。道路运输方面，锦州市将协同我市加快推进锦州湾机场盘锦城市候机厅建设，开通盘锦至锦州湾机场快线。港口方面，两市将共同密切关注锦州港与浩业集团合作输油管线项目，协同做好项目支持和服务工作。同时，两市就发挥港口区位和物流优势，大力发展多式联运业务，优化港口资源配置，形成合力打造东北亚现代化港口与物流重要城市间协同发展的共识。智慧交通建设方面，两市将在“两客一危”数据互通、信息共享上进行充分合作，共同推进行业治理体系和治理能力现代化建设。', '两市在座谈交流中切实增强了加强合作、共谋发展的信心，对达成的交通运输领域协同合作事项，将制定具体实施方案，进一步明确时间表和路线图，确保各项工作落地见效，取得实质性进展。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>44</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>抚顺市友谊宾馆来我中心学习机关事务标准化工作先进经验</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2019-12-10</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2019_12/10_14/content-126931.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['抚顺市友谊宾馆来我中心学习机关事务标准化2.0工作先进经验_工作动态_盘锦市机关事务管理局', '12月10日，抚顺市友谊宾馆副总经理朱靖一行来到市直机关综合事务中心，学习考察市直机关综合事务中心在机关事务标准化2.0建设方面的成功经验和做法。', '在现场观摩过程中，抚顺市友谊宾馆副总经理朱靖一行先后来到辽东湾会议中心、1号职工食堂、市直机关党群服务中心、机关事务智慧管理平台参观学习，并对市直机关综合事务中心标准化2.0建设、机关食堂建设及物业管理等方面工作给予高度认可与赞许。', '在工作中，市直机关综合事务中心坚持先行先试、继承统筹、联动突破、层层递进，打出了机关事务标准化建设“组合拳”，形成了全员参与、全过程推进、全范围覆盖的标准化新格局，有效提升了机关事务管理保障服务的能力。以标准化2.0建设为抓手，不断创新工作思路，大力推进机关事务治理体系和治理能力现代化，充分发挥事务支撑政务的职能作用，将标准化2.0工作作为重点工作加以推进，组建工作机构，制定工作方案，明确工作任务，构建了机关事务标准体系，健全了机关事务标准实施监督体系，强化了机关事务标准化2.0工作运行体系，以标准化、规范化管理为手段，以提高服务质量为目的，树立机关事务管理品牌，打造优质创新服务形象。', '市直机关在综合事务中心全体干部职工表示，在今后的工作中，要以习近平新时代中国特色社会主义思想为指导，深入贯彻落实十九届四中全会和习近平总书记在中央政治局第十八次集体学习时的重要讲话精神，按照华北东北西北12省区市机关事务标准化工作现场会和全国税务系统标准化现场会精神，建立健全标准化管理体系，发挥标准化的主导、调节、约束、控制功能，不断打造完善机关事务标准化2.0升级版，为开创机关事务工作新局面作出应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>44</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>我市赴沈阳学习河流水污染防治工作先进经验</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2020-01-18</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://czj.panjin.gov.cn/2020_01/18_09/content-197079.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['近日，为打好打赢水污染防治攻坚战，确保2020年国考断面水质全面达标，我市派出环保考察学习组赴沈阳市生态环境局学习河流水污染防治工作先进经验。通过座谈会和实地调研等形式详细考察了2019年以来沈阳市国控断面水质大幅度改善的工作亮点及技术方案。', '考察组听取了2019年以来，沈阳市政府、市直相关部门和技术工程单位在河流水污染防治工作中的主要职责、工作成绩、工作做法和主要建设工程等先进经验，同时结合两地共性的问题，重点了解了城市支流河、排水干渠整治的经验、方法以及先进的工程和技术手段。', '考察组分别参观了苏家屯区红菱生活区污水处理设施运行项目和沈阳市南运河水系综合治理（原位）清淤工程。通过此次学习，盘锦市生态环境局和县区水环境管理同志拓宽了工作视野，学习了先进经验、借鉴了河流治污技术，提升了工作能力。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>44</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>盘锦市司法局到营口市司法局学习考察个人调解工作室建设情况</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2019-11-08</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://sfj.panjin.gov.cn/2019_11/08_16/content-54737.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['为发挥调解能手的引领示范作用，推动建立以个人命名的调解工作室，打造调解工作品牌和专业团队，提升调解工作的专业化、规范化水平。', '11月7日上午，由市司法局副局长王小松，带领市局公共法律服务管理科工作人员、盘山县司法局局长、各县区局分管人民调解工作的副局长和公共法律服务基层股股长等11人组成的学习考察组，赴营口市司法局对个人调解工作室建设情况进行了实地考察、深入学习、现场交流。', '学习考察小组在营口市司法局副局长宋德安、人民参与和促进法治工作科科长及科员的陪同下，分别参观了吕桂珍调解工作室和哈杰调解工作室。两个调解室的建立充分发挥了调解员“地熟人熟”的优势，以调解员的人格魅力和影响力，耐心倾听群众你说我诉，为群众排忧解难，止诉息争。通过人民调解员介绍在化解物业纠纷、家庭矛盾纠纷、邻里纠纷等方面案例，学习了如何有针对性地开展矛盾纠纷排查化解工作。', '参观结束后又进行了座谈交流，考察组对调解室的建立条件、经费来源、工作方法、案件来源等情况进行了详细了解，对营口市司法行政工作立足基层，符合实际的先进工作经验给予了高度赞扬。最后，双方就两地司法行政基层工作情况进行了深入交流，相互借鉴经验，形成有效互补。', '考察结束后，市局副局长王小松表示，营口市司法局高度重视基层司法行政工作和人民调解工作，在专业性、行业性的工作中有许多值得借鉴和总结的地方,深受启发，在下一步工作中将进一步解放思想，拓宽司法行政工作的思路，借鉴营口市司法行政的好经验、好做法，促进基层司法行政工作和人民调解工作更好开展。同时表示希望两地增强交流学习，促进两地司法行政工作再上台阶。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>44</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>广西壮族自治区防城港市机关后勤服务中心主任李俊美一行来我中心考察学习</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2019-08-22</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2019_08/22_11/content-126098.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['广西壮族自治区防城港市机关后勤服务中心主任李俊美一行来我中心考察学习_标准化建设_盘锦市机关事务管理局', '8月21日-23日，广西壮族自治区防城港市机关后勤服务中心主任李俊美一行13人来到盘锦市市直机关综合事务中心，学习考察我中心在机关事务标准化、智慧化、市场化等方面的先进经验和做法。', '在现场观摩过程中，防城港市机关后勤服务中心一行先后来到辽东湾会议中心、1号职工食堂、市直机关党群服务中心、机关事务智慧管理平台参观考察，并对市直机关综合事务中心标准化建设、机关食堂建设及管理等方面工作给予高度认可与赞许。', '在工作中，盘锦市市直机关综合事务中心坚持先行先试、继承统筹、联动突破、层层递进，打出了机关事务标准化建设“组合拳”，形成了全员参与、全过程推进、全范围覆盖的标准化新格局，有效提升了机关事务管理保障服务的能力。以标准化建设为抓手，不断创新工作思路，大力推进机关事务治理体系和治理能力现代化，将标准化工作作为重点工作加以推进，组建工作机构，制定工作方案，明确工作任务，构建了机关事务标准体系，健全了机关事务标准实施监督体系，强化了机关事务标准化工作运行体系，以标准化、规范化管理为手段，以提高服务质量为目的，树立机关事务管理品牌，打造优质创新服务形象。', '盘锦市市直机关综合事务中心将以广西壮族自治区防城港市机关后勤服务中心来我中心学习考察为契机，继续创新管理保障服务新模式，充分发挥事务支撑政务的职能作用，为全国机关事务标准化工作作出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>44</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>辽东湾新区赴营口港考察调研</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2019-08-21</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>https://ldwxq.panjin.gov.cn/2019_08/21_09/content-186564.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['为了充分发挥盘锦港作为辽东湾新区对外开放的龙头作用，新区党工委委员、管委会副主任梁竞文带队一行8人近期赴营口港学习考察。', '在鲅鱼圈港区，通过实地查看、听取情况介绍等方式，全面学习、了解了营口港建设规划、基础设施建设、集疏运体系、物流通道等相关经验。营口港近年来积极融入国家“一带一路”倡议，发展思路清、格局大，基础设施完备，集疏运体系健全，建立了纵横贯通东西和南北物流通道，为东北亚航运中心的建设提供了体系支撑，取得的成绩令人瞩目。目前货物吞吐量排名全国沿海港口前十位，资产规模在辽宁省属国有企业中排名第一。2018年完成货物吞吐量3亿吨，集装箱约600万标箱。在学习考察过程中，我们看到营口港的发展与其腹地经济、主导产业、港口基础设施建设等方面是密切相关的。纵观世界港口发展道路，未来发挥港口群体的整体优势将是港口支撑经济发展的必然要求，而港口群内部将形成各有特色、分工协作、优势互补的格局。那么结合辽宁港口资源整合，在辽宁港口群中找到盘锦港的独特优势及定位对于盘锦港的发展是至关重要的。', '下一步，盘锦港的发展要在特色上下工夫，挖掘腹地企业的需求，明确自己的优势和专长，在错位发展中突出分工协作，实现港口之间的互补。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>44</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>江西省上饶市机关事务管理局食堂管理负责人汪漆朋一行来我中心学习考察</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2019-08-13</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2019_08/13_14/content-126102.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['江西省上饶市机关事务管理局食堂管理负责人汪漆朋一行来我中心学习考察_标准化建设_盘锦市机关事务管理局', '到我中心学习考察，重点学习了盘锦市市直机关综合事务中心在机关事务管理和公务接待管理、标准化建设等方面的先进经验和做法。', '江西省上饶市机关事务管理局食堂管理负责人汪漆朋一行先后来到辽东湾翠霞湖宾馆、辽东湾会议中心、1号职工食堂、市直机关党群服务中心、机关事务智慧管理平台，学习考察标准化管理及功能使用红情况。在学习考察过程中，盘锦市市直机关综合事务中心领导详细介绍了在标准化建设过程中取得的成绩，特别是在食堂经营管理工作中的经验和做法。在实际工作中，盘锦市市直机关综合事务中心认真贯彻落实习近平新时代中国特色社会主义思想，始终围绕市委市政府中心工作，以“重实干、强执行、抓落实”为契机，以标准化建设为抓手，不断创新工作思路，大力推进机关事务治理体系和治理能力现代化。充分发挥事务支撑政务的职能作用，将标准化工作作为重点工作加以推进，组建工作机构，制定工作方案，明确工作任务，构建了机关事务标准体系，健全了机关事务标准实施监督体系，强化了机关事务标准化工作运行体系，以标准化、规范化管理为手段，以提高服务质量为目的，树立机关事务管理品牌，打造优质创新服务形象。通过不断制定、执行、完善，制定了具有可操作性的工作标准，形成了《机关事务管理局标准化汇编》（2015——2018版），涵盖了机关事务管理各项工作，夯实了机关事务标准化工作基础，在规范机关运行、提升服务保障质量、促进节约型机关建设，有效降低了管理成本，提高了工作效率。', '江西省上饶市机关事务管理局食堂管理负责人汪漆朋一行先后来到辽东湾翠霞湖宾馆、辽东湾会议中心、', '号职工食堂、市直机关党群服务中心、机关事务智慧管理平台，学习考察标准化管理及功能使用红情况。在学习考察过程中，盘锦市市直机关综合事务中心领导详细介绍了在标准化建设过程中取得的成绩，特别是在食堂经营管理工作中的经验和做法。在实际工作中，盘锦市市直机关综合事务中心认真贯彻落实习近平新时代中国特色社会主义思想，始终围绕市委市政府中心工作，以“重实干、强执行、抓落实”为契机，以标准化建设为抓手，不断创新工作思路，大力推进机关事务治理体系和治理能力现代化。充分发挥事务支撑政务的职能作用，将标准化工作作为重点工作加以推进，组建工作机构，制定工作方案，明确工作任务，构建了机关事务标准体系，健全了机关事务标准实施监督体系，强化了机关事务标准化工作运行体系，以标准化、规范化管理为手段，以提高服务质量为目的，树立机关事务管理品牌，打造优质创新服务形象。通过不断制定、执行、完善，制定了具有可操作性的工作标准，形成了《机关事务管理局标准化汇编》（', '版），涵盖了机关事务管理各项工作，夯实了机关事务标准化工作基础，在规范机关运行、提升服务保障质量、促进节约型机关建设，有效降低了管理成本，提高了工作效率。', '通过考察调研，江西省上饶市机关事务管理局食堂管理负责人汪漆朋一行对盘锦市市直机关综合事务中心在标准化方面超前的工作思路和取得的丰硕成果给予了高度评价，认为盘锦市市直机关综合事务中心在标准化方面取得的成绩值得全国机关事务管理系统学习借鉴，具有很好的推广意义。', '盘锦市市直机关综合事务中心将以江西省上饶市机关事务管理局食堂管理负责人汪漆朋一行来我中心学习考察为契机，继续创新管理保障服务新模式，充分发挥事务支撑政务的职能作用，为全国机关事务标准化工作作出应有贡献。', '本溪市桓仁满族自治县机关行政保障服务中心郭鑫义主任一行来我中心洽谈盘锦市机关事务标准化经验...']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>44</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>山东省东营市垦利区机关事务服务中心主任周健一行来我中心学习考察</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2019-07-30</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2019_07/30_16/content-126106.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['山东省东营市垦利区机关事务服务中心主任周健一行来我中心学习考察_标准化建设_盘锦市机关事务管理局', '7月30日，山东省东营市垦利区机关事务服务中心主任周健一行9人来到市直机关综合事务中心，学习考察市直机关综合事务中心在机关事务管理工作和标准化建设方面的成功经验和做法。', '在现场观摩过程中，山东省东营市垦利区机关事务服务中心主任周健一行9人先后来到辽东湾会议中心、1号职工食堂、市直机关党群服务中心、机关事务智慧管理平台参观考察，并对市直机关综合事务中心标准化建设、机关食堂建设及管理等方面工作给予高度认可与赞许。', '在工作中，市直机关综合事务中心坚持先行先试、继承统筹、联动突破、层层递进，打出了机关事务标准化建设“组合拳”，形成了全员参与、全过程推进、全范围覆盖的标准化新格局，有效提升了机关事务管理保障服务的能力。以标准化建设为抓手，不断创新工作思路，大力推进机关事务治理体系和治理能力现代化，充分发挥事务支撑政务的职能作用，将标准化工作作为重点工作加以推进，组建工作机构，制定工作方案，明确工作任务，构建了机关事务标准体系，健全了机关事务标准实施监督体系，强化了机关事务标准化工作运行体系，以标准化、规范化管理为手段，以提高服务质量为目的，树立机关事务管理品牌，打造优质创新服务形象。', '市直机关在综合事务中心全体干部职工表示，在今后的工作中，要以习近平新时代中国特色社会主义思想为指导，按照华北东北西北12省区市机关事务标准化工作现场会精神，不断完善标准化体系，发挥标准化的主导、调节、约束、控制功能，为开创机关事务工作新局面作出应有的贡献。', '研究协助国家机关事务管理局编写第一部教材《机关事务标准化理论与实务》会议服务标准内容...']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>44</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>通辽市机关事务管理局副局长赵国辉一行来我中心学习考察</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2019-07-17</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2019_07/17_16/content-125266.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['通辽市机关事务管理局副局长赵国辉一行来我中心学习考察_接待科_盘锦市机关事务管理局', '7月17日，通辽市机关事务管理局副局长赵国辉一行17人到我中心考察调研，重点调研了盘锦市市直机关综合事务中心在机关事务管理和公务接待管理、标准化建设等方面的先进经验和做法。', '通辽市机关事务管理局副局长赵国辉一行先后来到辽东湾会议中心、1号职工食堂、市直机关党群服务中心、机关事务智慧管理平台参观考察。在参观考察过程中，盘锦市市直机关综合事务中心领导详细介绍了在标准化建设过程中取得的成绩。在实际工作中，盘锦市市直机关综合事务中心认真贯彻落实习近平新时代中国特色社会主义思想，始终围绕市委市政府中心工作，以“重实干、强执行、抓落实”为契机，以标准化建设为抓手，不断创新工作思路，大力推进机关事务治理体系和治理能力现代化。充分发挥事务支撑政务的职能作用，将标准化工作作为重点工作加以推进，组建工作机构，制定工作方案，明确工作任务，构建了机关事务标准体系，健全了机关事务标准实施监督体系，强化了机关事务标准化工作运行体系，以标准化、规范化管理为手段，以提高服务质量为目的，树立机关事务管理品牌，打造优质创新服务形象。通过不断制定、执行、完善，制定了具有可操作性的工作标准，形成了《机关事务管理局标准化汇编》（2015——2018版），涵盖了机关事务管理各项工作，夯实了机关事务标准化工作基础，在规范机关运行、提升服务保障质量、促进节约型机关建设，有效降低了管理成本，提高了工作效率。', '通过考察调研，通辽市机关事务管理局副局长赵国辉一行对盘锦市市直机关综合事务中心在标准化方面超前的工作思路和取得的丰硕成果给予了高度评价，认为盘锦市市直机关综合事务中心在标准化方面取得的成绩值得全国机关事务管理系统学习借鉴，具有很好的推广意义。', '盘锦市市直机关综合事务中心干部职工表示，一定要以通辽市机关事务管理局副局长赵国辉一行来我中心参观考察为契机，通过不断创新管理保障服务新模式，充分发挥事务支撑政务的职能作用，为全国机关事务标准化工作作出应有贡献。', '山东省东营市垦利区机关事务服务中心来我市学习机关事务标准化2.0先进工作经验...']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>44</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>东营市机关事务管理局一行来我中心学习考察</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2020-11-03</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2020_11/03_17/content-293835.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['盘锦市市直机关综合事务中心自成立全国首个机关事务标准化培训实践基地暨全省首个标准化培训实践基地以来，已经为中科院、中国联通、盘锦市交警支队等国家和省、市相关部门开展了系统的标准化实践培训。11月3日，又迎来了东营市机关事务管理局党组书记、局长由立志一行。由立志局长一行此次来到我市，是带着机关事务存在的高成本、低效率的问题，带着对机关事务标准化体系建设的思考，带着对新时代机关事务保障管理效能如何提升的疑问，专门进行学习考察。', '在学习考察过程中，盘锦市市直机关综合事务中心党组书记、主任魏旭阳接待了由立志一行，带领由立志局长一行在辽东湾会议中心、1号食堂、市直机关党群服务中心、机关事务智慧管理平台、东风基地等处，现场参观盘锦市机关事务工作成果，充分展现我市在机关事务治理体系和治理能力现代化建设中的创新经验和工作方法，系统介绍我市标准化工作经验，得到了东营市的高度赞扬和充分肯定。', '在下午的座谈会上，盘锦市市直机关综合事务中心党组书记、主任魏旭阳以答疑的形式，对东营市机关事务管理局一行进行了更深层次标准化培训。东营市机关事务管理局各位同志从各自分管领域出发，围绕公共机构节能、公务接待、公务用车管理、业务档案管理、物业管理考核、资产管理等多个方面，分别提出十余项问题。就以上问题，魏旭阳主任一一给予解答，将理论联系实际，以盘锦机关事务标准化建设一路走来的生动案例，深入浅出地讲解了如何运用标准化解决各种工作难题，实现“降低成本、提高质量”的目标。针对提出的“标准怎么落实、如何见效”问题，魏旭阳主任指出，要想落得实，必须要做到“九个坚持”，只有坚持一切标准都源于实践，以问题为导向，谁的标准谁制定，才能真正好用管用实用，让大家都满意。在标准化建设过程中，我们也要坚持“以人为本”，让每个人都成为“制定者、执行者、受益者、传播者、守护者”，让大家通过标准化得到幸福感、收获感、喜悦感，才能真正“见效”。', '通过此次学习考察，东营市机关事务管理局一行对我中心在标准化方面超前的工作思路和取得的丰硕成果给予了高度评价，认为盘锦市直机关综合事务中心标准化2.0工作经验和标准文化建设成果值得全国机关事务管理系统学习借鉴。', '当前正值“十三五”收官之际，魏旭阳主任表示，盘锦市机关事务工作也要紧盯“标准化、智能化、市场化”的阶段目标，奋力完成“十三五”机关事务建设规划任务，巩固现有成果，高起点谋划“十四五”机关事务建设规划，以文化、创新为发展目标，以“体系化、数字化、品牌化”为新阶段发展方向，不断完善升级、推广标准化2.0，深入推进全域标准化，弘扬标准文化精神，推进机关事务治理体系和治理能力现代化，为全市实现“十四五”规划和二〇三五年远景目标贡献机关事务力量。', '激发党建活力 争创星级支部——市直机关综合事务中心机关党委召开星级党支部创建迎检工作推进会...']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>44</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>大连市机关事务管理局资产管理局副处长张智一行来我中心考察学习</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2019-06-27</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2019_06/27_14/content-125270.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['大连市机关事务管理局资产管理局副处长张智一行来我中心考察学习_接待科_盘锦市机关事务管理局', '6月26日-27日，大连市机关事务管理局资产管理处副处长张智一行到我中心考察学习，重点学习了盘锦市市直机关综合事务中心在机关事务管理和公务接待管理、标准化建设等方面的先进经验和做法。', '大连市机关事务管理局资产管理处副处长张智一行先后来到辽东湾会议中心、1号职工食堂、市直机关党群服务中心、机关事务智慧管理平台参观考察。在参观考察过程中，盘锦市市直机关综合事务中心领导详细介绍了盘锦市市直机关综合事务中心在标准化建设过程中取得的成绩。在实际工作中，盘锦市市直机关综合事务中心认真贯彻落实习近平新时代中国特色社会主义思想，始终围绕市委市政府中心工作，以“重实干、强执行、抓落实”为契机，以标准化建设为抓手，不断创新工作思路，大力推进机关事务治理体系和治理能力现代化，充分发挥事务支撑政务的职能作用，将标准化工作作为重点工作加以推进，组建工作机构，制定工作方案，明确工作任务，构建了机关事务标准体系，健全了机关事务标准实施监督体系，强化了机关事务标准化工作运行体系，以标准化、规范化管理为手段，以提高服务质量为目的，树立机关事务管理品牌，打造优质创新服务形象。通过不断制定、执行、完善，制定了具有可操作性的工作标准，形成了《机关事务管理局标准化汇编》（2015——2018版），涵盖了机关事务管理各项工作，夯实了机关事务标准化工作基础，在规范机关运行、提升服务保障质量、促进节约型机关建设，有效降低了管理成本，提高了工作效率。', '通过考察学习，大连市机关事务管理局资产管理处副处长张智一行对盘锦市市直机关综合事务中心在标准化方面超前的工作思路和取得的丰硕成果给予了高度评价，认为盘锦市市直机关综合事务中心在标准化方面取得的成绩值得全国机关事务管理系统学习借鉴，具有很好的推广意义。', '盘锦市市直机关综合事务中心干部职工表示，一定要以大连市机关事务管理局资产管理处副处长一行来我中心参观考察为契机，通过不断创新管理保障服务新模式，充分发挥事务支撑政务的职能作用，为全国机关事务标准化工作作出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>44</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>大连市机关事务管理局资产管理局副处长张智一行来我中心考察学习机关事务标准化先进工作经验</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2019-06-27</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2019_06/27_15/content-127278.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['大连市机关事务管理局资产管理局副处长张智一行来我中心考察学习机关事务标准化2.0先进工作经验_工作动态_盘锦市机关事务管理局', '大连市机关事务管理局资产管理局副处长张智一行来我中心考察学习机关事务标准化2.0先进工作经验', '6月26日-27日，大连市机关事务管理局资产管理局副处长张智一行到我中心学习，重点学习了盘锦市市直机关综合事务中心在机关事务管理和公务接待、标准化2.0建设等方面的先进经验和做法。', '大连市机关事务管理局资产管理局副处长张智一行先后来到辽东湾会议中心、1号职工食堂、市直机关党群服务中心、机关事务智慧管理平台，学习标准化管理及功能使用情况。在学习考察过程中，盘锦市市直机关综合事务中心主任魏旭阳详细介绍了在标准化2.0建设过程中取得的成绩。在实际工作中，盘锦市市直机关综合事务中心认真贯彻落实习近平新时代中国特色社会主义思想，始终围绕市委市政府中心工作，以“重实干、强执行、抓落实”为契机，以标准化建设为抓手，不断创新工作思路，大力推进机关事务治理体系和治理能力现代化。充分发挥事务支撑政务的职能作用，将标准化2.0作为重点工作加以推进，组建工作机构，制定工作方案，明确工作任务，构建了机关事务标准体系，健全了机关事务标准实施监督体系，强化了机关事务标准化工作运行体系，以标准化、规范化管理为手段，以提高服务质量为目的，树立机关事务管理品牌，打造优质创新服务形象。通过不断制定、执行、完善，制定了具有可操作性的工作标准，形成了《机关事务管理局标准化汇编》（2015——2018版），涵盖了机关事务管理各项工作，夯实了机关事务标准化工作基础，在规范机关运行、提升服务保障质量、促进节约型机关建设，有效降低了管理成本，提高了工作效率。', '通过学习，大连市机关事务管理局资产管理局副处长张智一行对盘锦市市直机关综合事务中心在标准化2.0方面超前的工作思路和取得的丰硕成果给予了高度评价，认为盘锦市市直机关综合事务中心在标准化2.0方面取得的成绩值得全国机关事务管理系统学习借鉴，具有很好的推广意义。', '盘锦市市直机关综合事务中心将以大连市机关事务管理局资产管理局副处长张智一行来我中心学习为契机，继续创新管理保障服务新模式，充分发挥事务支撑政务的职能作用，不断完善标准化2.0建设，为全国机关事务标准化工作作出应有贡献。', '国家机关事务管理局财务司副司长陈伟一行来盘开展财务成本统计和标准化建设调研工作...']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>44</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>吉林省白山市教育同仁到魏书生中学考察交流</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2019-05-21</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>https://jyj.panjin.gov.cn/2019_05/21_11/content-65040.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['5月20日上午，吉林省白山市教育局党组书记、局长韩玉春、副局长臧贻明一行11人在盘锦市教师进修学院院长张佳余的陪同下莅临魏书生中学，考察学习综合素质评价和课程体系建设实施的情况。魏书生中学党支部书记、校长吴献新陪同考察组参观了学校的“诗书升华”的主题校园走廊文化，观摩了“和谐家园”的班级文化和教研组文化展示，考察了名校长工作室的建设情况。在四楼会议室，吴献新校长就学校整体概况、综合素质评价、课程体系实施等方面作了汇报，详细介绍了学校利用“学生综合素质评价”操作系统对学生进行评价的方法，解释了学校开展的“学科拓展课程”和“个性成长课程”结构体系等问题。汇报后，双方就综合素质评价实施、课程体系建设的多项细节、过程问题进行了交流座谈。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>44</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>江西省上饶市机关事务管理局党组书记局长徐学军一行来我中心考察学习机关事务标准化先进工作经验</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2019-05-08</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://pjsjgswglj.com.cn/2019_05/08_14/content-127370.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['江西省上饶市机关事务管理局党组书记、局长徐学军一行来我中心考察学习机关事务标准化2.0先进工作经验_工作动态_盘锦市机关事务管理局', '江西省上饶市机关事务管理局党组书记、局长徐学军一行来我中心考察学习机关事务标准化2.0先进工作经验', '5月8日，江西省上饶市机关事务管理局党组书记、局长徐学军一行来到市直机关综合事务中心，参观考察市直机关综合事务中心在机关事务标准化2.0建设方面的成功经验和做法。', '在现场观摩过程中，江西省上饶市机关事务管理局党组书记、局长徐学军一行先后来到辽东湾会议中心、1号职工食堂、市直机关党群服务中心、机关事务智慧管理平台参观学习，并对市直机关综合事务中心标准化2.0建设、机关食堂建设及物业管理等方面工作给予高度认可与赞许。', '在工作中，市直机关综合事务中心坚持先行先试、继承统筹、联动突破、层层递进，打出了机关事务标准化建设“组合拳”，形成了全员参与、全过程推进、全范围覆盖的标准化新格局，有效提升了机关事务管理保障服务的能力。以标准化2.0建设为抓手，不断创新工作思路，大力推进机关事务治理体系和治理能力现代化，充分发挥事务支撑政务的职能作用，将标准化2.0工作作为重点工作加以推进，组建工作机构，制定工作方案，明确工作任务，构建了机关事务标准体系，健全了机关事务标准实施监督体系，强化了机关事务标准化2.0工作运行体系，以标准化、规范化管理为手段，以提高服务质量为目的，树立机关事务管理品牌，打造优质创新服务形象。', '市直机关在综合事务中心全体干部职工表示，在今后的工作中，要以习近平新时代中国特色社会主义思想为指导，按照华北东北西北12省区市机关事务标准化工作现场会精神，不断完善标准化体系，发挥标准化的主导、调节、约束、控制功能，不断完善机关事务标准化2.0，为开创机关事务工作新局面作出应有的贡献。', '组织召开“2019年清华大学化学系--盘锦市联合博士生学术论坛暨岛津奖学金论文评审会”接待工作专...']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>44</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>盘锦乌鲁木齐共话综合素质评价深化教育改革谱新篇</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2019-05-13</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>https://jyj.panjin.gov.cn/2019_05/13_08/content-65050.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['5月9日，乌鲁木齐市教育局副局长张德宏带领市教育研究中心和市教育信息服务中心负责人、学校领导及骨干教师一行7人，对盘锦市初中学生综合素质评价工作进行考察学习。盘锦市教育局局长宋全明，盘锦市教育事业发展服务中心主任刘玉军等领导陪同考察。', '宋全明指出，盘锦市做为辽宁省中考改革唯一的试点城市，综合素质评价是其重要内容之一。综合素质评价是培育学生良好品行、发展个性特长、促进学生全面发展的重要手段，是深入推进素质教育的一项重要教育方法。2018年5月至今，盘锦市通过统一建设综合素质评价信息化平台，全市61所初级中学在日常工作中应用平台，初步形成了科学、可持续发展的综合素质评价工作体系。该评价体系已经充分融入到各所学校的实际办学工作中，在提升学校管理质量、培养学生良好的行为习惯、提升教师应用信息化教学能力、引导学生家长的家庭教育等方面均起到了显著的促进作用。在全市综合素质评价工作开展稳定和成熟之后，盘锦市会将学生初中阶段综合素质评价成果与中考成绩相结合，共同用于全市高中招生录取工作，改变 “唯分数论”的教育评价现状，达成深化考试招生制度改革的工作目标。', '他强调综合素质评价是一项需要长远规划和长期推进的工作，并从四个方面介绍了我市综合素质评价工作经验：一、综合素质评价工作要符合国家教育改革的工作要求，遵守全面发展的素质教育原则，更要与本市的教育实际相融合凸显本地教育特色，更好的根植于一方教育土壤，能够更长久更高效地为本地教育服务，实现办人民群众满意教育的根本目标。二、强调综合素质评价工作需要建设一个完善并且能够与当地教育发展和教育需求同步，能够持续优化的信息化平台，同时平台功能设计要符合教育原理并且操作方法便捷、简单、易习得，便于教师、学生、家长的日常使用。三、市教育局在全市范围内做好工作规划和部署，指导各校建立本校的综合素质评价工作组织构架，组织全市范围校长、学校平台管理员、普通教师、学生、家长的各层用户的使用培训，帮助各个评价角色掌握平台操作技能。四、要有专业、持续的学校服务体系，派遣专业人员对各所学校实际工作进行持续指导和培训，帮助各所学校将综合素质评价工作融入办学和教学实际，形成综合素质评价校园文化氛围，进而带动全体师生和学生家长形成综合素质评价工作习惯。交流现场盘锦市教育局基础教育科综合素质评价工作负责人刘孝谭向来访人员详细介绍了盘锦市综合素质评价工作规划、平台建设、服务体系和学校实践等实际工作内容，并现场解答了来访人员具体工作问题。', '张德宏副局长介绍了新疆乌鲁木齐教育的基本情况，双方围绕如何深入推进高中招生制度改革、如何建设综合素质评价信息化平台、如何形成具有本地教育特色的综合素质评价工作体系进行了深入、热烈的讨论和交流。宋全明局长认真听取了张德宏副局长对于新疆乌鲁木齐相关工作的介绍，充分肯定了新疆乌鲁木齐的教育改革成效，希望盘锦与乌鲁木齐市双向学习，不断加强交流。', '交流会后，刘玉军陪同考察组一行，深入到盘锦市魏书生中学、双台子区第三初级中学以市、区、校三级汇报形式展开进一步的考察和交流。盘锦市魏书生中学吴献新校长、双台子区第三初级中学宝海民校长都深入介绍了本校综合素质评价工作实践经验并展示了所取得的阶段性成果，这两所学校的案例给考察人员留下了深刻的印象。', '通过本次交流，乌鲁木齐和盘锦两市在教育领域的沟通更加紧密，达到了互相学习，互相借鉴的良好效果，也展示了盘锦市教育友好、合作、开拓、创新的工作面貌。在今后的工作中双方将在综合素质评价、教育测评、教育质量提升、教育资源均衡等方面深入沟通交流，共同为两地深入推进招生考试制度改革、全面实行素质教育、大力促进学生的全面发展而携手努力！']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>44</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>葫芦岛市卫健委来双台子区考察学习健康促进区创建工作</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2019-04-11</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.pjgjj.com/2019_04/11_14/content-202827.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['葫芦岛市卫健委来双台子区考察学习健康促进区创建工作_动态要闻_盘锦市住房公积金管理中心', '通过观看创建健康促进区相关宣传片，现场观摩双台子区社会福利院、双河社区、生态岛等健康场所，实地翻阅创建资料，并就相关问题进行互动交流，葫芦岛市卫健委考察组表示，双台子区创建健康促进区工作的谋篇布局、统筹引领、政策聚合、资源整合、社会融合等方面的举措以及健康促进医院、健康促进机关、健康促进企业、健康社区（村）、健康家庭评选和健康支持性环境等方面打造的先进经验和典型做法，为葫芦岛市提供了可复制、可借鉴的经验。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>44</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>营口市生态环境局来我市考察学习农村小型污水处理设施建设相关工作</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2019-07-08</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://sthjj.panjin.gov.cn/2019_07/08_15/content-225385.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['营口市生态环境局来我市考察学习农村小型污水处理设施建设相关工作_农村环保_盘锦市生态环境局', '为切实做好农村生活污水处理工作，全面改善提升农村生态环境质量，打造宜居生产生活环境，7月6日，营口市环境保护局、营口市财政局、盖州市副市长田东宝、盖州市生态环境分局、鲅鱼圈区生态环境分局相关领导及工作人员、各乡镇村主要负责人一行20人先后来到我市大洼区榆树街道曾家村、田庄台镇新村考察学习农村小型污水处理设施建设和运行情况。市生态环境局局长李勇、副局长李可伟、大洼区环保局局长何玉中、市生态环境局农业科科长刘勇进一道陪同。市生态环境局工作人员向考察组介绍了我市农村小型污水处理设施建设运营情况、工作原理、技术模式、建设内容及项目建设工作经验。', '通过考察学习，营口市考察组的各位领导和工作人员均对我市农村小型污水处理设施工作给予了充分肯定，表示感受颇深，盘锦市的小型污水处理设施建设工作将为营口市农村生活收集处理工作提供良好的借鉴，对下一步开展农村污水处理设施建设工作的开展扩宽思路、积累经验，具有重要的现实意义。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>44</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>葫芦岛市卫健委来到盘锦市双台子区考察学习健康促进区创建工作</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2019-04-11</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>https://wjw.panjin.gov.cn/2019_04/11_10/content-52801.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['葫芦岛市卫健委来到盘锦市双台子区考察学习健康促进区创建工作_动态要闻_盘锦市卫生健康委员会', '通过观看创建健康促进区相关宣传片，现场观摩双台子区社会福利院、双河社区、生态岛等健康场所，实地翻阅创建资料，并就相关问题进行互动交流，葫芦岛市卫健委考察组表示，双台子区创建健康促进区工作的谋篇布局、统筹引领、政策聚合、资源整合、社会融合等方面的举措以及健康促进医院、健康促进机关、健康促进企业、健康社区（村）、健康家庭评选和健康支持性环境等方面打造的先进经验和典型做法，为葫芦岛市提供了可复制、可借鉴的经验。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>44</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>借鉴浙江成功经验推进盘锦全域旅游</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2019-04-23</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>https://wlgdj.panjin.gov.cn/2019_04/23_10/content-192839.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['5月23—27日，省旅发委主要领导率领部分市旅发委负责人赴浙江省杭州、丽水和绍兴三市进行学习考察。我们通过与三地旅游主管部门和相关行业企业代表深入交流，对杭州西溪湿地、法云安曼民宿、开元旅游集团、大连海昌杭州项目和丽水古堰画乡小镇、绍兴酷玩小镇及巧克力小镇等有代表性的核心旅游产品进行了实地察看，深刻感受到了三座城市不断促进区域旅游投资和消费，加快旅游产业转型升级，旅游业呈现出独特吸引力、综合竞争力和国际影响力，经过多年实践形成了一系列切实有效、系统成熟的统筹旅游发展的思路套路和道路。他们的经验和做法为我们提供了有益的借鉴。', '（一）牢牢把握各自特色优势，从总体规划布局入手，以国际化视野明确目标定位，是三地统筹推进全域旅游发展关键前提', '杭州早在2001年，就已出台《城市总体规划（2001——2020年）》，明确了“现代化国际化风景旅游城市”定位，实施“旅游西进”战略和旅游国际化战略，并将其作为全市经济社会发展五大战略之一。自此，杭州市从西湖的“一枝独秀”，发展为“三江五湖一山一河一溪三址”的全面开发开放，拉开了城市大旅游发展框架。十二五末期，《杭州市十大产业发展总体规划》进一步明确了旅游“战略性支柱产业”“现代服务业龙头产业”地位。丽水2007年编制《丽水市旅游发展规划（2008—2020）》，提出进一步把旅游业作为支柱产业来培育，2011年提出用十年左右时间把旅游业打造成第一产业；2013年把旅游业定位为“第一支柱产业”。当前，丽水市以浙江省首个旅游综合改革试验区为契机，把生态旅游业打造成为全市第一战略性支柱产业，进而使其成为丽水经济社会发展的第一推动力。绍兴2007年完成《绍兴市旅游发展总体规划》的修编工作，提出“把绍兴建设成为国际性文化与商务旅游目的地、中国最具文化特色的旅游目的地和浙江旅游核心动力圈的副中心城市”的目标。', '（二）充分发挥政府引导优势，加大政策供给力度，立足差异化明晰发展思路，是三地统筹推进全域旅游发展的中心任务', '杭州将旅游意识、旅游产业、旅游品牌、旅游开发建设和旅游管理巧妙地融入到城市建设以及文化传承和发展中，将景点和城市空间融合，以城市综合体带动，加速文化和城市商业的融合，最终形成了独具特色的城市、文化、旅游一体化的旅游发展模式。首先是2002年“免费西湖”的旅游创新政策，每年免了门票5000万元，催生杭州市旅游总收入1200亿元，翻了两番，开始了从“观光城市”到“休闲城市”的产业升级；紧接着抓住城市水系，做好水文章，构建了整个城市的休闲旅游骨架；再到如今打造“旅游综合体”，发展城市的核心圈层结构，整体形成了多核心的集商务、观光休闲、生活宜居的国际化大都市。短短的10年间，杭州旅游发展经历了三次提档升级，实现了质的飞跃。丽水大力推进旅游发展全域化综合改革，按照生态旅游全域化、旅游服务全程化、休闲旅游智慧化、乡村环境景观化、城乡生活品质化的“五化”发展思路，围绕观念革新、体制改革、功能分区、项目建设、要素保障、产业融合、品牌打造、基础配套、部门联动、队伍建设10个方面重点突破，积极通过旅游项目之间的串联、整合，改变低、小、散局面，全力打造城市中的5A景区、5A景区中的城市。绍兴先后提出“建设经济强市、文化名市、旅游大市”“江南古城看绍兴、江南风情看绍兴、江南文化看绍兴”等理念，强调要像抓工业经济一样抓旅游发展，像支持工业项目一样支持旅游项目，以千年古城、文化名城、江南水城作为旅游发展的品牌，其旅游规划、开发建设和市场营销均紧紧围绕这三个中心来实施。', '杭州将旅游意识、旅游产业、旅游品牌、旅游开发建设和旅游管理巧妙地融入到城市建设以及文化传承和发展中，将景点和城市空间融合，以城市综合体带动，加速文化和城市商业的融合，最终形成了独具特色的城市、文化、旅游一体化的旅游发展模式。首先是', '（三）紧紧抓住生态资源优势，大力开发旅游新业态新项目，积极开发完善休闲度假旅游产品，是三地统筹推进全域旅游发展的持久动力', '一是抓旅游项目带动，产品供给体系加快构建。杭州以加强旅游综合体规划建设为重点，加快推进二区五县（市）等重大旅游项目建设。发挥好“旅游西进”专项资金“四两拨千斤”作用，加大对休闲基地、旅游风情小镇和重大旅游休闲项目规划建设的投入扶持。加快十大特色潜力行业发展，发展“休闲经济”“夜间经济”项目。丽水2016年全市投资过亿元的在建涉旅项目33个,总投资470多亿元，重点推进了莲都古堰画乡景区、龙泉山旅游区、遂昌汤显祖戏曲小镇等重大项目建设，推进了13个特色街区项目、9条城市休闲绿道建设，城市旅游景观设施得到提升。绍兴计划2017年50个重点旅游项目投资总额近700亿元，重点发展休闲度假、养生养老、特色民宿以及通用航空、时尚酷玩、房车营地、户外骑游等新型业态和项目，营造全社会、全要素、全方位参与的格局和氛围，促成绍兴游客向绍兴留客转变。', '一是抓旅游项目带动，产品供给体系加快构建。杭州以加强旅游综合体规划建设为重点，加快推进二区五县（市）等重大旅游项目建设。发挥好', '二是抓旅游产品建设，旅游经济规模稳步扩大。杭州利用沿杭徽、“三江两岸”两条重要交通通道和旅游通道，深化打造“名城—名湖—名山”黄金旅游线，加快形成两条黄金旅游走廊。同时，整合区、县（市）旅游资源，串珠成链，推出以杭州核心景区为龙头的特色旅游线路，形成优势互补的复合型、特色化旅游产品，将资源优势转化为产品优势。丽水进一步加大龙头景区建设，争创国家5A级旅游景区，全市新增3A景区6个。打造10个乡村旅游集聚区，初步创建成省级旅游风情小镇。新增省级运动休闲线路、省级果蔬采摘基地、省级中医院药养生基地、省工业旅游示范点、省老年旅游示范基地12个。绍兴重点打造以古城、兰亭为核心的10个旅游功能集聚区，以酷玩小镇为重点的30个旅游特色（风情）小镇，以鲁迅故里沈园为重点的40个3A级以上旅游景区，以古越文化、水乡风情为代表的25条特色游线。同时，以“绍兴历史文化名城、会稽山国家森林公园、鉴湖国家湿地公园”三个国字号金字招牌为依托，以“古道、水道、绿道”三道建设为轴线，构建全域旅游的平台框架和产品体系。', '三是抓旅游宣传营销，旅游形象品牌不断提升。杭州成立网络营销领导小组，加快推进网络营销步伐。拓展与德国途易、日本JTB和BBC、CNN等国际重要旅游企业、主流媒体的战略合作。举办“百名欧洲旅行商聚杭州”活动，深化与远程市场旅游企业战略合作。以“接轨上海”为核心，充分利用上海国际化平台拓展杭州旅游的国际宣传。丽水在上海、南京等高铁沿线重点城市开展旅游推介活动，开拓高铁沿线地区客源市场。组织参加第八届中国国际旅游商品博览会等展会活动，承办“中国（长三角）高铁旅游联盟”成立大会、丽水（上海）生态旅游推介会等活动。以传统的发布广告、推介会、画册宣传、旅行社踩线等营销手段为基础，以网络、微媒等“互联网+”新媒体营销为支撑，全方位开展森林氧吧游、水系滨湖游、传统村落游等16大类特色主题旅游产品宣传推介活动。绍兴以江浙沪为中心，以日韩和台湾市场为重点，组织参与15场境内外促销活动，全力组织“美景、美宿、美食、美购”旅游特卖会。组织举办全国旅行商大会，参与全域旅游招商洽谈会。策划设计旅游主题活动，植入绍兴旅游特色元素，让游客体验“老绍兴 醉江南”的独特魅力。', '三是抓旅游宣传营销，旅游形象品牌不断提升。杭州成立网络营销领导小组，加快推进网络营销步伐。拓展与德国途易、日本', '随着我国经济社会发展进入新常态，全域旅游已经成为国民经济战略性支柱产业，是经济社会发展的“加速器”、生态文明建设的“催化剂”、对外合作交流的“压舱石”。新形势下推进全域旅游发展，意义重大深远。作为率先提出实施全域旅游战略的杭州、丽水、绍兴三地，特别是作为创建国家全域旅游示范区、省级旅游综合改革试验区的丽水，在推进全域旅游方面进行了有益尝试，在全域旅游体制机制创新方面做出了重大改革创新，值得认真学习和借鉴。盘锦作为国家级生态旅游示范区和辽宁省首批国家全域旅游示范区创建城市，市委市政府把全域旅游发展作为建设国际化中等发达城市的核心任务和关键工作之一，制定出台了《盘锦市关于加快推进全域旅游发展的实施意见》以及实施方案，可以说目前全市推动全域旅游发展的思路布局清晰、目标任务明确、政策措施具体。只要我们牢牢抓住建设国际化中等发达城市这条主线，坚持国际理念、站上国家平台、对标先进地区、立足盘锦实际，认真学习借鉴杭州、丽水、绍兴等地经验，把加快全域旅游发展放在更加突出的战略位置，着眼全局、统筹推进、落到实处、见到成效，就一定能够动员全市上下聚焦聚力聚智发展全域旅游，将盘锦打造成国际化世界级生态休闲旅游目的地，为把我市建设成为国际化中等发达城市提供重要支撑。', '随着我国经济社会发展进入新常态，全域旅游已经成为国民经济战略性支柱产业，是经济社会发展的', '一、深刻认识规划引领是全域旅游发展的首要前提，建设“魅力盘锦”世界生态休闲旅游目的地', '我们要在全市聚焦“五个转变”、实现“两个创建”，从旅游资源市向旅游强市跨越的关键阶段，不断加强和改进旅游规划工作，切实强化和突出规划先行引领。', '一是谋划全域。全市规划4-5个旅游功能区，充分发挥争创5A级旅游区和具有显著潜力的优质旅游区的带动作用，将优质旅游区作为旅游功能区核心，整合周边旅游资源重点县区的旅游业发展要素，形成点线面的旅游产业发展格局，培育特色鲜明的产业集群，对接明确的目标市场，组织主体功能清晰的区域旅游综合体，形成旅游业空间特色组织，建设旅游业特色功能板块，推动全域旅游发展。', '二是方式创新。建议在市政府2000万元旅游资金中，划拨300万元作为旅游规划编制基金，编制符合盘锦旅游产业定位的旅游规划，面向全世界招商选商，由投资企业建设运营，并返还旅游规划费用。在我市全域旅游规划统领下，不断完善各县区经济区子规划，用规划撬动重点项目、旅游特色小镇等发展。从产业布局和产业链条闭合的角度，对全市旅游资源可盘活的闲置资产，由市政府现行委托招标。', '三是“多规合一”。以旅游业发展为主要目标和核心关注点，以项目为载体，以旅游区为重点，筛选出重点旅游投资项目，建立分类的旅游项目库，确定旅游功能区，确定主体功能，确定区域内主攻方向，协同城乡发展、土地利用、环境保护等公共管理导向的规划，整合交通设施等公共基础设施规划，融合工业、农业等产业发展规划，分别分类实施，实现全域旅游示范工作顺利推进，达到全域旅游示范区考核指标要求。', '我们要牢固树立“生态优先、绿色发展”“红滩绿苇也是金山银山”的新发展理念，打好生态资源这张牌，将生态优势转化为发展优势，走出一条资源型城市发展全域旅游的新路子。一是建好生态旅游核心“吸引物”。重点加快红海滩廊道创建国家5A级旅游景区步伐，聘请专业机构对红海滩廊道进行总体规划定位，建议将景区的主要出入口（接官厅大门、二界沟大门）移至赵圈河镇、二界沟镇外围，通过水路行船、陆路公交等手段延展游览红海滩的路程及时间长度，丰富可观赏性，将红海滩变成我市核心景区，打造成为旅游度假区。积极支持天沐温泉、红海滩沁温泉、广厦艺术街创建国家4A级旅游景区，新增和提升一批3A级旅游景区。培育和创建金帛海滩爱情主题小镇、乡伴田园稻艺文化小镇、二界沟渔雁小镇和鼎翔白鹭旅游小镇等一批省级旅游风情小镇和旅游特色小镇。加快形成5A景区、4A景区和旅游特色小镇多层次协同推进格局，以旅游特色小镇建设推动生态旅游产业发展。二是打好景区提升“攻坚战”。发挥各类涉旅政策、专项资金作用，重点提升一批特色主题景区集群，实现“六个一”，即一批度假主题产品、一批文化体验产品、一批户外休闲产品、一批研学教育基地、一批智慧旅游体验产品、一套景区标识系统。三是算好旅游项目“一本帐”。坚持以旅游特色小镇、旅游风情小镇、旅游度假区、高等级景区为投资主阵地，推动旅游项目招商和落地。按照建成、在建、拟建和未建资源四大类进行汇总统计，推动项目整体调度。重点加快推进大洼区温泉项目、辽东湾新区二界沟渔村红滩古寺项目、荣兴长白风情街、荣兴古驿项目临街商网建设、兴隆台区上亿广场士林不夜城项目、蓝天城项目、玉圭园项目和双台子区辽河湿地公园开发改造项目。盘活左岸、水榭春城、江南风情园、大洼黄金珠宝城、兴隆台区东方银座等项目，转化为旅游资源、旅游产品。', '我们要以农工文商与旅等深度融合作为深入实施“旅游+”战略的突破口，探索农业旅游发展新途径、打造工业、服务业旅游发展新业态、提升新兴产业发展新局面，融合和延伸产业链条，撬动我市旅游大发展。', '一是“旅游+农业”。借力盘锦宜居乡村建设，做深“以农助旅、以旅富农、旅游惠民”文章，促进农业产业与旅游产业相融合，促进农业园区与旅游景区相融合，将各农区、景区“连成线、串成链、结成网”，形成一道道、一片片盘锦乡村风景。比如，打造“十大农庄、十大采摘园、十大垂钓园”休闲农业品牌，发展认养农业，做京津冀后院“大菜园”，狠抓全市食品安全工程，发展首都央企、高校总部认养和食品供应基地，倒推旅游产业发展。', '二是“旅游+工业”。不断推动工业资源向旅游资源延伸，鼓励以发展工业旅游促进产业资源优化配置，推动“盘锦制造”与“盘锦旅游”的融合发展，争创省级工业旅游示范基地。比如，利用油田废弃厂矿、井钻，盘活工业旅游资源，打造海上石油装备游览平台，发展石油主题工业游，实现盘锦工业旅游零突破。', '三是“旅游+文体”。挖掘地域文化全力打造1—2场以“印象辽河口”为主题的大型室外全景演艺产品，填补文化旅游产品空白。推进文化创意产业发展，创新运动休闲体验，推动旅游业与文体产业融合发展。比如，包装打造“中国国际金芦花节”“红动北京、炫彩盘锦”国际青少年文化交流月等国际性文化活动。依托“辽河国际艺术区、辽河口稻艺文化园、红海滩马拉松”三大文体产品优势，渗透到旅游业各个环节，增强盘锦旅游的独特性和吸引力。', '四是“旅游+商贸”。充分发挥盘锦区位优势，紧紧抓住辽东湾新区建设和万达、大商、兴隆等核心商贸区建设的机遇，大力发展商贸会展与休闲购物旅游，打造辽东湾重要商贸会展基地和一站式休闲购物基地。比如，充分释放17亿文旅基金的作用，鼓励采用PPP方式，进行招商引资，以政府+资源+企业的模式，把资源变资产、把资产变资本，拓展融资渠道，引导产业发展。', '五是“旅游+民宿”。持续推进民宿产业“百村万床”工程，简化办理手续程序，降低门槛，加大信贷投放力度。市县（区）财政要设立民宿产业发展专项资金，鼓励支持民宿产业公司化、集群化、标准化发展。推出“认养民宿”项目，对民宿进行“挂单”销售。打造“养老”民宿，推出短期养老型民宿，提供医疗、住宿、餐饮、陪伴等服务。将温泉民宿、稻田民宿、谷仓民宿等打造成为盘锦特色国际化城市代表符号。', '六是“旅游+特色小镇”。建设“反季节旅游”度假基地，打造特色旅游专业村，如酒吧村、书画村、国学村等。通过旅游吸引物提升、旅游景观系统提升、旅游服务体系提升、管理运行模式改进等措施，引导盘锦特色旅游小镇走向规模化、市场化、品牌化。比如，加快金帛海滩爱情主题小镇、二界沟渔雁文化小镇等建设，尽快实现“十个一”要求：一个游客服务中心、一个休闲娱乐康体场所、一个文化互动展示场所、一条骑行绿道（健身步道）、一套环卫系统、一套标识系统、一套信息宣传系统、一组户外休闲运动项目、一个旅游购物点、一个民俗文化节庆活动。同时引进国际知名管理公司推动全市旅游特色小镇形成产业支撑。', '四、深刻认识基础设施建设是全域旅游发展的有力支撑，构建“便捷盘锦”旅游公共服务体系', '我们要按照旅游两个“六要素”要求，加强旅游公共服务体系建设，促进旅游配套全面升级，给游客舒心、舒畅、舒服的旅游环境体验。', '一是推动城旅一体化。在继续大力完善旅游住宿、餐饮场所、旅游厕所等旅游公共设施配套的基础上，重点弥补旅游购物短板，打造盘锦北站高铁旅游服务中心、盘锦站旅游休闲中心、田家购物小镇及兴隆大厦、万达、大商、义乌商品城等一批星级旅游购物场所，逐步形成居游共融的城市旅游公共服务配套格局。按照城旅融合“六个一批”要求，提升一批旅游集散中心、一批特色街区（历史、购物、美食及综合体）、一批主题型酒店、一批城市休闲绿道、一批城市景观设施（公共标识、商业标识、岗亭、垃圾箱、公卫等）、一批文明旅游志愿者。', '一是推动城旅一体化。在继续大力完善旅游住宿、餐饮场所、旅游厕所等旅游公共设施配套的基础上，重点弥补旅游购物短板，打造盘锦北站高铁旅游服务中心、盘锦站旅游休闲中心、田家购物小镇及兴隆大厦、万达、大商、义乌商品城等一批星级旅游购物场所，逐步形成居游共融的城市旅游公共服务配套格局。按照城旅融合', '二是推动旅游交通立体化。落实《盘锦市关于促进交通运输与旅游融合发展的若干意见》文件精神，依托城乡公交一体化建设，将全市4个枢纽站、26个中转站及各乡村公交站场改造成旅游集散服务中心或接待中心，全面改善旅游交通环境，提高全域旅游产品的可进入性和通达性。开通景区环线车，实现“零换乘”。运行抵达红海滩、鼎翔、绕阳湖、广厦艺术街、稻艺文化园等主要景区的环线旅游大巴。开通青岩寺—绕阳湖—红海滩城际旅游班车。布局一批自驾车风景道和一批慢行绿道建设，推动旅游与交通深度融合发展，打通最后一公里的旅游服务功能。', '二是推动旅游交通立体化。落实《盘锦市关于促进交通运输与旅游融合发展的若干意见》文件精神，依托城乡公交一体化建设，将全市', '三是推动旅游厕所革命化。持续开展“厕所革命”，加快全域性旅游厕所建设和第三卫生间建设，推动改造提升一批、新建扩建一批，实现城乡合理布局、沿线重点设置、景区全面提升，达到国内先进水平。', '四是推动智慧旅游系统化。运用互联网思维整合各类旅游产业要素，更加高效地服务全域旅游，提升传统旅游业态，加快培育新业态，推进旅游管理智慧化系统和旅游服务智慧化系统两大系统建设，实现“一机游盘锦”。', '四是推动智慧旅游系统化。运用互联网思维整合各类旅游产业要素，更加高效地服务全域旅游，提升传统旅游业态，加快培育新业态，推进旅游管理智慧化系统和旅游服务智慧化系统两大系统建设，实现', '我们要围绕将盘锦打造成旅游标准化城市的目标要求，深入实施《旅游法》《辽宁省旅游条例》，加快推进依法治旅，优化旅游消费环境，促进盘锦旅游业提质升档、转型升级。', '一是推进全行业标准化提升。通过实施“旅游标准提升年”活动，制定《盘锦旅游业标准化行动计划》，对涉及重点景区、星级饭店、主要旅游住宿设施等相关企业提出建立完善国际双语化标识系统的具体任务，以旅游标准化建设为抓手，提升盘锦旅游国际化形象。', '二是完善全域旅游管理机制。按照全域旅游创建要求，全面建立“1+3+N”旅游综合管理模式，建立多部门联席会议制度和全域旅游统计体系，提高旅游综合管理效率。全面加强景区环境综合整治，建立完善严格的动态管理机制。', '三是开展服务质量提升专项行动。着力提升旅游景区、旅行社、星级饭店服务质量，全面梳理和落实旅游综合市场监管责任清单，着力打造放心景区，规范导游队伍，全面提升旅游服务水平。', '四是建立旅游联合执法体系。成立旅游法庭、旅游警察和旅游工商分局，加快建立联合执法体系，推动建立旅游争议处理基金，重大旅游投诉先行垫资赔付，保护旅游企业和旅游者的合法权益。', '我们要树立全域旅游人人都是旅游形象的理念，着力研究全域旅游政府、企业、居民、游客“四位一体”营销模式，形成全民营销合力，扩大“红滩盘锦”旅游品牌知名度和影响力。', '一是重点实施“2019相聚盘锦”营销。以2019年北京至盘锦高铁开通为契机，自觉融入京津冀一体化和环渤海经济圈，全面对接旅游资源，全面拓展客源市场，全面构建旅游设施国际化、旅游体验特色化发展的产品体系，全面提升盘锦城市旅游影响力，将盘锦打造成为京津冀地区的城市会客厅、旅游“大花园”和国际化区域旅游集散中心、旅游目的地城市。', '二是突出旅游目的地营销。全年在中央电视台综合频道、财经频道及新闻频道黄金时段播发盘锦城市旅游宣传片；充分利用央视及国家级媒体专题、专栏宣传推介盘锦。与', '三是扩大重点客源地精准营销。以推动旅游消费为目标，联合相关部门（如农业展销与旅游推介融合）、各景区景点等，统一策划、统一包装、统一宣传，形成宣传营销的整体效果。坚持线上线下联动，通过新浪、搜狐、网易及携程、途牛等网站，开展网络营销、事件营销、达人营销，全方位、立体化加大旅游宣传力度。充分利用智慧旅游平台，开展分层次的旅游市场大数据应用研究，加大旅游“线上”精准营销投入力度，重点推进京津冀、长三角等重点客源市场、高铁通达节点城市等网络广告定向投放和宣传，策划“线上”旅游优惠促销等主题活动，大力销售盘锦旅游产品，强化盘锦旅游市场营销推广的针对性和精准性。', '三是扩大重点客源地精准营销。以推动旅游消费为目标，联合相关部门（如农业展销与旅游推介融合）、各景区景点等，统一策划、统一包装、统一宣传，形成宣传营销的整体效果。坚持线上线下联动，通过新浪、搜狐、网易及携程、途牛等网站，开展网络营销、事件营销、达人营销，全方位、立体化加大旅游宣传力度。充分利用智慧旅游平台，开展分层次的旅游市场大数据应用研究，加大旅游', '四是开展盘锦旅游主题产品营销。继续整合媒体、行业组织、企业等资源，充分利用智慧旅游平台、微信、主流网站等各种渠道，全方位宣传推荐“水天一色、文景合一”的旅游重点景区集群、“产业集聚、风情别样”的旅游小镇集群和“遗产丰富、乡愁浓郁”的旅游民宿集群产品，宣传推介具有田园风光特征的休闲度假产品、具有渔雁文化特质的旅游体验产品和具有辽河口生态品质的特色旅游地商品。激发全体市民共同推动旅游产业发展的热情，“人人都是导游员”“人人争当东道主”，邀请海内外游客畅游盘锦，让“红滩盘锦”品牌走出辽宁、走向全国和世界。', '四是开展盘锦旅游主题产品营销。继续整合媒体、行业组织、企业等资源，充分利用智慧旅游平台、微信、主流网站等各种渠道，全方位宣传推荐']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>44</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>寻找新路闯市场我为盘锦狠货做代言兴海街道开展乡村产业振兴主题活动</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2019-03-17</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.xlt.gov.cn/2019_03/17_16/content-149155.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['寻找新路闯市场 我为盘锦“狠货”做代言——兴海街道开展乡村产业振兴主题活动_兴隆广角_兴隆台区人民政府', '为全面贯彻落实乡村产业振兴战略，带领更多农民致富寻找新路，近日,兴海街道组织驻街人大代表、驻村第一书记、各村“两委”成员、致富带头人和种殖（植）大户等相关人员共计30余人，驱车200多公里，到沈阳学习考察小龙虾养殖项目。 学习考察结束后，又组织大家去辽宁工业展览馆农产品博览会，开展“街道第一书记闯市场，我为盘锦‘狠货’做代言”主题活动，为本地农产品宣传推广助力。各村第一书记身披绶带，帮助盘锦特产商户促销，捕捉市场信息，掌握农民需求，感受会展经济，为深入做好本职工作蓄积动力。 通过此次活动，极大地激发了人大代表，村“两委”班子、致富带头人、种养殖（植）大户带头创业致富的热情，开拓了视野，为全面落实区委、区政府关于进一步加强农村产业振兴的安排部署夯实了基础。（兴海街道办事处 审稿人：刘刚 发稿人：刘杨杨）']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>44</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>市政建设集团金帛公司组织员工外出考察学习</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2019-03-25</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://gzw.panjin.gov.cn/2019_03/25_14/content-210727.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['为学习借鉴行业内相关企业文化建设、组织管理工程定额等方面的经验和做法，切实提高金帛公司职工业务技能和管理水平。3月14日，公司行政事务部组织部门代表7人赴沈阳鑫汇交通进行实地考察学习。', '到达沈阳鑫汇，首先部门代表深入企业基层单位参观企业生产车间，就产品生产的全过程进行实地参观学习，然后听鑫汇公司总经理讲解企业管理方法及绩效考核相关办法，详细了解该公司工作亮点、特色及企业文化和发展历程。', '行程结束后，大家纷纷表示，通过考察学习，在比较中看到了不足，学到了经验，要把好做法、好经验带回单位，联系工作实际严格对标，解决日常工作中遇到的实际问题，推动公司绩效考核及定额工作的有序开展。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>44</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>盘锦国投集团投资工作成效显著初步打造形成以基金为主的新型投资平台</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2018-11-05</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>https://gzw.panjin.gov.cn/2018_11/05_16/content-211095.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['盘锦国投集团投资工作成效显著 初步打造形成以基金为主的新型投资平台_企业之窗_盘锦市国有资产监督管理委员会', '盘锦国投集团自成立以来，积极利用基金投资方式为我市创业创新和产业升级提供资金支持，形成了民间资本为主、国有资本参与、市场化运行的基金投资管理模式，获得了省内同行业认可，近年来已接待了抚顺、铁岭、朝阳等多市考察学习。2018年盘锦国投集团在成功运作盘锦智能制造创业投资基金经验的基础上，又先后新设立了红海滩股权投资基金、芯蓝股权投资基金，并顺利完成首批项目投资，当年新增投资到位资金1.749亿元，促进了一批有示范作用的科技型、创新型和成长型中小企业健康发展；同时，赛伯乐科技创新发展基金、双创孵化投资基金、债转股基金等设立工作正在抓紧推进，基金投资覆盖领域正在有序扩大。', '盘锦国投集团自成立以来，积极利用基金投资方式为我市创业创新和产业升级提供资金支持，形成了民间资本为主、国有资本参与、市场化运行的基金投资管理模式，获得了省内同行业认可，近年来已接待了抚顺、铁岭、朝阳等多市考察学习。', '在积极发挥基金投资引导作用的同时，盘锦国投集团还不断创新投资方式和投资渠道，2018年成功参与大唐融合新三板定向增发，作为前十大股东，占股4.24%；完成了盘锦首例市场化债转股，通过债权转股权，占股盘锦禹王化纤有限公司18.79%。这为我市国企参与民营企业和央企上市公司发展探索了新路。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>44</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>盘锦律师赴中国辽宁自贸试验区营口片区考察学习</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2018-12-25</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>https://sfj.panjin.gov.cn/2018_12/25_09/content-55125.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['为深入了解中国（辽宁）自贸试验区营口片区的实际情况，以应对盘锦未来的自贸区建设，为盘锦的自贸区提供优质的法律服务，学习自贸区律所优秀的管理经验及为自贸区提供法律服务的模式， 11月27日，盘锦市司法局、律师协会组织带领协会自贸区专门委员会成员来到中国（辽宁）自由贸易试验区营口片区考察学习。 辽宁睿智（营口自贸区）律师事务所郭大华主任在经验交流会介绍了本所为自贸区提供法律服务的经验及做法：从为自贸区管委会提供政府法律服务；为自贸区入驻企业提供企业综合法律服务、开展自贸区业务法律研究三方面介绍了相关经验，并就提升自贸区业务法律服务水平的人才储备、知识储备等畅谈了感想和体会。使考察人员受益非浅。 侯德生会长表达了盘锦律师将会学习辽宁睿智（营口自贸区）律师事务所优秀的管理经验、服务经验，走专业化、国际化道路的目标，并寄语希望以本次参观调研活动为契机，进一步加强盘营两市律师的协同与合作，共同为自贸区建设提供法律保障。', '全国律师行业党委深入学习贯彻习近平总书记在庆祝改革开放40周年大会上的重要讲话精神研究部署律...']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>44</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>葫芦岛打渔山经济开发区前来学习非公党建创新经验</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2018-09-30</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://gxq.panjin.gov.cn/2018_09/30_17/content-218953.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['葫芦岛打渔山经济开发区前来学习非公党建创新经验_动态要闻_盘锦高新技术产业开发区管理委员会', '9月30日上午，葫芦岛打渔山经济开发区学习考察组一行6人前来高新区参观考察，观摩学习高新区非公党建创新经验，并现场进行互动交流。高新区党工委专职副书记刘伟、区委组织部副部长吴安良陪同。 考察组实地参观了“企业社区”综合服务中心，了解了园区党建模式的创新经验。在便企服务中心，参观人员被充满现代感的设计和高效便捷的服务所吸引；在党员积分超市、心理咨询室等功能分区，参观人员被形式多样、内容丰富的党建活动所感染；在党群活动中心，参观人员听取了“企业社区”党建工作的情况介绍，并观看了《高新区“非公党建”创新记》…… 参观人员一边参观，一边与刘伟书记进行交流，详细学习高新区在丰富党建活动载体、开展党群活动、增强党员凝聚力等方面的先进经验。 考察人员纷纷表示，高新区非公党建工作特色明显、载体丰富、措施得力，探索出了值得学习的成功经验，还表示会将学到的经验、做法带回去，充分发挥党组织在职工群众中的政治核心作用和对企业发展的政治引领作用，促进企业又好又快发展。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>44</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>四川宜宾市委组织部参观考察高新区非公党建</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2018-09-30</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://gxq.panjin.gov.cn/2018_09/30_17/content-218959.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['四川宜宾市委组织部参观考察高新区非公党建_动态要闻_盘锦高新技术产业开发区管理委员会', '9月28日下午，四川宜宾市委组织部学习考察组一行15人到高新区调研非公有制企业党建工作。区委常委、组织部长赵军，高新区党工委专职副书记刘伟陪同。 考察组一行首先参观了辽宁中蓝电子科技有限公司的党员活动中心、生产车间和产品展示厅，认真听取了企业负责人关于党建工作和生产经营情况的介绍，详细了解了企业党员人数、党员活动开展等情况。考察组高度评价了园区党建引领高新企业发展、推动新兴产业不断创新，对独具特色的产业园区党建工作新模式连连称赞。', '随后，考察组参观了高新区“企业社区”便企服务中心和党群活动中心，在便企服务中心，参观人员对设计规划新颖、功能分区齐全、服务设施完善的人性化服务大厅赞不绝口。考察组一行又听取了“企业社区”党委“12345”工作体系和运行模式，了解了高新区在丰富党建活动载体、开展党群活动、增强党员凝聚力等方面的创新方法，考察组对“企业社区”党委勇于探索、善于创新的理念和实践给予了高度评价。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>44</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>像吸铁石一样把党员群众凝聚在一起兴隆台区加强基层党组织建设工作纪实</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2018-07-26</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.xlt.gov.cn/2018_07/26_16/content-153247.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['像吸铁石一样把党员群众凝聚在一起——兴隆台区加强基层党组织建设工作纪实_头条_兴隆台区人民政府', '2018年4月17日，朝阳市龙城区一行36人的考察团来到兴隆台区，对这里的基层党建工作进行考察学习；陆续，吉林延吉市、铁岭银州区、丹东凤城市等地考察团过来学习考察。兴隆台区党建工作一时间蜚声省内外，成为各地学习借鉴的焦点。在新形势新任务面前，兴隆台区是如何扎扎实实做好党建工作的，日前，记者进行了深入探访。', '5月11日下午，陕汽金玺党支部党群活动中心会议室内座无虚席，239名企业党员和职工代表聆听了一堂生动深刻的十九大精神宣讲党课，新时期宣传干部楷模周恩义同志为园区企业党员和职工讲了“新时代职工讲习所”第一课。会场不时响起掌声，气氛十分热烈。', '打造新时代党员群众讲习所，是兴隆台区推动党员群众深入开展学习的有效形式。在惠宾街道党工委，打造了“新时代农民讲习所”，抓好面向农村党员群众的讲习；在振兴街道党工委，打造了“新时代居民讲习所”，抓好面向城区居民的讲习；在高新区党工委，打造了“新时代职工讲习所”，抓好面向非公企业、社会组织和高新区的讲习；在区教育局（油教中心）党委，打造了“新时代青少年讲习所”，抓好面向中小学校的讲习。仅2018年上半年，全区五大领域通过平台共发布学习活动信息19495条。区委组织部副部长吴安良介绍说：“我们以新时代党员群众讲习所为依托，全面强化教育管理，通过学习教育，把党员和群众牢牢地凝聚在一起。”', '“带着主题进行理论知识学习、走基层实地摸查、与专家学者对话、外出考察交流，切实破解难题，形成高质量调研报告。”丰富区委理论学习中心组学习形式和内容，让学习更有针对性、更贴近实际，是兴隆台区强化学习教育的另一突出特色。2017年，区委中心组成员围绕区域发展重点问题开展大学习大讨论，撰写各类题材调研报告28篇，从不同角度、不同视角回答了当前兴隆台区面临的主要问题。', '在区委宣传部，记者看到了已经集结成册的理论文集《理论热点面对面——兴隆视点》，红白相间的封面设计，格外引人注目。“《兴隆视点》是2017年区委中心组学习研讨的重要成果，中心组成员结合‘五大理念’‘四个着力’‘三个推进’部署要求，结合经济社会发展实践撰写理论文章，回答了城区建设中的一系列问题以及干部群众关心的热点难点问题。”区委宣传部国教办主任董静介绍说。', '在兴隆台区，理论宣讲独具特色，别具一格。“理论变成家常话，党的理论进万家”“周恩义宣讲队”“大型文艺宣讲演出”等创新式理论宣讲活动开展得有声有色，群众们都说，如今党的理论不那么深奥了，她和我们的生活密切相连，理论政策听明白了，我们就更有信心、更有盼头了。目前，110支周恩义宣讲队共有宣讲员1000人，2018年上半年，围绕全国“两会”精神、《新时代面对面》开展宣讲244场，受众4300余人；各党委、党工委收集文艺作品39个，开展大型文艺宣讲演出2场，受众千余人，3个单位、7名个人被推荐为市级理论宣讲先进集体和个人。', '“大静有话说”是兴隆台区理论宣传的又一载体，即在微信平台通过图文并茂的形式通俗易懂地解读党的理论政策，老百姓十分欢迎，每期的阅读量都超千次。此外，快闪宣讲队、科级干部培训班、“专家讲堂”等多种形式齐头并进，理论宣传教育遍地开花，硕果满枝。', '“‘火车跑得快，全靠车头带。’基层党建工作水平的高低，很大程度决定于有一个什么样的社区党组织书记、有一个什么样的街道党工委书记。”4月26日，区委书记老颜武随机调研生态园、测井、金河三个社区时这样讲到。“要通过加强对街道社区党组织书记的领导，加强党性教育和业务培训，让基层党组织的工作作风、战斗力进一步强起来，全区党建整体工作才能够产生抓纲带目的效果，党的各项政策措施才能够深入贯彻落实。”', '为充分发挥党员领导干部的示范带动作用，兴隆台区深入开展了“头雁工程”，从全区116位社区（村）书记中选出23位基层党组织书记“领头雁”，释放比学赶超的“雁阵效应”，全面提升党组织书记的能力水平。据吴安良介绍，“在机关争当服务先锋、在社区争当奉献先锋、在农村争当致富先锋、在企业争当领航先锋、在学校争当育人先锋，‘兴隆先锋工程’已经在全区全面铺开。今年，我们按照‘政治好、作风硬、能力强、敢担当、有潜力’标准，又选派11名科级干部到村挂职任第一书记，着力壮大农村集体经济，巩固党在基层的执政根基。”', '在振兴街道设计院社区，这里集中制作了党员门户牌发放到党员家中，以党员家庭为主体，社区107名党员主动戴党徽亮身份，挂门牌，叫响“向我看齐”的口号，激发了党员的荣誉感和责任感。自活动开展之日起，每名党员都根据自己的能力特长向党组织提出志愿服务项目：为孤寡老人拆洗被褥、为有急事的街坊邻里免费出车、为老人免费理发等等，党员们用实际行动诠释了先锋的内涵。社区党员郑红说：“共产党员亮牌示范，让我能够发挥余热，我觉得很光荣。”', '兴隆街道锦祥社区，在工作实践中探索出了“三步”法为民服务品牌，“听百姓说事、为百姓办事、请百姓评事”已在这个社区广泛展开。社区设置了评论箱，开通热线电话，畅通民声通道，采取“背靠背”听评；召开民主评议会，对党组织为居民办事和党员先锋作用等情况进行“面对面”谈评；张贴公示栏，对办理解决情况进行公示，征求群众对处理结果的满意度评价，让群众参评。通过评议活动，社区的一些“老大难”问题逐步得到解决。针对收废品的小贩随意进出小区大声吆喝、小区傍晚广场舞声音过大、私家车乱停乱放、楼顶漏水、路面损坏、供暖不达标、绿化被破坏等问题，社区组建了“民意配送服务队”，在社区“一站式”服务大厅开设“民意配送服务窗口”，建立民意诉求直通车配送体系，截止目前，为群众解决最困难最忧虑最急迫的实际问题70多件，为居民群众提供10大项80余小项的便民服务。', '“‘金杯银杯不如老百姓的口碑’，我们服务群众‘三步’法，步步都有群众参与其中，真正实现了社区发展依靠群众、为了群众，从群众来、到群众中去的群众路线。活动开展以来，增强了党在居民群众中的影响力和吸引力，老百姓更愿意与我们说心里话了，他们对我们更信任、更信服了。”锦祥社区主任赵立冬说。', '“‘一街一品’‘一社（村）一品’服务品牌，拉近了党群干群关系，为解决‘服务群众最后一公里’问题提供有益借鉴。”吴安良说。', '把党组织建到网格，是兴隆台区的发明创造。党组织与网格融为一体、共同发力，不仅使党的基层组织更加健全完善，而且壮大了队伍，增加了力量。', '一段时间以来，兴隆台区结合创新社会治理“1+8”改革，面向全区598个责任网格，组建349个网格党支部和249个网格党小组，配套运行“社区大党委”包社区、网格党支部（党小组）包楼院、党员包困难户的“网格三包”机制，并按照属地管理原则，将驻社区单位在职党员临时编进网格党组织中，结合特长设定服务项目和岗位，通过开展“认领微心愿”、“在职党员进社区”等党日活动，有效地将社区党组织服务的“神经末梢”延伸到户、触及到人。目前，全区4050名在职党员到社区报到，为居民解决问题万余件。', '在惠宾街道记者看到，“失独家庭”刘阿姨因身体原因，遇到办理慢性病报销的事就发愁，生态园社区第5网格员杨洋知情后，第一时间前去帮助办理；康桥社区陈贤老人家里燃气泄漏，需换三通，第11网格员侯井岳放下求助电话，拿着工具迅速赶到现场查看、买料，及时将燃气管线安装好。 “我们街道积极探索网格化党建工作机制，通过‘一网格一支部’、‘一网格一小组’等形式，推动党组织覆盖到基层社会治理的‘末梢神经’，党员服务获得了社区居民的普遍欢迎。”惠宾街道党工委书记梁红介绍说。', '“把支部建在家门口、把服务送到家门口、把矛盾化解在家门口”是惠宾街道康桥社区的创新党建模式经验。这个社区运用“党建+网格”新模式，将辖区13个网格整合成3个网格党支部，下设6个网格党小组，确定1名党员为党小组责任人，并将“两长四员”（楼栋长、党小组长、网格员、调解员、在职党员、物业服务员）纳入网格中，开展“组团式”服务，形成“一人负责，多人协同”的网格体系；精心打造了以党建、家园、法治、国学、科普、广场“六大文化”为主要内容的社区“党群文化大院”，满足群众多元文化需求；实施“议事会”协商，社区牵头定期召开由11家大党委共建成员单位组成的红色联盟工作联席会议，通过议事协商，解决辖区内群众关注的热点、难点问题。社区居民王成国说：“住在康桥社区我感到很幸福，社区不仅帮我们解决各种困难，而且还组织各种活动，我每天都过得很充实，在这里住，北京、上海也不换呐。”', '“千里波涛滚滚来，雪花飞向钓鱼台。”党组织吸引作用的不断增强，为兴隆台区基层党建积累了生机，带来的活力，在这里，“磁石型”党组织正在形成、壮大。(宣传部)']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>44</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>承德市运输管理处来盘考察学习农村交通物流发展工作</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2018-07-23</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>https://jtysj.panjin.gov.cn/2018_07/23_10/content-123519.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['近日，承德市运输管理处一行11人来盘考察学习农村交通物流发展工作，重点就“多站合一”及电子商务与快递物流协同发展建设工作进行沟通交流。盘锦市运输管理处相关领导及工作人员陪同考察。 考察组来到盘锦金社裕农物流配送中心、石庙子盘锦金社裕农乡村百货超市进行实地考察，听取了企业负责人对企业发展现状、先进经验做法、突出成绩及下步发展计划的介绍。随后，在座谈会上，盘锦市运输管理处详细介绍了盘锦农村交通物流发展工作情况，并围绕农村物流发展建设的新做法、好经验进行讨论交流。 通过考察学习，承德市运输管理处对盘锦农村交通物流发展工作给予肯定，并表示要借鉴盘锦的经验做法，结合承德市实际，进一步完善相关工作内容，同时，希望两市运管部门保持良好联系，共促行业发展。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>44</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>凌海市环保局到我市组织开展农村小型污水处理设施建设考察学习党务活动</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2018-07-03</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>https://sthjj.panjin.gov.cn/2018_07/03_14/content-225412.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['凌海市环保局到我市组织开展农村小型污水处理设施建设考察学习党务活动_农村环保_盘锦市生态环境局', '为切实做好农村生活污水处理工作，全面改善提升农村生态环境质量，打造宜居生产生活环境，', '，由凌海市环保局副局长党邵元带队，凌海市双阳镇、白台子镇共81人党员干部及相关工作人员到我市大洼区榆树街道曾家村考察学习农村小型污水处理设施建设和运行情况。市环保局相关工作人员介绍了我市农村小型污水处理设施建设现状及农村小型污水处理设施的工作原理、技术模式、建设内容及项目建设工作经验。', '考察学习，凌海市的各位领导和党员均对我市农村小型污水处理设施工作给予了充分肯定，表示感受颇深，盘锦市的小型污水处理设施建设工作将为凌海市农村生活收集处理工作提供良好的借鉴，对下一步开展农村污水处理设施建设工作的开展扩宽思路、积累经验，具有重要的现实意义。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>44</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>凌海市环保局来我市考察学习农村小型污水处理设施建设相关工作</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2018-07-03</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>https://sthjj.panjin.gov.cn/2018_07/03_14/content-223996.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['凌海市环保局来我市考察学习农村小型污水处理设施建设相关工作_动态要闻_盘锦市生态环境局', '为切实做好农村生活污水处理工作，全面改善提升农村生态环境质量，打造宜居生产生活环境，', '，由凌海市环保局副局长党邵元带队，凌海市双阳镇、白台子镇共81人党员干部及相关工作人员到我市大洼区榆树街道曾家村考察学习农村小型污水处理设施建设和运行情况。市环保局相关工作人员介绍了我市农村小型污水处理设施建设现状及农村小型污水处理设施的工作原理、技术模式、建设内容及项目建设工作经验。', '考察学习，凌海市的各位领导和党员均对我市农村小型污水处理设施工作给予了充分肯定，表示感受颇深，盘锦市的小型污水处理设施建设工作将为凌海市农村生活收集处理工作提供良好的借鉴，对下一步开展农村污水处理设施建设工作的开展扩宽思路、积累经验，具有重要的现实意义。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>44</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>市农委组织赴海城市学习考察农村产权交易市场建设和农村集体资产股份权能改革工作方面经验</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2016-07-25</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>https://nyncj.panjin.gov.cn/2016_07/25_06/content-220264.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['市农委组织赴海城市学习考察农村产权交易市场建设和农村集体资产股份权能改革工作方面经验_动态要闻_盘锦市农业农村局', '市农委组织赴海城市学习考察农村产权交易市场建设和农村集体资产股份权能改革工作方面经验', '近日，由市农委党组成员张德龙同志带队、各区县农经局一行10人，赴海城市学习考察农村产权交易市场建设和农村集体资产股份权能改革工作方面经验。', '海城市农村产权流转交易市场中心主任潘本涛同志做了《探索农村改革 打造改革试点新模式》的经验介绍。', '海城市农村经济局局长温洪波同志详细介绍了海城市农村集体资产股份权能改革的工作经验，农村集体资产股份制权能改革是完善农村集体经济组织，探索政经分设的组织形式，让农村的资源进行有效地流通和运转，激发农村沉睡着的资源潜能。并提供了海城市做为国家级县级试点市对我市农村产权流转交易市场建设过程中的一些前瞻性意见和建议。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>44</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>平阴县市场监督管理局到兴隆台区局学习考察</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2016-12-05</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.xlt.gov.cn/2016_12/05_15/content-150219.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['近日，平阴县市场监督管理局副局长王守平一行来到兴隆台区市场监督管理局就市场监管工作的做法和经验进行学习考察。', '在区市场监督管理局会议室，区市场监督管理局长张维君对平阴县市场监督管理局一行表示欢迎，并介绍了区市场监督管理局机构人员设置、检验设备和执法装备、开展主要工作等情况。平阴县局和兴隆台区局的相关执法人员还就在质量技术监督案件案源查办、办案技巧、风险防控、投诉举报的处理及行政处罚信息公开等方面进行了深入探讨与交流。', '2015年，兴隆台区市场监督管理局获得了全国质量监督检验检疫工作先进单位，取得了较好的效果，得到了社会各界的一致好评，受到了上级领导的高度肯定和大力推介。（区市场监督管理局）']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>44</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>丹东考察团来我区取经园区非公党建</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2016-08-11</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.xlt.gov.cn/2016_08/11_08/content-152676.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['8月10日上午，丹东市委组织部组织市内各县区、园区党务工作者一行50人到盘锦高新区考察学习园区非公党建创新经验，进行党建互动交流。', '高新区针对辖区内企业类型较多、情况复杂，党组织凝聚力不强、党员作用发挥不明显、党建工作标准难以统一等问题，借鉴社区党建工作模式，建立了“企业社区”，构建以大党委为核心的“1+N”党建模式，实现了党建与发展的高度融合。高新区的党建创新经验在国家级媒体刊登推广。', '考察团成员一路观看，一路拍照留存，对高新区把党建工作融入企业经济发展的各个层面，凝聚各方智慧和力量、积极探索园区非公党建的新途径、新方法等做法留下了深刻的印象，对解说员的生动讲解赞叹不已。考察团一行认为高新区的产业定位准确，发展思路清晰，党建措施得力，工作亮点纷呈，在产业园区发展及非公企业党建方面探索出了值得学习的成功经验，并希望在今后的工作中，双方能相互支持，相互学习，共同推动党建事业更好更快发展。', '之后，考察团一行在高新区党建活动室上了一堂以“听党话、跟党走，干字精神铸丰碑”为主题的情景互动党课，向高新区非公企业党员宣讲毛丰美的感人事迹，号召党员学习、践行毛丰美“干”字精神，以实干促振兴。', '市委组织部副部长尤涛、非公党建科科长于喜奎，区委常委、组织部长赵军,高新区党工委副书记刘伟陪同考察。（宣传部）', '省委学习贯彻习近平总书记“七一”重要讲话精神“五进”宣讲专场报告会走进兴隆台区...', '区长陈宝库调研全区落实市委“1+8”文件精神创新社会治理加强基层建设工作推进情况...']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>44</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>丹东考察团来盘取经高新区非公党建</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2016-08-12</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>https://gxq.panjin.gov.cn/2016_08/12_17/content-219507.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['丹东考察团来盘 “取经”高新区非公党建_动态要闻_盘锦高新技术产业开发区管理委员会', '8月10日上午，丹东市委组织部组织市内各县区、园区党务工作者一行50人到盘锦高新区考察学习园区非公党建创新经验，进行党建互动交流。 高新区针对辖区内企业类型较多、情况复杂，党组织凝聚力不强、党员作用发挥不明显、党建工作标准难以统一等问题，借鉴社区党建工作模式，建立了“企业社区”，构建以大党委为核心的“1+N”党建模式，实现了党建与发展的高度融合。高新区的党建创新经验在国家级媒体刊登推广。', '考察团成员一路观看，一路拍照留存，对高新区把党建工作融入企业经济发展的各个层面，凝聚各方智慧和力量、积极探索园区非公党建的新途径、新方法等做法留下了深刻的印象，对解说员的生动讲解赞叹不已。考察团一行认为高新区的产业定位准确，发展思路清晰，党建措施得力，工作亮点纷呈，在产业园区发展及非公企业党建方面探索出了值得学习的成功经验，并希望在今后的工作中，双方能相互支持，相互学习，共同推动党建事业更好更快发展。 之后，考察团一行在高新区党建活动室上了一堂以“听党话、跟党走，干字精神铸丰碑”为主题的情景互动党课，向高新区非公企业党员宣讲毛丰美的感人事迹，号召党员学习、践行毛丰美“干”字精神，以实干促振兴。 市委组织部副部长尤涛、非公党建科科长于喜奎，区委常委、组织部长赵军,高新区党工委副书记刘伟陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>44</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>盘山县年新型职业农民培育学员外出考察学习</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2016-10-19</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>https://nyncj.panjin.gov.cn/2016_10/19_10/content-220024.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['每到一个考察点，学员们都认真听取了当地相关负责人及专家对其生产、种植防疫、合作社的发展经验、管理经验等方面的详细讲解。部分学员也就自己生产中遇到的实际难点以及其感兴趣的的话题与专家、管理者进行了咨询与探讨,互动,学习场面热烈。在本次的外出考察中，学员们通过边参观，边思考，边交流，边学习，开阔了眼界，增长了见识，增强了新型职业农民干事创业的能力与信心。学员们也纷纷表示，本次外出考察真的没有白来，学到了本地没有的经验，充实了学员的头脑，为以后的生产经营提供了新思路。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>44</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>学习毛丰美实干促振兴市机关幼儿园实地考察学习毛丰美先进事迹</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2016-07-05</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>https://jyj.panjin.gov.cn/2016_07/05_20/content-66212.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['学习毛丰美 实干促振兴——市机关幼儿园实地考察学习毛丰美先进事迹_动态要闻_盘锦市教育局', '按照“两学一做”学习教育的安排部署，7月3日，市机关幼儿园党支部组织党员同志赴凤城市大梨树村实地参观学习，感受大梨树村原党支部书记毛丰美带领群众给大梨树村带来的变化，学习他苦干、实干加巧干的“干”字精神。', '党员们观看了毛丰美同志先进事迹主题宣传片《丰碑》，详细了解了大梨树村发展变化的过程，参观了毛丰美先进事迹陈列馆及“干”字广场，深入实地，切身体验到毛丰美带头践行的“干”字精神的含义——“苦干”，弯大腰，流大汗；“实干”，重规律，讲实效；“巧干”，讲科学，闯市场。考察学习中，大家被毛丰美信念坚定、对党忠诚的政治品格，牢记宗旨、心系群众的为民情怀，淡泊名利、清正廉洁的高尚情操深深打动；被毛丰美敢于担当、攻坚克难的实干精神折服。', '在“干”字广场，全体党员庄严地举起右拳，面向党旗，重温入党誓词。面对广场上大大的“干”字碑，大家纷纷表示，要向毛丰美同志学习，发扬“干”字精神，凝心聚力，攻坚克难，以更加高昂的热情和良好的精神面貌投入到工作中去爱岗敬业、乐教爱幼、脚踏实地、无私奉献，为幼教事业增砖加瓦，为幼儿园的美好未来贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>44</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>盘锦市积极研发智慧安监管理平台推进安全生产信息化建设</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2016-05-14</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>https://yjglj.panjin.gov.cn/2016_05/14_15/content-208550.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['盘锦市积极研发智慧安监管理平台 推进安全生产信息化建设_动态要闻_盘锦市应急管理局', '按照盘锦市安全生产信息化建设要求，盘锦市安监局积极开展盘锦市智慧安监建设与应用工作。近期，市安监局认真组织考察学习了移动、联通、电信等3大网络运营商提出的各类安全生产监督管理系统运营方案，并多次开展全市范围内研讨，结合安全生产实际，深入研发盘锦市特有的智慧安监管理平台。未来将整合改进安全生产行政审批、隐患排查治理、安全专家库、互联网宣传平台、城市地下管网智能化管理系统等基础数据库，并依托综合信息平台建设移动执法、安全生产诚信体系、企业信息共享、清单管理等信息管理系统，全面推动盘锦安全监管创新和发展。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>44</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>营口市环保局来我市考察学习农村小型污水处理设施建设相关工作</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2018-06-12</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>https://sthjj.panjin.gov.cn/2018_06/12_11/content-224013.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['营口市环保局来我市考察学习农村小型污水处理设施建设相关工作_动态要闻_盘锦市生态环境局', '为切实做好农村生活污水处理工作，全面改善提升农村生态环境质量，打造宜居生产生活环境，', '，由省环保厅农村处王军处长带队，营口市环境保护局、大石桥市环保局领导及相关工作人员、各乡镇村主要负责人一行', '人到我市大洼区榆树街道曾家村考察学习农村小型污水处理设施建设和运行情况。市环保局局长李勇向王军处长简单汇报了我市农村小型污水处理设施建设现状，项目实施单位辽宁华孚环境工程股份有限公司李贵成经理向考察学习的各位领导和同志现场介绍了农村小型污水处理设施的工作原理、技术模式、建设内容及项目建设工作经验。', '考察学习，营口市的各位领导和工作人员均对我市农村小型污水处理设施工作给予了充分肯定，表示感受颇深，盘锦市的小型污水处理设施建设工作将为营口市农村生活收集处理工作提供良好的借鉴，对下一步开展农村污水处理设施建设工作的开展扩宽思路、积累经验，具有重要的现实意义。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>44</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>营口市环保局来我区考察学习农村小型污水处理设施建设相关工作</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2018-06-15</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.dawa.gov.cn/2018_06/15_14/content-266756.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['营口市环保局来我区考察学习农村小型污水处理设施建设相关工作_污染防治_大洼区人民政府', '为切实做好农村生活污水处理工作，全面改善提升农村生态环境质量，打造宜居生产生活环境，6月7日，由省环保厅农村处王军处长带队，营口市环境保护局、大石桥市环保局领导及相关工作人员、各乡镇村主要负责人一行20余人到我区榆树街道曾家村考察学习农村小型污水处理设施建设和运行情况。市环保局局长李勇向王军处长简单汇报了我区农村小型污水处理设施建设现状，项目实施单位辽宁华孚环境工程股份有限公司李贵成经理向考察学习的各位领导和同志现场介绍了农村小型污水处理设施的工作原理、技术模式、建设内容及项目建设工作经验。通过考察学习，营口市的各位领导和工作人员均对我区农村小型污水处理设施工作给予了充分肯定，表示感受颇深，盘锦市的小型污水处理设施建设工作将为营口市农村生活收集处理工作提供良好的借鉴，对下一步开展农村污水处理设施建设工作的开展扩宽思路、积累经验，具有重要的现实意义。', '为切实做好农村生活污水处理工作，全面改善提升农村生态环境质量，打造宜居生产生活环境，', '6月7日，由省环保厅农村处王军处长带队，营口市环境保护局、大石桥市环保局领导及相关工作人员、各乡镇村主要负责人一行20余人到我区榆树街道曾家村考察学习农村小型污水处理设施建设和运行情况。市环保局局长李勇向王军处长简单汇报了我', '农村小型污水处理设施建设现状，项目实施单位辽宁华孚环境工程股份有限公司李贵成经理向考察学习的各位领导和同志现场介绍了农村小型污水处理设施的工作原理、技术模式、建设内容及项目建设工作经验。', '农村小型污水处理设施工作给予了充分肯定，表示感受颇深，盘锦市的小型污水处理设施建设工作将为营口市农村生活收集处理工作提供良好的借鉴，对下一步开展农村污水处理设施建设工作的开展扩宽思路、积累经验，具有重要的现实意义。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>44</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>江西省农垦事业管理办公室领导一行人来我市进行学习考察</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2018-05-21</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>https://nyncj.panjin.gov.cn/2018_05/21_15/content-217720.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['江西省农垦事业管理办公室领导一行13人来我市进行学习考察_动态要闻_盘锦市农业农村局', '一、市农委孙晓生副主任就“盘锦市农垦改革推进情况”做了相关汇报。二、大洼区农经局局长李长淞就“大洼农垦改革工作进展情况”进行了汇报。三、前往盘山县甜水农场南锅分场，考察分场与职工股份合作经营模式。四、前往太平农场凯地农机专业合作社和新村分场，考察土地流转、股份合作与规模化经营以及现代农业与乡村旅游发展。五、前往前进农场大堡子分场考察美丽乡村建设。六、前往王家农场东润米业股份有限公司考察专业化公司发展。七、前往大洼认养农业王家示范基地考察认养农业发展，设施农业建设。通过为期二天实地考察和学习，江西省农垦事业管理办公室一行领导对我市农垦改革发展的经验和做法给予了肯定，并表示此行收获良多。', '我市参加陪同的有：副市级领导朱中国、市农委主任杨昕、副主任孙晓生、市农垦局局长焦志强以及县区领导和县区农业部门负责人。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>44</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>省环保厅组织营口市环境保护局大石桥市环保局来我市参观考察农村小型污水处理设施工作</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2018-06-14</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>https://sthjj.panjin.gov.cn/2018_06/14_11/content-225418.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['省环保厅组织营口市环境保护局、大石桥市环保局来我市参观考察农村小型污水处理设施工作_农村环保_盘锦市生态环境局', '省环保厅组织营口市环境保护局、大石桥市环保局来我市参观考察农村小型污水处理设施工作', '为切实做好农村生活污水处理工作，全面改善提升农村生态环境质量，打造宜居生产生活环境，', '，由省环保厅农村处王军处长带队，营口市环境保护局、大石桥市环保局领导及相关工作人员、各乡镇村主要负责人一行', '人到我市大洼区榆树街道曾家村考察学习农村小型污水处理设施建设和运行情况。市环保局局长李勇向王军处长简单汇报了我市农村小型污水处理设施建设现状，项目实施单位辽宁华孚环境工程股份有限公司李贵成经理向考察学习的各位领导和同志现场介绍了农村小型污水处理设施的工作原理、技术模式、建设内容及项目建设工作经验。', '考察学习，营口市的各位领导和工作人员均对我市农村小型污水处理设施工作给予了充分肯定，表示感受颇深，盘锦市的小型污水处理设施建设工作将为营口市农村生活收集处理工作提供良好的借鉴，对下一步开展农村污水处理设施建设工作的开展扩宽思路、积累经验，具有重要的现实意义。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>44</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>盘锦市考察团赴沈阳学习考察浑河治理工程</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2018-06-06</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://slj.panjin.gov.cn/2018_06/06_10/content-122139.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['为提升我市水环境质量，2018年5月28日，盘锦市水利局局长宗克昌带领由副局长赵宝海、市水资源局、防办相关负责同志组成的考察团，前往浑河沈阳市段进行考察学习。', '下午，考察团一行在省水利设计院关为军总经理的陪同下，考察了浑河治理工程，听取了关为军总经理对浑河水生态建设情况深入透彻的介绍。', '考察团成员表示，通过考察学习，大家在河流截污、清淤、生态修复等方面很受启发，在下一步工作中，将学习借鉴沈阳市的做法和成功经验，坚持因地制宜，抓好我市河流治理工作。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>44</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>盘锦市组织督学行政人员赴沈阳市学习考察</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2017-12-22</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>https://jyj.panjin.gov.cn/2017_12/22_15/content-65428.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['2017年12月21日，盘锦市政府教育督导室组织全市督导行政管理人员赴沈阳市浑南区学习责任区挂牌督导建设和督导信息化建设工作，沈阳市政府教育督导室主任徐爱秋、浑南新区副区长孙含欣、沈阳市政府教育督导室办公室主任张玉玲、浑南区政府教育督导室主任冯凝陪同参加了此次学习活动。 徐爱秋主任向我们详细介绍了沈阳市政府教育督导室的发展历程及近几年来取得的主要成绩，孙含欣区长对浑南区政府教育督导工作发展情况和未来的工作重点向我们进行了介绍。 下午学习组到浑南区第二小学进行实地考察，详细询问了学校挂牌督学人员的日常工作流程，同时参观了学校的课外活动课建设成果。最后双方人员就本次学习活动进行了总结交流。盘锦市教育督导室主任梁春燕对沈阳市、浑南区的督学同仁能够在百忙之中给予本次学习活动提供帮助表达了真挚的感激，也强烈希望未来沈阳市、浑南区的督学同仁能够来盘锦市参观指导。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>44</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>市国土资源监察支队赴保定市徐水区学习基层国土资源执法监管工作经验</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2018-01-23</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>https://zrzyj.panjin.gov.cn/2018_01/23_11/content-212985.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['市国土资源监察支队赴保定市徐水区学习基层国土资源执法监管工作经验_动态要闻_盘锦市自然资源局', '为进一步加强和创新全市国土资源执法监察工作，经市国土资源监察支队研究并报市局批准，近日由支队长秦晓宁带队，县区局分管执法监察工作的副局长、监察大队大队长一行10人赴河北省保定市，实地考察学习徐水区落实基层国土资源执法监管责任的先进经验。 2017年12月，省厅下发《关于学习借鉴河北省保定市徐水区落实基层国土资源执法监管责任经验材料的通知》及相关材料，要求全省各市认真学习保定市徐水区基层国土资源执法监管工作的先进经验。市局主要领导、分管领导和市监察支队班子成员认真学习思考相关材料，深刻认识到徐水区在充分发挥基层监管方面的好做法、好经验的确值得我们学习借鉴。考察组于17日下午抵达后，即商请保定市国土资源执法监察处、市执法监察支队及部分中心城区执法监察相关工作人员进行座谈，双方分别就各自执法监察、违法查处、强制拆除等诸多工作方面的经验做法和实际困难深入探讨，进行了3个多小时的热烈交流。 18日上午，考察组在保定市国土资源局、执法监察处、执法监察支队相关领导陪同下来到徐水区实地学习，徐水区国土资源局主要领导及全体班子成员热情接待并全面介绍工作经验。徐水区地处京津石三角腹地，管辖面积723平方公里，其中耕地60.7万亩；辖区共有10镇4乡、1个城区办事处、1个开发区管委会，304个行政村，16个社区，62万人口。近年来，徐水区委、区政府以打造“雄安绿色服务桥头堡、保定高端发展先行区”为目标，发挥党政统筹作用，坚持党政同责、突出镇村监管，探索构建了“党政同责、三级网格、共同监管”的区、乡镇、村三位一体网格化监管体系，明确源头管控，加大制度支撑，强化监管联动，增强执法合力，购买社会服务，完善监管全覆盖。一系列扎实有效的措施，破解了国土资源年年治年年占、久治不绝的难题，保障了执法监察顺利执行，取得了工作成效。据介绍，徐水区从17年4月实施网格化机制以来，仅用了4个月时间，将最近三年形成的1800多宗、3600余亩违法占地全面清理，该拆除的全部拆除，该补办用地手续的补办手续，同年未发生一例新增违法占地，确实收到了实效。 通过2天紧张的考察学习，考察组全体人员解放了思想，增长了见识，找到了差距，受益匪浅，感受颇深。下步要将学到的先进经验与本地实际相结合，认真思考，积极协调，完善制度，抓好落实，进一步提升我市各级国土资源执法监察工作水平。', '为进一步加强和创新全市国土资源执法监察工作，经市国土资源监察支队研究并报市局批准，近日由支队长秦晓宁带队，县区局分管执法监察工作的副局长、监察大队大队长一行10人赴河北省保定市，实地考察学习徐水区落实基层国土资源执法监管责任的先进经验。', '年12月，省厅下发《关于学习借鉴河北省保定市徐水区落实基层国土资源执法监管责任经验材料的通知》及相关材料，要求全省各市认真学习保定市徐水区基层国土资源执法监管工作的先进经验。市局主要领导、分管领导和市监察支队班子成员认真学习思考相关材料，深刻认识到徐水区在充分发挥基层监管方面的好做法、好经验的确值得我们学习借鉴。考察组于17日下午抵达后，即商请保定市国土资源执法监察处、市执法监察支队及部分中心城区执法监察相关工作人员进行座谈，双方分别就各自执法监察、违法查处、强制拆除等诸多工作方面的经验做法和实际困难深入探讨，进行了3个多小时的热烈交流。', '日上午，考察组在保定市国土资源局、执法监察处、执法监察支队相关领导陪同下来到徐水区实地学习，徐水区国土资源局主要领导及全体班子成员热情接待并全面介绍工作经验。徐水区地处京津石三角腹地，管辖面积723平方公里，其中耕地60.7万亩；辖区共有10镇4乡、1个城区办事处、1个开发区管委会，304个行政村，16个社区，62万人口。近年来，徐水区委、区政府以打造“雄安绿色服务桥头堡、保定高端发展先行区”为目标，发挥党政统筹作用，坚持党政同责、突出镇村监管，探索构建了“党政同责、三级网格、共同监管”的区、乡镇、村三位一体网格化监管体系，明确源头管控，加大制度支撑，强化监管联动，增强执法合力，购买社会服务，完善监管全覆盖。一系列扎实有效的措施，破解了国土资源年年治年年占、久治不绝的难题，保障了执法监察顺利执行，取得了工作成效。据介绍，徐水区从17年4月实施网格化机制以来，仅用了4个月时间，将最近三年形成的1800多宗、3600余亩违法占地全面清理，该拆除的全部拆除，该补办用地手续的补办手续，同年未发生一例新增违法占地，确实收到了实效。', '通过2天紧张的考察学习，考察组全体人员解放了思想，增长了见识，找到了差距，受益匪浅，感受颇深。下步要将学到的先进经验与本地实际相结合，认真思考，积极协调，完善制度，抓好落实，进一步提升我市各级国土资源执法监察工作水平。', '【转载】凝聚全党全国各族人民的共同意志——党的十九届二中全会公报在社会各界引起热烈反响...']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>44</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>鑫诚集团考察学习小组赴大洼农垦集团学习交流国企党建工作</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2018-04-27</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>https://gzw.panjin.gov.cn/2018_04/27_13/content-211519.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['鑫诚集团考察学习小组 赴大洼农垦集团学习交流国企党建工作_企业之窗_盘锦市国有资产监督管理委员会', '4月25日下午，集团党委一行6人赴大洼农垦集团进行参观学习，双方就新形势下如何加强国企党建、人力资源等工作进行了深入交流。', '考察组一行对大洼农垦集团的楼层文化、党员活动室进行了实地参观学习，其金色稻穗党建模式、丰富多彩的楼层文化建设让人耳目一新，对集团党建工作提升具有很强借鉴意义。', '对党组织建设、企业文化建设、人力资源管理等方面进行了全面介绍。以抓学习、抓活动、抓载体、抓纪律、抓队伍、抓宣传、抓阵地的“七抓”工作法为切入点，开展党建工作，其中坚持一条主线，加强两个建设，培育三种精神，实现四大融合的金色稻穗党建特色载体，强化了基层党组织建设，充分发挥了基层党组织的战斗堡垒作用。', '对党组织建设、企业文化建设、人力资源管理等方面进行了全面介绍。以抓学习、抓活动、抓载体、抓纪律、抓队伍、抓宣传、抓阵地的', '最后，考察组对大洼农垦集团的热情分享表示感谢。并表示，此次学习交流，不仅对鑫诚集团党建、企业文化、人力资源工作是一次借鉴和提高，也为集团下一步做好党建工作和企业文化建设奠定了坚实基础。为提升鑫诚集团党建品牌，丰富红色企业文化，结合盘锦市党建平台建设要求，集团将进一步完善党组织架构创新载体，将载体建设深入到景区、物业及施工一线。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>44</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>资合作助推企业发展鑫诚集团积极主动对接省属国有企业</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2018-05-03</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>https://gzw.panjin.gov.cn/2018_05/03_10/content-211511.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['资合作助推企业发展 鑫诚集团积极主动对接省属国有企业_企业之窗_盘锦市国有资产监督管理委员会', '集团深入贯彻落实市委市政府工作部署，坚持“走出去、引进来”的发展理念，持续加强与省属国有企业合资合作工作推进力度，助推辽东湾新区高速优质发展。', '，双方为推进合资合作工作进行了深入交流。围绕合资公司股比、合作运营方式及配水管线选择等方面对合作建设工业净水厂项目进行了深入的初步探讨。最后，双方一致表态认为会坚定合作信心，快速推进项目建设，双方要进一步明确责任分工，确定好各项工作的时间节点，前期工作要马上开展，尽快进行协议签订，争取项目早日开花、落地、结果。', '下午，考察组又马不停蹄来到了辽宁省城乡建设集团。双方分别从组建情况、业务板块、企业区域定位等方面介绍了', '集团的业务契合度非常高，在规划设计、项目设计等领域有着非常多的合作机会，除此以外，还可多方位、深层次的探索股权合作、融资等方面的合作。希望以后可以一直保持良好交流，互相帮助，尽早达成合作。', '鑫诚集团将继续按照市委、市政府的工作部署，重实干、强执行、抓落实，继续对标先进，加大与省属国企的交流合作力度，拓展集团业务板块，增强盈利能力，努力促成更多的合作项目落地，为建设滨海新盘锦做出贡献。', '水务集团与中铁建大桥工程局集团第三工程有限公司签署“三供一业”供水正式分离移交协议...']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>44</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>我市组织赴宁夏湖北江西垦区进行学习考察</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2017-10-31</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>https://nyncj.panjin.gov.cn/2017_10/31_11/content-215004.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['为贯彻落实省政府主要领导5月4日来我市调研农垦改革发展的讲话精神，加快推进我市农垦改革发展，在省农垦局的协助下，5月10日—5月18日，对宁夏、湖北、江西三个垦区进行为期9天的学习考察。针对农垦改革的总体情况及三个垦区不同特点重点考察了以下几项内容:一、推进农场企业化、垦区集团化情况；二、土地管理制度创新情况；三、办社会职能改革情况；四、资本运营情况等。通过这次学习考察，大家学到了很多成功的经验和做法，收获良多。', '参加学习考察的有省农垦局卢江宁局长、李玉晨副局长、卢戈川主任，许强处长，赵鸿野处长，市农村经济委员会主任杨昕，市农垦管理局局长焦志强等领']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>44</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>葫芦岛市龙岗区委宣传部到我区学习考察创城工作经验</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2017-07-21</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.stq.gov.cn/2017_07/21_15/content-165127.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['考察团一行分别来到区网格管理中心、区市民服务中心、客运站、向海大道、建设街道、南迁社区、东风集贸市场、辽河岗、实验小学、湖滨公园、辽河碑林、文化广场等地实地参观，听取了网格化管理、志愿服务活动、文明校园创建、公益广告等有关工作情况汇报，每到一处，考察团都就创建工作经验进行了探讨。', '此次学习考察活动收获很多，受到的启发也很大，我区在创建全国文明城市工作上，领导重视程度高，财政投入力度大，创城工作效果好。考察团一定将这些好的经验做法带回去，结合龙岗区的实际抓好落实，同时也希望与我区进一步深化交流合作，推进共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>44</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>他山之石可以攻玉赴无锡考察学习河长制工作纪实</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2017-09-08</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>https://slj.panjin.gov.cn/2017_09/08_21/content-121355.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['烟雨江南，美丽无锡，惠风和畅，处处河岸整齐，绿草茵茵，水清见底，满目葱茏。一种自然之美、和谐之美映入眼帘……', '为加快推动盘锦市河长制工作，8月30至9月2日，市水利局、市河长办，县区水利局分管河长制工作的领导共计9人，组成河长制工作考察组，由市水利局分管副局长赵宝海带队，奔赴无锡市专程考察学习河长制工作。', '考察组一行带着问题，带着思路，采取听介绍、查资料、访现场、座谈交流、互动学习等多种方式，实地考察4处，召开座谈会2次，边学习边讨论，边交流边沟通，认真学习深刻领会无锡的好做法、好成效、好制度、好经验，达到了考察学习的预期目标。', '无锡河长制最大的创新在于重构了河湖管理模式。打破了“九龙治水的藩篱”。“ 十年磨一剑”。通过建立覆盖市、县、乡、村四级联动的河长体系，逐步形成了河长制“党政领导、河长主导、上下联动、部门共治、长效管护”的管理机制和“全覆盖、共参与、真落实、严监管、重奖惩”的工作机制，走出了一条具有无锡特色的河湖管理与治理新路，取得了显著成效。', '从组织架构看，无锡市5635条村级以上河道实现河长制管理全覆盖。纵向从市委书记、市长，到区委书记、区长、镇委书记、镇长、村支部书记、村委主任，各级“河长”形成“一荣俱荣、一损俱损”的治水“生态链”；横向从政府各级部门开始，发改、经贸、财政、规划、建设、国土、城管、工商、公安等部门各有分工、各具使命，谁都不能在水环境治理上缺位“行政圈”。', "从政策保障看，无锡先后出台《无锡市河道管理条例》、《无锡市河(湖、库、荡、氿)断面水质控制目标及考核办法(试行)》、《中共无锡市委无锡市人民政府关于全面建:“河(湖、库、荡、氿)长制”全面加强河(湖、库、荡、氿)综合整治和管理的决定》、《无锡市治理太湖保护水源工作问责办法》等文件，为河长制工作高位推进提供了政策支撑。特别是2016年无锡市委市政府出台了《无锡市全面深化推进河长制实施方案》，明确由地方党政负责人担任河长，作为所负责河道的第一责任人，对水生态环境、水环境质量持续改善和断面水质达标负领导责任，负责牵头组织河道综合治理，抓好工作推进和横向协调，落实长效管理措施。为压实责任，无锡市委组织部又出台了《无锡市委组织部关于对市委市政府重大决策部署执行不力实行'一票否决'的意见》，对工作不力、拖延懈怠、推诿塞责的相关责任人进行诫勉谈话；对存在玩忽职守、失职、渎职等行为的有关责任人，依照有关法律、法规追究责任。", '从治理手段上看，多措并举力度空前。以“一河一档”为基础，制定“一河一策”，并且实现动态更新。各级财政平均每年增加4个亿资金直接用与河长制管理专项工作。全市73座污水处理厂全部达到一级A排放标准。广泛开展“排水达标区”创建活动，累计建成5081个“排水达标区”，全市城镇污水集中处理率90%，其中主城区达95%。累计关停“三高两低”和“五小”企业企业2819家，劝退和否决2100多个不环保项目。加快产业结构调整转型升级，大力实施“腾笼换鸟”，推进发展微电子、生物医药、光伏太阳能、物联网产业；全力推进城市工业布局和农村居住布局调整，搬迁入园工业企业3200余家，市区116家企业全部“退城入园”。', '从社会影响力看，随着河长制的逐渐深入，社会群众参与河道管理的热情高涨。至2016年，全市登记在册的河道保护志愿者从最初的50人发展到5000人，十年来共举办环太湖骑行、“千名市民看水利”、“保护母亲河”万人接力长跑等大型公益活动150次，参加人数超过20万人次。', '与此同时，无锡还将进一步构建完善河湖规划引领约束机制、生态保护补偿机制以及水权、排污权、碳排放权初始分配制度和交易制度。加强治污设施的建设和运行维护，进一步提高城乡生活污水接管率、处理率和达标率。实施山水林田湖生态保护和修复工程，加大河湖源头区、水源涵养区、生态敏感区保护力度，打通山水林田湖间的“关节”和“经脉”，建设人水和谐的海绵城市。', '大家认为，河长制工作是落实绿色发展理念、推进生态文明建设的内在要求，是解决复杂水问题、维护河湖健康生命的有效举措，是完善水治理体系、保障水安全的制度创新，功在当代、利在千秋、惠及子孙。思路决定出路，唯有进一步解放思想，深化发展理念，广泛动员，全民参与，才能确保形成推进合力，圆满实现治理保护预期目标。', '大家认为，我市推动河长制工作在参考无锡做法和成功经验的同时，要重点围绕河长制六大体系（名录体系、规划体系、方案体系、施策体系、责任体系）解决好四个突出问题： 一是在河长制办公室机构设置上，根据中央、省政府意见设立专门的河长制办公室，建议设置高规格工作机构，及早成立市、县河长制办公室，增加人员编制，配备专职人员，确保河长制工作有人抓、有人管，强力推进。二是在财政经费上，针对河长制工作涉及面广、工作量大、治理任务重的特点，加大各级财政资金投入力度，设立专门的河长制管理工作保障经费，配备相关装备，并设立奖励资金，市、县财政每年列支专项奖励资金，用于奖励全市各级河长制工作先进地区和部门。三是在考核问责上，出台最严格的政策法规，加大对河长制工作情况的的问责和督导检查，对重点难点问题进行挂牌督办。建立健全河长制考核评价体系，考核结果作为地方党政领导综合考核评价的重要依据。四是在监管机制上，要借鉴锡山区经验，建立河长制与“片长制” 全配套服务保障治水工作管理模式，由党委、人大、政府、政协四套班子领导担任“片长”。河长统筹承担“管、治、保”责任。其中县级以上河长着重牵头“治”，乡、村河长更加突出“管”“保”。片长负责部署、协调、监督本片区河长制工作，达到从领导到机构的全覆盖。', '考察结束后，市水利局副局长赵宝海强调，要认真学习无锡的经验做法，吸收转化本次学习考察成果，提升河长制办公室自转能力，并就当前河长制工作谈了四点意见： 1.河长制办公室组建工作。要认真落实省委省政府办公厅下发的《辽宁省实施河长制工作方案》和《中共辽宁省委办公厅 辽宁省人民政府办公厅 关于设立四级总河长、河长设置三级河长制办公室有关事宜的通知》（辽委办发〔2017〕40号）文件精神，市政府常务会议已经议定成立河长制办公室，各县区待文件下发后，也要尽快比照落实本区域河长办组织机构。', '2.尽快启动“一河一档”调查摸底工作。要在9月中旬前完成全市河流名录确权工作。对市管河流河长办要协调各成员单位，要尽快进行“一河一档”的情况摸底调查，各县区要按照市里的时间安排做好各自的调查工作。', '3.充实完善河长制工作方案和制度，确保河长制管理落到实处。我们在学习借鉴先进经验的基础上，要尽快完善充实乡级以上工作方案，研究拟定《河长制实施方案》，力争年底前完成。同时，要尽快出台市县两级河长会议制度、部门联动制度、信息报送制度和工作督察督办等制度，制定出台市级河长制考核办法。', '4.要克服畏难情绪，发挥各级河长办高位协调职能。要协调各相关成员单位，下大力气加强河道管理和监管，确保水生态环境持续改善。一是全面落实最严格水资源管理制度，严控入河库排污总量，使水功能区水质达标率达到省控要求。二是强化河道巡查与执法检查力度，市县年底前要搞一次联合执法行动，严厉打击非法侵占河道等破坏水生态环境的违法行为。', '中国水利报：有效破解治水难题的制度创新——写在中央决定全面推行河长制一周年之际...']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>44</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>全省学习贯彻习近平总书记重要讲话精神培训班学员参观考察辽河国际艺术区</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2017-03-03</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.xlt.gov.cn/2017_03/03_17/content-152326.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['全省学习贯彻习近平总书记重要讲话精神培训班学员参观考察辽河国际艺术区_兴隆要闻_兴隆台区人民政府', '3月2日下午，省委宣传部副部长、省文联党组书记盖成立带领省宣传部培训班学员50多人到辽河国际艺术区考察学习。区委书记老颜武，区委常委、宣传部长宋伟峰，区委常委、区委办主任谢兴龙以及相关部门负责同志陪同考察。', '下午3点，培训班学员参观了辽河美术馆，随后，学员们来到广厦艺术街，崔志良介绍了总体情况，并带领省委宣传部及省文化厅领导及各市学员参观了部分艺术家工作室和画廊，考察持续到4:40分结束。', '盖成立走进艺术家画廊、工作室，欣赏艺术作品，了解艺术家创作及文化产品生产销售情况，对广厦艺术街恢宏大气、充满活力给予高度评价，对兴隆台区高度重视并大力扶持文化产业的做法给予充分肯定，并号召在场学员学习我区经验和做法。盖成立强调，广厦艺术街是以文化为主题、六大板块为核心的全省唯一的真正意义上的艺术街区，能够吸引国内外艺术大家来此创业发展，能够为艺术家提供良好的创业平台，说明这里已经具备了国际艺术区的水准，现已起势成局、渐开新篇。希望广厦艺术街进一步提升在东北亚地区的知名度，将这里建设成为以美术创作为主的世界级大型文化艺术综合体。学员们对我区大手笔发展文化事业文化产业无比感慨，纷纷表示，将认真学习兴隆台区发展文化工作的超前理念和思路，谋划好本市的文化工作特别是文化产业发展。', '据悉，本次省里举办的培训班学员来自省委宣传部、省文化厅、新闻出版广电局、省文联、作协及《辽宁日报》、辽宁电视台和东北网络台相关领导，各市主管文化工作的副部长。通过考察，口口相传，必将进一步扩大辽河国际艺术区的宣传覆盖面，提高知晓率和知名度，必将会吸引更多的商家及人才入区创业发展。（宣传部）']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>44</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>我市农垦系统赴宁夏湖北江西垦区进行学习考察</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2017-05-26</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>https://nyncj.panjin.gov.cn/2017_05/26_15/content-218946.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['为贯彻落实省政府主要领导5月4日来我市调研农垦改革发展工作时的讲话精神，加快推进我市农垦改革发展步伐，在省农垦局的协助下，5月10日—5月18日，我市农垦系统对宁夏、湖北、江西三个垦区进行为期9天的学习考察。针对农垦改革的总体情况及三个垦区不同特点，重点考察了以下几项内容:一、推进农场企业化、垦区集团化情况；二、土地管理制度创新情况；三、办社会职能改革情况；四、资本运营情况等。通过这次学习考察，大家学到了很多成功的经验和做法，收获良多。 参加学习考察的有省农垦局卢江宁局长、李玉晨副局长、卢戈川主任，许强处长，赵鸿野处长，市农村经济委员会主任杨昕，市农垦管理局局长焦志强等领导，联合参加的有市委政研室、市编办领导及相关负责同志。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>44</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>丹东物价局到盘山县水利局考察农业用水价格管理情况</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2017-06-08</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://slj.panjin.gov.cn/2017_06/08_10/content-121021.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['6月6日，丹东市物价局行政审批办公室副主任郭大军一行来我局考察学习农业用水价价格管理工作，盘山县水利局党委副书记李彦霏等陪同考察。', '考察组与盘山县水利局召开了座谈会。会上，县物价局、水利局介绍了我县农业用水价价格管理工作，双方就现行农业灌溉用水价格水平、农业灌溉用水经营模式、农业灌溉用水价格调整后的社会反映、成本测算的方式及有关情况等细节问题进行了交流。', '考察组认为，盘山县水利局在推进农业用水价格管理中取得的成效值得学习和借鉴，将把取得的真经转化为推进农业用水价格管理的动力，确保改革落地、取得实效。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>44</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>阜新市委组织部前来高新区考察学习非公党建经验</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2017-03-31</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>https://gxq.panjin.gov.cn/2017_03/31_17/content-219332.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['阜新市委组织部前来高新区考察学习非公党建经验_动态要闻_盘锦高新技术产业开发区管理委员会', '3月31日下午，阜新市委组织部组织县区、园区党务工作者一行20余人来到盘锦高新区，就园区党建和非公企业党建工作进行考察学习。高新区党工委专职副书记刘伟陪同考察。 考察组一行首先来到高新区非公企业党建工作示范支部——盘锦海兴科技股份有限公司党支部。考察组一行实地参观企业产品展示区和党员活动中心，详细了解了企业党支部发挥党建引领作用的工作模式和方法。 在盘锦科技孵化器，考察组对于联合党支部组织活动开展情况、为在孵企业发展所创造的氛围、提供的帮助，及其无处不在的党建工作宣传元素，给予了一致肯定。 随后，考察组一行来到高新区管委会，参观了高新区“企业社区”，考察了“企业社区”党委“12345”工作体系和运行模式，了解了高新区非公企业党组织的数量、活动开展情况等，观看了《高新区“非公党建”创新记》，全面系统地了解了高新区非公党建工作的创新之处。 在与刘伟书记进行经验交流时，考察组一行高度评价了“企业社区”党委勇于探索、善于创新的理念和实践，认为高新区非公党建工作特色明显，载体丰富。同时表示此次考察学习之行成效显著，为阜新县区、园区的党建工作开拓了新思路。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>44</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>海城市政府一行到盘锦学习创新创业情况进行工作调研</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2016-12-27</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>https://kjj.panjin.gov.cn/2016_12/27_09/content-116700.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['12月3日，海城市政府一行赴盘锦开展“创新创业”调研，调研由海城市常务副市长杨润松同志带队，学习考察盘锦开展“创新创业”工作取得的成效。市政府副秘书长梁建松、市科技局局长刘吉广陪同调研，兴隆区“双创”牵头任务各部门负责同志参加座谈会。 海城市政府一行先后前往盘锦市辽东湾新区创e时代孵化器、猎鹰航空公司、盘锦互联网创业大厦、盛世康公司、中蓝电子公司、盘锦科技孵化器等地进行实地考察，就我市孵化器、“众创空间”等科技创新载体的建设运营情况和小巨人企业培育情况进行深入了解。调研结束后，在兴隆台区高新区管委会二楼会议室召开座谈会。市政府副秘书长梁建松同志主持会议，市科技局局长刘吉广介绍2016年全市开展“双创”工作取得的进展和成效。海城市政府一行相关对口部门与兴隆台区牵头落实“双创”工作的部门进行了广泛的交流，双方就“双创”开展一年来的工作进行深入的探讨。 海城市政府一行十分感谢盘锦市学习考察的安排，对盘锦市开展“双创”工作，在创新方面采取的各项举措，取得的成绩表示震撼，表示将加强与盘锦市的联系，学习盘锦市开展“双创”工作的宝贵经验，充分激发全社会的创新创业力量。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>44</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>朝阳市朝阳县委组织部来园区考察学习非公党建工作</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2016-12-07</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>https://gxq.panjin.gov.cn/2016_12/07_14/content-219422.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['朝阳市朝阳县委组织部来园区考察学习非公党建工作_动态要闻_盘锦高新技术产业开发区管理委员会', '12月6日，朝阳市朝阳县委组织部非公党建第七指导站站长带队，到高新区考察学习非公党建工作先进经验。高新区党工委专职副书记、“企业社区”党委书记刘伟，兴隆台区委组织部党建工作指导站站长陪同。', '考察组一行首先参观了高新区非公企业党建工作示范支部：盘锦海兴科技股份有限公司党支部和盘锦盛世康环保科技有限公司党支部，认真听取了支部书记关于企业党建工作开展情况和党组织活动情况，更为直观地感受到组织建设给企业党员和职工带来的积极向上的影响和变化，党建工作为企业发展带来的实实在在的效益和收获。', '随后，考察组一行来到管委会，参观了高新区“企业社区”。在便企服务中心，参观人员被兼具个性化和人性化的服务大厅所吸引，赞不绝口。他们表示，第一次看到设计规划如此新颖、功能分区这般齐全、服务设施如此完善的办事大厅，在这里完全看不到政府部门的“架子”，看到的只有全心全意服务企业的一片热情。', '考察组一行实地考察了“企业社区”党委“12345”工作体系和运行模式，详细了解了高新区非公企业党组织的数量、活动开展情况等，听取了高新区党建工作最新进展情况的介绍，观看了《高新区“非公党建”创新记》，全面系统地了解了高新区非公党建工作的亮点和特点。', '考察组对“企业社区”党委勇于探索、善于创新的理念和实践给予了高度评价，认为高新区非公党建工作突破了传统模式，工作内容新颖，服务载体丰富，同时表示此次考察学习之行有必要、有成效，对于他们更好地开展非公企业党建工作、提高朝阳县非公党建创新能力、加强党建工作指导站建设具有十分重要的意义。']</t>
         </is>
